--- a/docs/downloads/rankings_latest.xlsx
+++ b/docs/downloads/rankings_latest.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SJT_FivesRankings_20251110" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="SJT_FivesRankings_20251110" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>

--- a/docs/downloads/rankings_latest.xlsx
+++ b/docs/downloads/rankings_latest.xlsx
@@ -3414,125 +3414,171 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HOPKINS</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v/>
+          <t>WISEMAN</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="F12" s="4" t="n">
         <v/>
       </c>
-      <c r="G12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v/>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
       </c>
       <c r="K12" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v/>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="L12" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="N12" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
       </c>
       <c r="O12" s="4" t="n">
         <v/>
       </c>
-      <c r="P12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v/>
+      <c r="P12" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="Q12" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
       </c>
       <c r="R12" s="4" t="n">
         <v/>
       </c>
-      <c r="S12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v/>
+      <c r="S12" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="T12" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="U12" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="V12" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="W12" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="X12" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Y12" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="Z12" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AA12" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AB12" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AC12" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="AD12" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
       </c>
       <c r="AE12" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF12" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AG12" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AH12" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI12" s="4" t="inlineStr">
+        <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="AF12" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG12" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AH12" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AI12" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AJ12" s="4" t="inlineStr">
         <is>
-          <t>QF</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AK12" s="4" t="inlineStr">
@@ -3542,12 +3588,12 @@
       </c>
       <c r="AL12" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AN12" s="3" t="inlineStr">
@@ -3556,25 +3602,25 @@
         </is>
       </c>
       <c r="AO12" s="3" t="n">
-        <v>19.94</v>
+        <v>29.69</v>
       </c>
       <c r="AP12" t="n">
-        <v>33</v>
+        <v>50.3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AR12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS12" s="3" t="n">
-        <v>60.42424242424241</v>
+        <v>59.02584493041751</v>
       </c>
       <c r="AT12" t="n">
-        <v>60.42424242424241</v>
+        <v>59.02584493041751</v>
       </c>
       <c r="AU12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV12" t="n">
         <v>11</v>
@@ -3589,213 +3635,215 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>WISEMAN</t>
+          <t>PERRIE</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="F13" s="4" t="n">
-        <v/>
-      </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="I13" s="4" t="inlineStr">
+      <c r="K13" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="L13" s="4" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="N13" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="O13" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="P13" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q13" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="R13" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="S13" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T13" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U13" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="V13" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W13" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="K13" s="4" t="inlineStr">
+      <c r="X13" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="Y13" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Z13" s="4" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="L13" s="4" t="inlineStr">
+      <c r="AA13" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AB13" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="AC13" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD13" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE13" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF13" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG13" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="N13" s="4" t="inlineStr">
+      <c r="AH13" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI13" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ13" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="O13" s="4" t="n">
-        <v/>
-      </c>
-      <c r="P13" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="Q13" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="R13" s="4" t="n">
-        <v/>
-      </c>
-      <c r="S13" s="4" t="inlineStr">
+      <c r="AK13" s="4" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="T13" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="U13" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="V13" s="4" t="inlineStr">
+      <c r="AL13" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="W13" s="4" t="inlineStr">
+      <c r="AN13" s="3" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="X13" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Y13" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="Z13" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AA13" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AB13" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AC13" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AD13" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AE13" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF13" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AG13" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AH13" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI13" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AJ13" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AK13" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL13" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AN13" s="3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AO13" s="3" t="n">
-        <v>29.69</v>
+        <v>23.9</v>
       </c>
       <c r="AP13" t="n">
-        <v>50.3</v>
+        <v>43.45</v>
       </c>
       <c r="AQ13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="3" t="n">
+        <v>55.00575373993095</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>55.00575373993095</v>
+      </c>
+      <c r="AU13" t="n">
         <v>14</v>
-      </c>
-      <c r="AR13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS13" s="3" t="n">
-        <v>59.02584493041751</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>59.02584493041751</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>13</v>
       </c>
       <c r="AV13" t="n">
         <v>12</v>
@@ -3810,200 +3858,190 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PERRIE</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="inlineStr">
+          <t>BHIMJIYANI</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v/>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v/>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="I14" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="J14" s="4" t="n">
+        <v/>
+      </c>
+      <c r="K14" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="L14" s="4" t="n">
+        <v/>
+      </c>
+      <c r="M14" s="4" t="n">
+        <v/>
+      </c>
+      <c r="N14" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="O14" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="P14" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Q14" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="R14" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="S14" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T14" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="U14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="V14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="X14" s="4" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="Y14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Z14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AB14" s="4" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="H14" s="4" t="inlineStr">
+      <c r="AC14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD14" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="I14" s="4" t="inlineStr">
+      <c r="AE14" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="J14" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="K14" s="4" t="inlineStr">
+      <c r="AF14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG14" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AH14" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="L14" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="M14" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="N14" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="O14" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="P14" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Q14" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="R14" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="S14" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T14" s="4" t="n">
-        <v/>
-      </c>
-      <c r="U14" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="V14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W14" s="4" t="inlineStr">
+      <c r="AI14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ14" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="X14" s="4" t="inlineStr">
+      <c r="AK14" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="Y14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Z14" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AA14" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AB14" s="4" t="inlineStr">
+      <c r="AL14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AC14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AD14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG14" s="4" t="inlineStr">
+      <c r="AN14" s="3" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AH14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ14" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AK14" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AL14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AN14" s="3" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
       <c r="AO14" s="3" t="n">
-        <v>23.9</v>
+        <v>26.74</v>
       </c>
       <c r="AP14" t="n">
-        <v>43.45</v>
+        <v>48.8</v>
       </c>
       <c r="AQ14" t="n">
         <v>10</v>
@@ -4012,13 +4050,13 @@
         <v>0</v>
       </c>
       <c r="AS14" s="3" t="n">
-        <v>55.00575373993095</v>
+        <v>54.79508196721311</v>
       </c>
       <c r="AT14" t="n">
-        <v>55.00575373993095</v>
+        <v>54.79508196721311</v>
       </c>
       <c r="AU14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV14" t="n">
         <v>13</v>
@@ -4033,205 +4071,199 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BHIMJIYANI</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v/>
+          <t>WELTI</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="G15" s="4" t="n">
-        <v/>
+      <c r="F15" s="4" t="n">
+        <v/>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="H15" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="I15" s="4" t="inlineStr">
+      <c r="I15" s="4" t="n">
+        <v/>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v/>
+      </c>
+      <c r="K15" s="4" t="n">
+        <v/>
+      </c>
+      <c r="L15" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="M15" s="4" t="n">
+        <v/>
+      </c>
+      <c r="N15" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="O15" s="4" t="n">
+        <v/>
+      </c>
+      <c r="P15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="J15" s="4" t="n">
-        <v/>
-      </c>
-      <c r="K15" s="4" t="inlineStr">
+      <c r="Q15" s="4" t="n">
+        <v/>
+      </c>
+      <c r="R15" s="4" t="n">
+        <v/>
+      </c>
+      <c r="S15" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T15" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U15" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="V15" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="W15" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="X15" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Y15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="L15" s="4" t="n">
-        <v/>
-      </c>
-      <c r="M15" s="4" t="n">
-        <v/>
-      </c>
-      <c r="N15" s="4" t="inlineStr">
+      <c r="Z15" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA15" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AB15" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="O15" s="4" t="inlineStr">
+      <c r="AD15" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="P15" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Q15" s="4" t="inlineStr">
+      <c r="AF15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="R15" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="S15" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T15" s="4" t="inlineStr">
+      <c r="AG15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="U15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="V15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="X15" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="Y15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Z15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AB15" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AC15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AD15" s="4" t="inlineStr">
+      <c r="AH15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AE15" s="4" t="inlineStr">
+      <c r="AI15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AF15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG15" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AH15" s="4" t="inlineStr">
+      <c r="AJ15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AI15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ15" s="4" t="inlineStr">
+      <c r="AK15" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AK15" s="4" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AL15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
       <c r="AN15" s="3" t="inlineStr">
         <is>
-          <t>QF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AO15" s="3" t="n">
-        <v>26.74</v>
+        <v>28.6</v>
       </c>
       <c r="AP15" t="n">
-        <v>48.8</v>
+        <v>52.45</v>
       </c>
       <c r="AQ15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR15" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15" s="3" t="n">
-        <v>54.79508196721311</v>
+        <v>54.52812202097235</v>
       </c>
       <c r="AT15" t="n">
-        <v>54.79508196721311</v>
+        <v>54.52812202097235</v>
       </c>
       <c r="AU15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV15" t="n">
         <v>14</v>
@@ -4246,61 +4278,65 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>WELTI</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
+          <t>HUGHES</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v/>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v/>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="H16" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v/>
+      </c>
+      <c r="J16" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="K16" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="F16" s="4" t="n">
-        <v/>
-      </c>
-      <c r="G16" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="H16" s="4" t="inlineStr">
+      <c r="L16" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="M16" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="N16" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="I16" s="4" t="n">
-        <v/>
-      </c>
-      <c r="J16" s="4" t="n">
-        <v/>
-      </c>
-      <c r="K16" s="4" t="n">
-        <v/>
-      </c>
-      <c r="L16" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="M16" s="4" t="n">
-        <v/>
-      </c>
-      <c r="N16" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="O16" s="4" t="n">
-        <v/>
+      <c r="O16" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="P16" s="4" t="inlineStr">
         <is>
@@ -4310,14 +4346,18 @@
       <c r="Q16" s="4" t="n">
         <v/>
       </c>
-      <c r="R16" s="4" t="n">
-        <v/>
+      <c r="R16" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
       </c>
       <c r="S16" s="4" t="n">
         <v/>
       </c>
-      <c r="T16" s="4" t="n">
-        <v/>
+      <c r="T16" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
       </c>
       <c r="U16" s="4" t="inlineStr">
         <is>
@@ -4326,119 +4366,119 @@
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="X16" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="Y16" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Z16" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA16" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AB16" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC16" s="4" t="inlineStr">
+        <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="Z16" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA16" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AB16" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC16" s="4" t="inlineStr">
+      <c r="AD16" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE16" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AD16" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE16" s="4" t="inlineStr">
+      <c r="AF16" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AF16" s="4" t="inlineStr">
+      <c r="AG16" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AG16" s="4" t="inlineStr">
+      <c r="AH16" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI16" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AH16" s="4" t="inlineStr">
+      <c r="AJ16" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AI16" s="4" t="inlineStr">
+      <c r="AK16" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL16" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AJ16" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AK16" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL16" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
       <c r="AN16" s="3" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
       <c r="AO16" s="3" t="n">
-        <v>28.6</v>
+        <v>23.09</v>
       </c>
       <c r="AP16" t="n">
-        <v>52.45</v>
+        <v>43.3</v>
       </c>
       <c r="AQ16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR16" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS16" s="3" t="n">
-        <v>54.52812202097235</v>
+        <v>53.3256351039261</v>
       </c>
       <c r="AT16" t="n">
-        <v>54.52812202097235</v>
+        <v>53.3256351039261</v>
       </c>
       <c r="AU16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV16" t="n">
         <v>15</v>
@@ -4453,12 +4493,12 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HUGHES</t>
+          <t>ABRAHAMS</t>
         </is>
       </c>
       <c r="D17" s="4" t="n">
@@ -4470,190 +4510,174 @@
       <c r="F17" s="4" t="n">
         <v/>
       </c>
-      <c r="G17" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="H17" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="G17" s="4" t="n">
+        <v/>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v/>
       </c>
       <c r="I17" s="4" t="n">
         <v/>
       </c>
-      <c r="J17" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="K17" s="4" t="inlineStr">
+      <c r="J17" s="4" t="n">
+        <v/>
+      </c>
+      <c r="K17" s="4" t="n">
+        <v/>
+      </c>
+      <c r="L17" s="4" t="n">
+        <v/>
+      </c>
+      <c r="M17" s="4" t="n">
+        <v/>
+      </c>
+      <c r="N17" s="4" t="n">
+        <v/>
+      </c>
+      <c r="O17" s="4" t="n">
+        <v/>
+      </c>
+      <c r="P17" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Q17" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="R17" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="S17" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T17" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="U17" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="V17" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="W17" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="X17" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Y17" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Z17" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="L17" s="4" t="inlineStr">
+      <c r="AA17" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AB17" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC17" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AD17" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE17" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="M17" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="N17" s="4" t="inlineStr">
+      <c r="AF17" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AG17" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="O17" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="P17" s="4" t="inlineStr">
+      <c r="AH17" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AI17" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="Q17" s="4" t="n">
-        <v/>
-      </c>
-      <c r="R17" s="4" t="inlineStr">
+      <c r="AJ17" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="S17" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T17" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="U17" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="V17" s="4" t="inlineStr">
+      <c r="AK17" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="W17" s="4" t="inlineStr">
+      <c r="AL17" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="X17" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Y17" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Z17" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA17" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AB17" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC17" s="4" t="inlineStr">
+      <c r="AM17" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AD17" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE17" s="4" t="inlineStr">
+      <c r="AN17" s="3" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AF17" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AG17" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AH17" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI17" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AJ17" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AK17" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL17" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AN17" s="3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AO17" s="3" t="n">
-        <v>23.09</v>
+        <v>27.91</v>
       </c>
       <c r="AP17" t="n">
-        <v>43.3</v>
+        <v>54.35</v>
       </c>
       <c r="AQ17" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AR17" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS17" s="3" t="n">
-        <v>53.3256351039261</v>
+        <v>51.35234590616376</v>
       </c>
       <c r="AT17" t="n">
-        <v>53.3256351039261</v>
+        <v>51.35234590616376</v>
       </c>
       <c r="AU17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV17" t="n">
         <v>16</v>
@@ -4668,12 +4692,12 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>J</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ABRAHAMS</t>
+          <t>PEMBERTON</t>
         </is>
       </c>
       <c r="D18" s="4" t="n">
@@ -4715,144 +4739,126 @@
       <c r="P18" s="4" t="n">
         <v/>
       </c>
-      <c r="Q18" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="R18" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="Q18" s="4" t="n">
+        <v/>
+      </c>
+      <c r="R18" s="4" t="n">
+        <v/>
       </c>
       <c r="S18" s="4" t="n">
         <v/>
       </c>
-      <c r="T18" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="U18" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="V18" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="W18" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="X18" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Y18" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Z18" s="4" t="inlineStr">
+      <c r="T18" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U18" s="4" t="n">
+        <v/>
+      </c>
+      <c r="V18" s="4" t="n">
+        <v/>
+      </c>
+      <c r="W18" s="4" t="n">
+        <v/>
+      </c>
+      <c r="X18" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Y18" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Z18" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AA18" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AA18" s="4" t="inlineStr">
+      <c r="AB18" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC18" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD18" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE18" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF18" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG18" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AB18" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC18" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AD18" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE18" s="4" t="inlineStr">
+      <c r="AH18" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AF18" s="4" t="inlineStr">
+      <c r="AI18" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ18" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AK18" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="AL18" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AG18" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AH18" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AI18" s="4" t="inlineStr">
+      <c r="AN18" s="3" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AJ18" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AK18" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AL18" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AN18" s="3" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
       <c r="AO18" s="3" t="n">
-        <v>27.91</v>
+        <v>17.32</v>
       </c>
       <c r="AP18" t="n">
-        <v>54.35</v>
+        <v>34.84999999999999</v>
       </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AR18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AS18" s="3" t="n">
-        <v>51.35234590616376</v>
+        <v>49.69870875179341</v>
       </c>
       <c r="AT18" t="n">
-        <v>51.35234590616376</v>
+        <v>49.69870875179341</v>
       </c>
       <c r="AU18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV18" t="n">
         <v>17</v>
@@ -4867,12 +4873,12 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PEMBERTON</t>
+          <t>MCCAHON</t>
         </is>
       </c>
       <c r="D19" s="4" t="n">
@@ -4923,47 +4929,61 @@
       <c r="S19" s="4" t="n">
         <v/>
       </c>
-      <c r="T19" s="4" t="n">
-        <v/>
-      </c>
-      <c r="U19" s="4" t="n">
-        <v/>
-      </c>
-      <c r="V19" s="4" t="n">
-        <v/>
-      </c>
-      <c r="W19" s="4" t="n">
-        <v/>
-      </c>
-      <c r="X19" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Y19" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Z19" s="4" t="n">
-        <v/>
+      <c r="T19" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="U19" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="V19" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="W19" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="X19" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Y19" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Z19" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
       </c>
       <c r="AA19" s="4" t="inlineStr">
         <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AB19" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AC19" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="AD19" s="4" t="inlineStr">
+        <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AB19" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC19" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AD19" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AE19" s="4" t="inlineStr">
         <is>
           <t>P</t>
@@ -4976,64 +4996,64 @@
       </c>
       <c r="AG19" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AH19" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI19" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ19" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AK19" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL19" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AH19" s="4" t="inlineStr">
+      <c r="AN19" s="3" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AI19" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ19" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AK19" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AL19" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AN19" s="3" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
       <c r="AO19" s="3" t="n">
-        <v>17.32</v>
+        <v>16.1</v>
       </c>
       <c r="AP19" t="n">
-        <v>34.84999999999999</v>
+        <v>35.7</v>
       </c>
       <c r="AQ19" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AR19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AS19" s="3" t="n">
-        <v>49.69870875179341</v>
+        <v>45.09803921568628</v>
       </c>
       <c r="AT19" t="n">
-        <v>49.69870875179341</v>
+        <v>45.09803921568628</v>
       </c>
       <c r="AU19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV19" t="n">
         <v>18</v>
@@ -5048,12 +5068,12 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MCCAHON</t>
+          <t>WISEMAN</t>
         </is>
       </c>
       <c r="D20" s="4" t="n">
@@ -5101,134 +5121,136 @@
       <c r="R20" s="4" t="n">
         <v/>
       </c>
-      <c r="S20" s="4" t="n">
-        <v/>
+      <c r="S20" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
       </c>
       <c r="T20" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U20" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
         <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="X20" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Y20" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Z20" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AA20" s="4" t="inlineStr">
+        <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="X20" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Y20" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Z20" s="4" t="inlineStr">
+      <c r="AB20" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC20" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AD20" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AA20" s="4" t="inlineStr">
+      <c r="AE20" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AF20" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AG20" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AH20" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AB20" s="4" t="inlineStr">
+      <c r="AI20" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AC20" s="4" t="inlineStr">
+      <c r="AJ20" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AK20" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL20" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AN20" s="3" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="AD20" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AE20" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF20" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG20" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AH20" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI20" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ20" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AK20" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL20" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AN20" s="3" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
       <c r="AO20" s="3" t="n">
-        <v>16.1</v>
+        <v>16.85</v>
       </c>
       <c r="AP20" t="n">
-        <v>35.7</v>
+        <v>38.55</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR20" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AS20" s="3" t="n">
-        <v>45.09803921568628</v>
+        <v>43.70946822308691</v>
       </c>
       <c r="AT20" t="n">
-        <v>45.09803921568628</v>
+        <v>43.70946822308691</v>
       </c>
       <c r="AU20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV20" t="n">
         <v>19</v>
@@ -5243,82 +5265,110 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>WISEMAN</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="E21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="F21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="G21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="H21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="I21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="J21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="K21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="L21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="M21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="N21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="O21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="P21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Q21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="R21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="S21" s="4" t="inlineStr">
+          <t>BROCK</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="M21" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="N21" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="O21" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="P21" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q21" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R21" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="S21" s="4" t="n">
+        <v/>
+      </c>
       <c r="T21" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="U21" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="X21" s="4" t="inlineStr">
@@ -5328,104 +5378,104 @@
       </c>
       <c r="Y21" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="Z21" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AA21" s="4" t="inlineStr">
         <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AB21" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AC21" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="AD21" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE21" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF21" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG21" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AH21" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AI21" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ21" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AK21" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL21" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AB21" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC21" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AD21" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AE21" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AF21" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AG21" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AH21" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AI21" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AJ21" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AK21" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL21" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM21" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
       <c r="AN21" s="3" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AO21" s="3" t="n">
-        <v>16.85</v>
+        <v>12.85</v>
       </c>
       <c r="AP21" t="n">
-        <v>38.55</v>
+        <v>30.75</v>
       </c>
       <c r="AQ21" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AR21" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS21" s="3" t="n">
-        <v>43.70946822308691</v>
+        <v>41.78861788617886</v>
       </c>
       <c r="AT21" t="n">
-        <v>43.70946822308691</v>
+        <v>41.78861788617886</v>
       </c>
       <c r="AU21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV21" t="n">
         <v>20</v>
@@ -5440,217 +5490,189 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>P</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BROCK</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
+          <t>SATHIYAMOORTHY</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="H22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="J22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="K22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="L22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="M22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="N22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="O22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="P22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Q22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="R22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="S22" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="T22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="U22" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="V22" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="W22" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="X22" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Y22" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Z22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AB22" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AC22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD22" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="AE22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AH22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI22" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="inlineStr">
+      <c r="AJ22" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AK22" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AL22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AN22" s="3" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="L22" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="M22" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="N22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="O22" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="P22" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="Q22" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="R22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="S22" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="U22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="V22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="W22" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="X22" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Y22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="Z22" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AA22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AB22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AC22" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AD22" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE22" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF22" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG22" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AH22" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AI22" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ22" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AK22" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AN22" s="3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AO22" s="3" t="n">
-        <v>12.85</v>
+        <v>12.53</v>
       </c>
       <c r="AP22" t="n">
-        <v>30.75</v>
+        <v>30.35</v>
       </c>
       <c r="AQ22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR22" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS22" s="3" t="n">
-        <v>41.78861788617886</v>
+        <v>41.28500823723229</v>
       </c>
       <c r="AT22" t="n">
-        <v>41.78861788617886</v>
+        <v>41.28500823723229</v>
       </c>
       <c r="AU22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV22" t="n">
         <v>21</v>
@@ -5665,12 +5687,12 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SATHIYAMOORTHY</t>
+          <t>AGARWAL</t>
         </is>
       </c>
       <c r="D23" s="4" t="n">
@@ -5718,74 +5740,48 @@
       <c r="R23" s="4" t="n">
         <v/>
       </c>
-      <c r="S23" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="T23" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="U23" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="V23" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="W23" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="X23" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Y23" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Z23" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA23" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AB23" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AC23" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AD23" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AE23" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
+      <c r="S23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="V23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="W23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="X23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Y23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Z23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AA23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AB23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AC23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AD23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AE23" s="4" t="n">
+        <v/>
       </c>
       <c r="AF23" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AG23" s="4" t="inlineStr">
@@ -5800,54 +5796,54 @@
       </c>
       <c r="AI23" s="4" t="inlineStr">
         <is>
-          <t>QF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AJ23" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AK23" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL23" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AK23" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AL23" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AN23" s="3" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AO23" s="3" t="n">
-        <v>12.53</v>
+        <v>7.2</v>
       </c>
       <c r="AP23" t="n">
-        <v>30.35</v>
+        <v>18.35</v>
       </c>
       <c r="AQ23" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AR23" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS23" s="3" t="n">
-        <v>41.28500823723229</v>
+        <v>39.23705722070845</v>
       </c>
       <c r="AT23" t="n">
-        <v>41.28500823723229</v>
+        <v>39.23705722070845</v>
       </c>
       <c r="AU23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV23" t="n">
         <v>22</v>
@@ -5862,12 +5858,12 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AGARWAL</t>
+          <t>LLOYD-JONES</t>
         </is>
       </c>
       <c r="D24" s="4" t="n">
@@ -5888,8 +5884,10 @@
       <c r="I24" s="4" t="n">
         <v/>
       </c>
-      <c r="J24" s="4" t="n">
-        <v/>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="K24" s="4" t="n">
         <v/>
@@ -5897,8 +5895,10 @@
       <c r="L24" s="4" t="n">
         <v/>
       </c>
-      <c r="M24" s="4" t="n">
-        <v/>
+      <c r="M24" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="N24" s="4" t="n">
         <v/>
@@ -5954,24 +5954,18 @@
       <c r="AE24" s="4" t="n">
         <v/>
       </c>
-      <c r="AF24" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AG24" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AH24" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
+      <c r="AF24" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AG24" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AH24" s="4" t="n">
+        <v/>
       </c>
       <c r="AI24" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AJ24" s="4" t="inlineStr">
@@ -5986,12 +5980,12 @@
       </c>
       <c r="AL24" s="4" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>L16</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="AN24" s="3" t="inlineStr">
@@ -6000,10 +5994,10 @@
         </is>
       </c>
       <c r="AO24" s="3" t="n">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="AP24" t="n">
-        <v>18.35</v>
+        <v>14.4</v>
       </c>
       <c r="AQ24" t="n">
         <v>3</v>
@@ -6012,13 +6006,13 @@
         <v>1</v>
       </c>
       <c r="AS24" s="3" t="n">
-        <v>39.23705722070845</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="AT24" t="n">
-        <v>39.23705722070845</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="AU24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV24" t="n">
         <v>23</v>
@@ -6033,12 +6027,12 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LLOYD-JONES</t>
+          <t>MERRETT</t>
         </is>
       </c>
       <c r="D25" s="4" t="n">
@@ -6059,10 +6053,8 @@
       <c r="I25" s="4" t="n">
         <v/>
       </c>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="J25" s="4" t="n">
+        <v/>
       </c>
       <c r="K25" s="4" t="n">
         <v/>
@@ -6070,13 +6062,13 @@
       <c r="L25" s="4" t="n">
         <v/>
       </c>
-      <c r="M25" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="N25" s="4" t="n">
-        <v/>
+      <c r="M25" s="4" t="n">
+        <v/>
+      </c>
+      <c r="N25" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="O25" s="4" t="n">
         <v/>
@@ -6105,42 +6097,64 @@
       <c r="W25" s="4" t="n">
         <v/>
       </c>
-      <c r="X25" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Y25" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Z25" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AA25" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AB25" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AC25" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AD25" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AE25" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AF25" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AG25" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AH25" s="4" t="n">
-        <v/>
+      <c r="X25" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Y25" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Z25" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AA25" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AB25" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC25" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD25" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE25" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF25" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AG25" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AH25" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="AI25" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="AJ25" s="4" t="inlineStr">
@@ -6150,17 +6164,17 @@
       </c>
       <c r="AK25" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="AL25" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>QF</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AN25" s="3" t="inlineStr">
@@ -6169,25 +6183,25 @@
         </is>
       </c>
       <c r="AO25" s="3" t="n">
-        <v>5.6</v>
+        <v>10.6</v>
       </c>
       <c r="AP25" t="n">
-        <v>14.4</v>
+        <v>29.85</v>
       </c>
       <c r="AQ25" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AR25" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS25" s="3" t="n">
-        <v>38.88888888888889</v>
+        <v>35.5108877721943</v>
       </c>
       <c r="AT25" t="n">
-        <v>38.88888888888889</v>
+        <v>35.5108877721943</v>
       </c>
       <c r="AU25" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AV25" t="n">
         <v>24</v>
@@ -6202,12 +6216,12 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>H</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MERRETT</t>
+          <t>GIBSON-LEITAO</t>
         </is>
       </c>
       <c r="D26" s="4" t="n">
@@ -6240,10 +6254,8 @@
       <c r="M26" s="4" t="n">
         <v/>
       </c>
-      <c r="N26" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="N26" s="4" t="n">
+        <v/>
       </c>
       <c r="O26" s="4" t="n">
         <v/>
@@ -6254,8 +6266,10 @@
       <c r="Q26" s="4" t="n">
         <v/>
       </c>
-      <c r="R26" s="4" t="n">
-        <v/>
+      <c r="R26" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="S26" s="4" t="n">
         <v/>
@@ -6263,18 +6277,24 @@
       <c r="T26" s="4" t="n">
         <v/>
       </c>
-      <c r="U26" s="4" t="n">
-        <v/>
-      </c>
-      <c r="V26" s="4" t="n">
-        <v/>
-      </c>
-      <c r="W26" s="4" t="n">
-        <v/>
+      <c r="U26" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="V26" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W26" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
       </c>
       <c r="X26" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Y26" s="4" t="inlineStr">
@@ -6284,29 +6304,29 @@
       </c>
       <c r="Z26" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA26" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AB26" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AC26" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AD26" s="4" t="inlineStr">
+        <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AA26" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AB26" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC26" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AD26" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AE26" s="4" t="inlineStr">
         <is>
           <t>P</t>
@@ -6314,7 +6334,7 @@
       </c>
       <c r="AF26" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AG26" s="4" t="inlineStr">
@@ -6324,59 +6344,59 @@
       </c>
       <c r="AH26" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AI26" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ26" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AK26" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL26" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AN26" s="3" t="inlineStr">
+        <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AJ26" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AK26" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AL26" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AM26" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AN26" s="3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AO26" s="3" t="n">
-        <v>10.6</v>
+        <v>6.95</v>
       </c>
       <c r="AP26" t="n">
-        <v>29.85</v>
+        <v>22.3</v>
       </c>
       <c r="AQ26" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AR26" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS26" s="3" t="n">
-        <v>35.5108877721943</v>
+        <v>31.16591928251121</v>
       </c>
       <c r="AT26" t="n">
-        <v>35.5108877721943</v>
+        <v>31.16591928251121</v>
       </c>
       <c r="AU26" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AV26" t="n">
         <v>25</v>
@@ -6391,12 +6411,12 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GIBSON-LEITAO</t>
+          <t>PRICKETT</t>
         </is>
       </c>
       <c r="D27" s="4" t="n">
@@ -6441,10 +6461,8 @@
       <c r="Q27" s="4" t="n">
         <v/>
       </c>
-      <c r="R27" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="R27" s="4" t="n">
+        <v/>
       </c>
       <c r="S27" s="4" t="n">
         <v/>
@@ -6452,24 +6470,18 @@
       <c r="T27" s="4" t="n">
         <v/>
       </c>
-      <c r="U27" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="V27" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W27" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
+      <c r="U27" s="4" t="n">
+        <v/>
+      </c>
+      <c r="V27" s="4" t="n">
+        <v/>
+      </c>
+      <c r="W27" s="4" t="n">
+        <v/>
       </c>
       <c r="X27" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="Y27" s="4" t="inlineStr">
@@ -6494,84 +6506,84 @@
       </c>
       <c r="AC27" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD27" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE27" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AF27" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG27" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AH27" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AI27" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ27" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AK27" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AL27" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AN27" s="3" t="inlineStr">
+        <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AD27" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AE27" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF27" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG27" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AH27" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI27" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ27" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AK27" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL27" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM27" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AN27" s="3" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
       <c r="AO27" s="3" t="n">
-        <v>6.95</v>
+        <v>7.9</v>
       </c>
       <c r="AP27" t="n">
-        <v>22.3</v>
+        <v>25.45</v>
       </c>
       <c r="AQ27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AR27" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AS27" s="3" t="n">
-        <v>31.16591928251121</v>
+        <v>31.04125736738704</v>
       </c>
       <c r="AT27" t="n">
-        <v>31.16591928251121</v>
+        <v>31.04125736738704</v>
       </c>
       <c r="AU27" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AV27" t="n">
         <v>26</v>
@@ -6586,12 +6598,12 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PRICKETT</t>
+          <t>BHATTACHARYA</t>
         </is>
       </c>
       <c r="D28" s="4" t="n">
@@ -6600,14 +6612,18 @@
       <c r="E28" s="4" t="n">
         <v/>
       </c>
-      <c r="F28" s="4" t="n">
-        <v/>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="G28" s="4" t="n">
         <v/>
       </c>
-      <c r="H28" s="4" t="n">
-        <v/>
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="I28" s="4" t="n">
         <v/>
@@ -6639,24 +6655,34 @@
       <c r="R28" s="4" t="n">
         <v/>
       </c>
-      <c r="S28" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T28" s="4" t="n">
-        <v/>
-      </c>
-      <c r="U28" s="4" t="n">
-        <v/>
-      </c>
-      <c r="V28" s="4" t="n">
-        <v/>
-      </c>
-      <c r="W28" s="4" t="n">
-        <v/>
+      <c r="S28" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="T28" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="U28" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="V28" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W28" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
       </c>
       <c r="X28" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">
@@ -6671,12 +6697,12 @@
       </c>
       <c r="AA28" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AB28" s="4" t="inlineStr">
         <is>
-          <t>QF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AC28" s="4" t="inlineStr">
@@ -6686,12 +6712,12 @@
       </c>
       <c r="AD28" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AE28" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AF28" s="4" t="inlineStr">
@@ -6701,12 +6727,12 @@
       </c>
       <c r="AG28" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AH28" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AI28" s="4" t="inlineStr">
@@ -6721,12 +6747,12 @@
       </c>
       <c r="AK28" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AL28" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
@@ -6736,29 +6762,29 @@
       </c>
       <c r="AN28" s="3" t="inlineStr">
         <is>
-          <t>QF</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AO28" s="3" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>25.45</v>
+        <v>24.2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR28" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AS28" s="3" t="n">
-        <v>31.04125736738704</v>
+        <v>30.99173553719008</v>
       </c>
       <c r="AT28" t="n">
-        <v>31.04125736738704</v>
+        <v>30.99173553719008</v>
       </c>
       <c r="AU28" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AV28" t="n">
         <v>27</v>
@@ -6773,32 +6799,30 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>J</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BHATTACHARYA</t>
+          <t>ALSTER</t>
         </is>
       </c>
       <c r="D29" s="4" t="n">
         <v/>
       </c>
-      <c r="E29" s="4" t="n">
-        <v/>
-      </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="n">
+        <v/>
       </c>
       <c r="G29" s="4" t="n">
         <v/>
       </c>
-      <c r="H29" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="H29" s="4" t="n">
+        <v/>
       </c>
       <c r="I29" s="4" t="n">
         <v/>
@@ -6830,136 +6854,106 @@
       <c r="R29" s="4" t="n">
         <v/>
       </c>
-      <c r="S29" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="T29" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="U29" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="V29" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W29" s="4" t="inlineStr">
+      <c r="S29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="V29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="W29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="X29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Y29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Z29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AA29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AB29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AC29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AD29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AE29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AF29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AG29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AH29" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AI29" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ29" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="X29" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="Y29" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Z29" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA29" s="4" t="inlineStr">
+      <c r="AK29" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AL29" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AB29" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC29" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AD29" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AE29" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF29" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG29" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AH29" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI29" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ29" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AK29" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL29" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AM29" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
       <c r="AN29" s="3" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AO29" s="3" t="n">
-        <v>7.5</v>
+        <v>3.7</v>
       </c>
       <c r="AP29" t="n">
-        <v>24.2</v>
+        <v>13.35</v>
       </c>
       <c r="AQ29" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AR29" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS29" s="3" t="n">
-        <v>30.99173553719008</v>
+        <v>27.71535580524345</v>
       </c>
       <c r="AT29" t="n">
-        <v>30.99173553719008</v>
+        <v>27.71535580524345</v>
       </c>
       <c r="AU29" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AV29" t="n">
         <v>28</v>
@@ -6979,16 +6973,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ALSTER</t>
+          <t>PRIOR</t>
         </is>
       </c>
       <c r="D30" s="4" t="n">
         <v/>
       </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="E30" s="4" t="n">
+        <v/>
       </c>
       <c r="F30" s="4" t="n">
         <v/>
@@ -6999,8 +6991,10 @@
       <c r="H30" s="4" t="n">
         <v/>
       </c>
-      <c r="I30" s="4" t="n">
-        <v/>
+      <c r="I30" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="J30" s="4" t="n">
         <v/>
@@ -7014,8 +7008,10 @@
       <c r="M30" s="4" t="n">
         <v/>
       </c>
-      <c r="N30" s="4" t="n">
-        <v/>
+      <c r="N30" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="O30" s="4" t="n">
         <v/>
@@ -7023,60 +7019,92 @@
       <c r="P30" s="4" t="n">
         <v/>
       </c>
-      <c r="Q30" s="4" t="n">
-        <v/>
+      <c r="Q30" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="R30" s="4" t="n">
         <v/>
       </c>
-      <c r="S30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="U30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="V30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="W30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="X30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Y30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Z30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AA30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AB30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AC30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AD30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AE30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AF30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AG30" s="4" t="n">
-        <v/>
+      <c r="S30" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="T30" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="U30" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="V30" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W30" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="X30" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Y30" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Z30" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA30" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AB30" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC30" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD30" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AE30" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AF30" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG30" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
       </c>
       <c r="AH30" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AI30" s="4" t="inlineStr">
@@ -7086,49 +7114,49 @@
       </c>
       <c r="AJ30" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AK30" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL30" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AK30" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AL30" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
       <c r="AN30" s="3" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
       <c r="AO30" s="3" t="n">
-        <v>3.7</v>
+        <v>5.300000000000001</v>
       </c>
       <c r="AP30" t="n">
-        <v>13.35</v>
+        <v>19.65</v>
       </c>
       <c r="AQ30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR30" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS30" s="3" t="n">
-        <v>27.71535580524345</v>
+        <v>26.97201017811706</v>
       </c>
       <c r="AT30" t="n">
-        <v>27.71535580524345</v>
+        <v>26.97201017811706</v>
       </c>
       <c r="AU30" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AV30" t="n">
         <v>29</v>
@@ -7143,12 +7171,12 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PRIOR</t>
+          <t>WEAVER</t>
         </is>
       </c>
       <c r="D31" s="4" t="n">
@@ -7166,10 +7194,8 @@
       <c r="H31" s="4" t="n">
         <v/>
       </c>
-      <c r="I31" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="I31" s="4" t="n">
+        <v/>
       </c>
       <c r="J31" s="4" t="n">
         <v/>
@@ -7183,10 +7209,8 @@
       <c r="M31" s="4" t="n">
         <v/>
       </c>
-      <c r="N31" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="N31" s="4" t="n">
+        <v/>
       </c>
       <c r="O31" s="4" t="n">
         <v/>
@@ -7194,144 +7218,142 @@
       <c r="P31" s="4" t="n">
         <v/>
       </c>
-      <c r="Q31" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="Q31" s="4" t="n">
+        <v/>
       </c>
       <c r="R31" s="4" t="n">
         <v/>
       </c>
       <c r="S31" s="4" t="inlineStr">
         <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="T31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="U31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="V31" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="W31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="X31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Y31" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Z31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AB31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AH31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AK31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AN31" s="3" t="inlineStr">
+        <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="T31" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="U31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="V31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="X31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Y31" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Z31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA31" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AB31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AD31" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AE31" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AF31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG31" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AH31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AK31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM31" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AN31" s="3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AO31" s="3" t="n">
-        <v>5.300000000000001</v>
+        <v>5</v>
       </c>
       <c r="AP31" t="n">
-        <v>19.65</v>
+        <v>19.25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR31" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="3" t="n">
-        <v>26.97201017811706</v>
+        <v>25.97402597402597</v>
       </c>
       <c r="AT31" t="n">
-        <v>26.97201017811706</v>
+        <v>25.97402597402597</v>
       </c>
       <c r="AU31" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AV31" t="n">
         <v>30</v>
@@ -7346,12 +7368,12 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>WEAVER</t>
+          <t>VINEN</t>
         </is>
       </c>
       <c r="D32" s="4" t="n">
@@ -7399,84 +7421,56 @@
       <c r="R32" s="4" t="n">
         <v/>
       </c>
-      <c r="S32" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="T32" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="U32" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="V32" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="W32" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="X32" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Y32" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Z32" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA32" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AB32" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC32" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AD32" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE32" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF32" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
+      <c r="S32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="V32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="W32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="X32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Y32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Z32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AA32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AB32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AC32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AD32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AE32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AF32" s="4" t="n">
+        <v/>
       </c>
       <c r="AG32" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AH32" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AI32" s="4" t="inlineStr">
@@ -7486,12 +7480,12 @@
       </c>
       <c r="AJ32" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AK32" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AL32" s="4" t="inlineStr">
@@ -7506,29 +7500,29 @@
       </c>
       <c r="AN32" s="3" t="inlineStr">
         <is>
-          <t>QF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AO32" s="3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AQ32" t="n">
         <v>5</v>
       </c>
-      <c r="AP32" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>4</v>
-      </c>
       <c r="AR32" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS32" s="3" t="n">
-        <v>25.97402597402597</v>
+        <v>25.08474576271186</v>
       </c>
       <c r="AT32" t="n">
-        <v>25.97402597402597</v>
+        <v>25.08474576271186</v>
       </c>
       <c r="AU32" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AV32" t="n">
         <v>31</v>
@@ -7543,28 +7537,36 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>VINEN</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="n">
-        <v/>
+          <t>BHATTACHARYA</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="E33" s="4" t="n">
         <v/>
       </c>
-      <c r="F33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="G33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="H33" s="4" t="n">
-        <v/>
+      <c r="F33" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="H33" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="I33" s="4" t="n">
         <v/>
@@ -7572,8 +7574,10 @@
       <c r="J33" s="4" t="n">
         <v/>
       </c>
-      <c r="K33" s="4" t="n">
-        <v/>
+      <c r="K33" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
       </c>
       <c r="L33" s="4" t="n">
         <v/>
@@ -7596,51 +7600,79 @@
       <c r="R33" s="4" t="n">
         <v/>
       </c>
-      <c r="S33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="U33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="V33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="W33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="X33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Y33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Z33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AA33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AB33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AC33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AD33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AE33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AF33" s="4" t="n">
-        <v/>
+      <c r="S33" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="T33" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="U33" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="V33" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W33" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="X33" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="Y33" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Z33" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA33" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AB33" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC33" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AD33" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE33" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AF33" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
       </c>
       <c r="AG33" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AH33" s="4" t="inlineStr">
@@ -7665,7 +7697,7 @@
       </c>
       <c r="AL33" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
@@ -7675,29 +7707,29 @@
       </c>
       <c r="AN33" s="3" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AO33" s="3" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="AP33" t="n">
-        <v>14.75</v>
+        <v>23.1</v>
       </c>
       <c r="AQ33" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AR33" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS33" s="3" t="n">
-        <v>25.08474576271186</v>
+        <v>21.64502164502164</v>
       </c>
       <c r="AT33" t="n">
-        <v>25.08474576271186</v>
+        <v>21.64502164502164</v>
       </c>
       <c r="AU33" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AV33" t="n">
         <v>32</v>
@@ -7712,36 +7744,28 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BHATTACHARYA</t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+          <t>SCOONES</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v/>
       </c>
       <c r="E34" s="4" t="n">
         <v/>
       </c>
-      <c r="F34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="G34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="H34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="F34" s="4" t="n">
+        <v/>
+      </c>
+      <c r="G34" s="4" t="n">
+        <v/>
+      </c>
+      <c r="H34" s="4" t="n">
+        <v/>
       </c>
       <c r="I34" s="4" t="n">
         <v/>
@@ -7749,162 +7773,164 @@
       <c r="J34" s="4" t="n">
         <v/>
       </c>
-      <c r="K34" s="4" t="inlineStr">
+      <c r="K34" s="4" t="n">
+        <v/>
+      </c>
+      <c r="L34" s="4" t="n">
+        <v/>
+      </c>
+      <c r="M34" s="4" t="n">
+        <v/>
+      </c>
+      <c r="N34" s="4" t="n">
+        <v/>
+      </c>
+      <c r="O34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="P34" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Q34" s="4" t="n">
+        <v/>
+      </c>
+      <c r="R34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="S34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="T34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="U34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="V34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="W34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="X34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Y34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Z34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AA34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AB34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AC34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AD34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AE34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AF34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AG34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AH34" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI34" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ34" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="L34" s="4" t="n">
-        <v/>
-      </c>
-      <c r="M34" s="4" t="n">
-        <v/>
-      </c>
-      <c r="N34" s="4" t="n">
-        <v/>
-      </c>
-      <c r="O34" s="4" t="n">
-        <v/>
-      </c>
-      <c r="P34" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Q34" s="4" t="n">
-        <v/>
-      </c>
-      <c r="R34" s="4" t="n">
-        <v/>
-      </c>
-      <c r="S34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="T34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="U34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="V34" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W34" s="4" t="inlineStr">
+      <c r="AK34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AL34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="X34" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="Y34" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Z34" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA34" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AB34" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AD34" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AF34" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG34" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AH34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AI34" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ34" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AK34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AL34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AM34" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
       <c r="AN34" s="3" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AO34" s="3" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="AP34" t="n">
-        <v>23.1</v>
+        <v>22.95</v>
       </c>
       <c r="AQ34" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AR34" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS34" s="3" t="n">
-        <v>21.64502164502164</v>
+        <v>16.12200435729848</v>
       </c>
       <c r="AT34" t="n">
-        <v>21.64502164502164</v>
+        <v>16.12200435729848</v>
       </c>
       <c r="AU34" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="AV34" t="n">
         <v>33</v>
@@ -7919,12 +7945,12 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SCOONES</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="D35" s="4" t="n">
@@ -7960,10 +7986,8 @@
       <c r="N35" s="4" t="n">
         <v/>
       </c>
-      <c r="O35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="O35" s="4" t="n">
+        <v/>
       </c>
       <c r="P35" s="4" t="n">
         <v/>
@@ -7971,80 +7995,50 @@
       <c r="Q35" s="4" t="n">
         <v/>
       </c>
-      <c r="R35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="S35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="T35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="U35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="V35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="W35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="X35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Y35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Z35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AA35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AB35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AC35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AD35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AE35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AF35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="R35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="S35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="V35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="W35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="X35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Y35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Z35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AA35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AB35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AC35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AD35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AE35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AF35" s="4" t="n">
+        <v/>
       </c>
       <c r="AG35" s="4" t="inlineStr">
         <is>
@@ -8068,17 +8062,17 @@
       </c>
       <c r="AK35" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AL35" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>L16</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AN35" s="3" t="inlineStr">
@@ -8087,25 +8081,25 @@
         </is>
       </c>
       <c r="AO35" s="3" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="AP35" t="n">
-        <v>22.95</v>
+        <v>11.2</v>
       </c>
       <c r="AQ35" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AR35" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS35" s="3" t="n">
-        <v>16.12200435729848</v>
+        <v>15.17857142857143</v>
       </c>
       <c r="AT35" t="n">
-        <v>16.12200435729848</v>
+        <v>15.17857142857143</v>
       </c>
       <c r="AU35" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AV35" t="n">
         <v>34</v>
@@ -8120,12 +8114,12 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ARJARIA</t>
         </is>
       </c>
       <c r="D36" s="4" t="n">
@@ -8212,12 +8206,14 @@
       <c r="AE36" s="4" t="n">
         <v/>
       </c>
-      <c r="AF36" s="4" t="n">
-        <v/>
+      <c r="AF36" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="AG36" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AH36" s="4" t="inlineStr">
@@ -8227,54 +8223,54 @@
       </c>
       <c r="AI36" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AJ36" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AK36" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL36" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AK36" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL36" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
       <c r="AN36" s="3" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
       <c r="AO36" s="3" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AP36" t="n">
-        <v>11.2</v>
+        <v>13.2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR36" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS36" s="3" t="n">
-        <v>15.17857142857143</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="AT36" t="n">
-        <v>15.17857142857143</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="AU36" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AV36" t="n">
         <v>35</v>
@@ -8289,12 +8285,12 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ARJARIA</t>
+          <t>HABERSHON</t>
         </is>
       </c>
       <c r="D37" s="4" t="n">
@@ -8348,38 +8344,60 @@
       <c r="T37" s="4" t="n">
         <v/>
       </c>
-      <c r="U37" s="4" t="n">
-        <v/>
-      </c>
-      <c r="V37" s="4" t="n">
-        <v/>
-      </c>
-      <c r="W37" s="4" t="n">
-        <v/>
-      </c>
-      <c r="X37" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Y37" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Z37" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AA37" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AB37" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AC37" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AD37" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AE37" s="4" t="n">
-        <v/>
+      <c r="U37" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="V37" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W37" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="X37" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Y37" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Z37" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA37" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AB37" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC37" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD37" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AE37" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
       </c>
       <c r="AF37" s="4" t="inlineStr">
         <is>
@@ -8398,7 +8416,7 @@
       </c>
       <c r="AI37" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AJ37" s="4" t="inlineStr">
@@ -8413,12 +8431,12 @@
       </c>
       <c r="AL37" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>L16</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AN37" s="3" t="inlineStr">
@@ -8427,25 +8445,25 @@
         </is>
       </c>
       <c r="AO37" s="3" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="AP37" t="n">
-        <v>13.2</v>
+        <v>14.25</v>
       </c>
       <c r="AQ37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR37" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS37" s="3" t="n">
-        <v>15.15151515151515</v>
+        <v>7.719298245614034</v>
       </c>
       <c r="AT37" t="n">
-        <v>15.15151515151515</v>
+        <v>7.719298245614034</v>
       </c>
       <c r="AU37" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="AV37" t="n">
         <v>36</v>
@@ -8460,28 +8478,36 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HABERSHON</t>
-        </is>
-      </c>
-      <c r="D38" s="4" t="n">
-        <v/>
-      </c>
-      <c r="E38" s="4" t="n">
-        <v/>
+          <t>MORRIS</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="F38" s="4" t="n">
         <v/>
       </c>
-      <c r="G38" s="4" t="n">
-        <v/>
-      </c>
-      <c r="H38" s="4" t="n">
-        <v/>
+      <c r="G38" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="H38" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="I38" s="4" t="n">
         <v/>
@@ -8489,8 +8515,10 @@
       <c r="J38" s="4" t="n">
         <v/>
       </c>
-      <c r="K38" s="4" t="n">
-        <v/>
+      <c r="K38" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="L38" s="4" t="n">
         <v/>
@@ -8519,14 +8547,12 @@
       <c r="T38" s="4" t="n">
         <v/>
       </c>
-      <c r="U38" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="U38" s="4" t="n">
+        <v/>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -8541,7 +8567,7 @@
       </c>
       <c r="Y38" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="Z38" s="4" t="inlineStr">
@@ -8551,7 +8577,7 @@
       </c>
       <c r="AA38" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AB38" s="4" t="inlineStr">
@@ -8561,12 +8587,12 @@
       </c>
       <c r="AC38" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AD38" s="4" t="inlineStr">
         <is>
-          <t>L16</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AE38" s="4" t="inlineStr">
@@ -8576,7 +8602,7 @@
       </c>
       <c r="AF38" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AG38" s="4" t="inlineStr">
@@ -8591,7 +8617,7 @@
       </c>
       <c r="AI38" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AJ38" s="4" t="inlineStr">
@@ -8606,12 +8632,12 @@
       </c>
       <c r="AL38" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AN38" s="3" t="inlineStr">
@@ -8620,25 +8646,25 @@
         </is>
       </c>
       <c r="AO38" s="3" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AP38" t="n">
-        <v>14.25</v>
+        <v>14.85</v>
       </c>
       <c r="AQ38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AR38" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS38" s="3" t="n">
-        <v>7.719298245614034</v>
+        <v>5.387205387205388</v>
       </c>
       <c r="AT38" t="n">
-        <v>7.719298245614034</v>
+        <v>5.387205387205388</v>
       </c>
       <c r="AU38" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AV38" t="n">
         <v>37</v>
@@ -8653,39 +8679,37 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MORRIS</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="E39" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="F39" s="4" t="n">
-        <v/>
-      </c>
-      <c r="G39" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+          <t>COOLEY</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="n">
+        <v/>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F39" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="G39" s="4" t="n">
+        <v/>
       </c>
       <c r="H39" s="4" t="inlineStr">
         <is>
           <t>NQ</t>
         </is>
       </c>
-      <c r="I39" s="4" t="n">
-        <v/>
+      <c r="I39" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="J39" s="4" t="n">
         <v/>
@@ -8695,35 +8719,49 @@
           <t>NQ</t>
         </is>
       </c>
-      <c r="L39" s="4" t="n">
-        <v/>
+      <c r="L39" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="M39" s="4" t="n">
         <v/>
       </c>
-      <c r="N39" s="4" t="n">
-        <v/>
-      </c>
-      <c r="O39" s="4" t="n">
-        <v/>
+      <c r="N39" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="O39" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="P39" s="4" t="n">
         <v/>
       </c>
-      <c r="Q39" s="4" t="n">
-        <v/>
+      <c r="Q39" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="R39" s="4" t="n">
         <v/>
       </c>
-      <c r="S39" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T39" s="4" t="n">
-        <v/>
-      </c>
-      <c r="U39" s="4" t="n">
-        <v/>
+      <c r="S39" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="T39" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="U39" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
@@ -8732,7 +8770,7 @@
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="X39" s="4" t="inlineStr">
@@ -8747,17 +8785,17 @@
       </c>
       <c r="Z39" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AA39" s="4" t="inlineStr">
         <is>
-          <t>L16</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AB39" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AC39" s="4" t="inlineStr">
@@ -8767,12 +8805,12 @@
       </c>
       <c r="AD39" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AE39" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AF39" s="4" t="inlineStr">
@@ -8782,22 +8820,22 @@
       </c>
       <c r="AG39" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AH39" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AI39" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AJ39" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AK39" s="4" t="inlineStr">
@@ -8807,12 +8845,12 @@
       </c>
       <c r="AL39" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AN39" s="3" t="inlineStr">
@@ -8821,25 +8859,25 @@
         </is>
       </c>
       <c r="AO39" s="3" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>14.85</v>
+        <v>17.8</v>
       </c>
       <c r="AQ39" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AR39" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS39" s="3" t="n">
-        <v>5.387205387205388</v>
+        <v>2.808988764044944</v>
       </c>
       <c r="AT39" t="n">
-        <v>5.387205387205388</v>
+        <v>2.808988764044944</v>
       </c>
       <c r="AU39" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AV39" t="n">
         <v>38</v>
@@ -8854,12 +8892,12 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>K</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>COOLEY</t>
+          <t>HIRD</t>
         </is>
       </c>
       <c r="D40" s="4" t="n">
@@ -8886,8 +8924,10 @@
           <t>NQ</t>
         </is>
       </c>
-      <c r="J40" s="4" t="n">
-        <v/>
+      <c r="J40" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="K40" s="4" t="inlineStr">
         <is>
@@ -8920,8 +8960,10 @@
           <t>NQ</t>
         </is>
       </c>
-      <c r="R40" s="4" t="n">
-        <v/>
+      <c r="R40" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="S40" s="4" t="inlineStr">
         <is>
@@ -8950,7 +8992,7 @@
       </c>
       <c r="X40" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="Y40" s="4" t="inlineStr">
@@ -9015,7 +9057,7 @@
       </c>
       <c r="AK40" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AL40" s="4" t="inlineStr">
@@ -9037,22 +9079,22 @@
         <v>0.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>17.8</v>
+        <v>18.75</v>
       </c>
       <c r="AQ40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR40" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS40" s="3" t="n">
-        <v>2.808988764044944</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.808988764044944</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AU40" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AV40" t="n">
         <v>39</v>
@@ -9067,12 +9109,12 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HIRD</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="D41" s="4" t="n">
@@ -9081,50 +9123,44 @@
       <c r="E41" s="4" t="n">
         <v/>
       </c>
-      <c r="F41" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="F41" s="4" t="n">
+        <v/>
       </c>
       <c r="G41" s="4" t="n">
         <v/>
       </c>
       <c r="H41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="J41" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="J41" s="4" t="n">
+        <v/>
       </c>
       <c r="K41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="L41" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="L41" s="4" t="n">
+        <v/>
       </c>
       <c r="M41" s="4" t="n">
         <v/>
       </c>
       <c r="N41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="O41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="P41" s="4" t="n">
@@ -9132,77 +9168,77 @@
       </c>
       <c r="Q41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="R41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="S41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>F</t>
         </is>
       </c>
       <c r="T41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>F</t>
         </is>
       </c>
       <c r="U41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>F</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>F</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>F</t>
         </is>
       </c>
       <c r="X41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>W</t>
         </is>
       </c>
       <c r="Y41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>F</t>
         </is>
       </c>
       <c r="Z41" s="4" t="inlineStr">
         <is>
-          <t>L16</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="AA41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>F</t>
         </is>
       </c>
       <c r="AB41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AD41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>F</t>
         </is>
       </c>
       <c r="AE41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="AF41" s="4" t="inlineStr">
@@ -9212,12 +9248,12 @@
       </c>
       <c r="AG41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="AH41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>F</t>
         </is>
       </c>
       <c r="AI41" s="4" t="inlineStr">
@@ -9227,12 +9263,12 @@
       </c>
       <c r="AJ41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="AK41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>F</t>
         </is>
       </c>
       <c r="AL41" s="4" t="inlineStr">
@@ -9242,7 +9278,7 @@
       </c>
       <c r="AM41" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AN41" s="3" t="inlineStr">
@@ -9251,25 +9287,25 @@
         </is>
       </c>
       <c r="AO41" s="3" t="n">
-        <v>0.5</v>
+        <v>56.615</v>
       </c>
       <c r="AP41" t="n">
-        <v>18.75</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="AQ41" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR41" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS41" s="3" t="n">
-        <v>2.666666666666667</v>
+        <v>78.1975138121547</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.666666666666667</v>
+        <v>0.0781975138121547</v>
       </c>
       <c r="AU41" t="n">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="AV41" t="n">
         <v>40</v>
@@ -9289,7 +9325,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>HOPKINS</t>
         </is>
       </c>
       <c r="D42" s="4" t="n">
@@ -9304,146 +9340,110 @@
       <c r="G42" s="4" t="n">
         <v/>
       </c>
-      <c r="H42" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="I42" s="4" t="inlineStr">
+      <c r="H42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="I42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="J42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="K42" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="L42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="M42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="N42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="O42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="P42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Q42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="R42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="S42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="V42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="W42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="X42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Y42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Z42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AA42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AB42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AC42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AD42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AE42" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="AF42" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG42" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="AH42" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AI42" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ42" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="J42" s="4" t="n">
-        <v/>
-      </c>
-      <c r="K42" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="L42" s="4" t="n">
-        <v/>
-      </c>
-      <c r="M42" s="4" t="n">
-        <v/>
-      </c>
-      <c r="N42" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="O42" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="P42" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Q42" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="R42" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="S42" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="T42" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="U42" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="V42" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="W42" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="X42" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="Y42" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Z42" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AA42" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AB42" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC42" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AD42" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AE42" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AF42" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG42" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AH42" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AI42" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ42" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
       <c r="AK42" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AL42" s="4" t="inlineStr">
@@ -9462,25 +9462,25 @@
         </is>
       </c>
       <c r="AO42" s="3" t="n">
-        <v>56.615</v>
+        <v>19.94</v>
       </c>
       <c r="AP42" t="n">
-        <v>72.40000000000001</v>
+        <v>32</v>
       </c>
       <c r="AQ42" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AR42" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS42" s="3" t="n">
-        <v>78.1975138121547</v>
+        <v>62.31249999999999</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.0781975138121547</v>
+        <v>0.0623124999999999</v>
       </c>
       <c r="AU42" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AV42" t="n">
         <v>41</v>
@@ -80458,12 +80458,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>JACK</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>SEELY</t>
+          <t>HOPKINS</t>
         </is>
       </c>
       <c r="D416" t="n">
@@ -80610,10 +80610,161 @@
       </c>
     </row>
     <row r="417">
-      <c r="AN417" s="3" t="n"/>
-      <c r="AO417" s="3" t="n"/>
-      <c r="AR417" s="3" t="n"/>
-      <c r="AS417" s="3" t="n"/>
+      <c r="A417" t="n">
+        <v>416</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>SEELY</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v/>
+      </c>
+      <c r="E417" t="n">
+        <v/>
+      </c>
+      <c r="F417" t="n">
+        <v/>
+      </c>
+      <c r="G417" t="n">
+        <v/>
+      </c>
+      <c r="H417" t="n">
+        <v/>
+      </c>
+      <c r="I417" t="n">
+        <v/>
+      </c>
+      <c r="J417" t="n">
+        <v/>
+      </c>
+      <c r="K417" t="n">
+        <v/>
+      </c>
+      <c r="L417" t="n">
+        <v/>
+      </c>
+      <c r="M417" t="n">
+        <v/>
+      </c>
+      <c r="N417" t="n">
+        <v/>
+      </c>
+      <c r="O417" t="n">
+        <v/>
+      </c>
+      <c r="P417" t="n">
+        <v/>
+      </c>
+      <c r="Q417" t="n">
+        <v/>
+      </c>
+      <c r="R417" t="n">
+        <v/>
+      </c>
+      <c r="S417" t="n">
+        <v/>
+      </c>
+      <c r="T417" t="n">
+        <v/>
+      </c>
+      <c r="U417" t="n">
+        <v/>
+      </c>
+      <c r="V417" t="n">
+        <v/>
+      </c>
+      <c r="W417" t="n">
+        <v/>
+      </c>
+      <c r="X417" t="n">
+        <v/>
+      </c>
+      <c r="Y417" t="n">
+        <v/>
+      </c>
+      <c r="Z417" t="n">
+        <v/>
+      </c>
+      <c r="AA417" t="n">
+        <v/>
+      </c>
+      <c r="AB417" t="n">
+        <v/>
+      </c>
+      <c r="AC417" t="n">
+        <v/>
+      </c>
+      <c r="AD417" t="n">
+        <v/>
+      </c>
+      <c r="AE417" t="n">
+        <v/>
+      </c>
+      <c r="AF417" t="n">
+        <v/>
+      </c>
+      <c r="AG417" t="n">
+        <v/>
+      </c>
+      <c r="AH417" t="n">
+        <v/>
+      </c>
+      <c r="AI417" t="n">
+        <v/>
+      </c>
+      <c r="AJ417" t="n">
+        <v/>
+      </c>
+      <c r="AK417" t="n">
+        <v/>
+      </c>
+      <c r="AL417" t="n">
+        <v/>
+      </c>
+      <c r="AM417" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AN417" s="3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO417" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP417" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ417" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR417" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS417" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT417" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU417" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV417" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW417" t="n">
+        <v>416</v>
+      </c>
     </row>
     <row r="418">
       <c r="AN418" s="3" t="n"/>
@@ -80628,7 +80779,7 @@
       <c r="AS419" s="3" t="n"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:AN416">
+  <conditionalFormatting sqref="D2:AN417">
     <cfRule type="cellIs" priority="2" operator="equal" dxfId="6">
       <formula>"NQ"</formula>
     </cfRule>

--- a/docs/downloads/rankings_latest.xlsx
+++ b/docs/downloads/rankings_latest.xlsx
@@ -3414,173 +3414,127 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>J</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>WISEMAN</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
+          <t>HOPKINS</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="K12" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="L12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="M12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="N12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="O12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="P12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Q12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="R12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="S12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="V12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="W12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="X12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Y12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Z12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AA12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AB12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AC12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AD12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AE12" s="4" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="AF12" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG12" s="4" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="F12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="G12" s="4" t="inlineStr">
+      <c r="AH12" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AI12" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ12" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="H12" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="I12" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="J12" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="K12" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="L12" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="M12" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="N12" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="P12" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="Q12" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="S12" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="T12" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="U12" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="V12" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="W12" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="X12" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Y12" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="Z12" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AA12" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AB12" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AC12" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AD12" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AE12" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF12" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AG12" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AH12" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI12" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AJ12" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
       <c r="AK12" s="4" t="inlineStr">
         <is>
           <t>P</t>
@@ -3588,12 +3542,12 @@
       </c>
       <c r="AL12" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>L16</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AN12" s="3" t="inlineStr">
@@ -3602,25 +3556,25 @@
         </is>
       </c>
       <c r="AO12" s="3" t="n">
-        <v>29.69</v>
+        <v>19.94</v>
       </c>
       <c r="AP12" t="n">
-        <v>50.3</v>
+        <v>33</v>
       </c>
       <c r="AQ12" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AR12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS12" s="3" t="n">
-        <v>59.02584493041751</v>
+        <v>60.42424242424241</v>
       </c>
       <c r="AT12" t="n">
-        <v>59.02584493041751</v>
+        <v>60.42424242424241</v>
       </c>
       <c r="AU12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV12" t="n">
         <v>11</v>
@@ -3635,215 +3589,213 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PERRIE</t>
+          <t>WISEMAN</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v/>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="H13" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="K13" s="4" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="L13" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="N13" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="O13" s="4" t="n">
+        <v/>
+      </c>
+      <c r="P13" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="Q13" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="R13" s="4" t="n">
+        <v/>
+      </c>
+      <c r="S13" s="4" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="T13" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="U13" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="V13" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="I13" s="4" t="inlineStr">
+      <c r="W13" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="X13" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Y13" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="Z13" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AA13" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AB13" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AC13" s="4" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="K13" s="4" t="inlineStr">
+      <c r="AD13" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="L13" s="4" t="inlineStr">
+      <c r="AE13" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF13" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AG13" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AH13" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI13" s="4" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="M13" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="N13" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="O13" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="P13" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Q13" s="4" t="inlineStr">
+      <c r="AJ13" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="R13" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="S13" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T13" s="4" t="n">
-        <v/>
-      </c>
-      <c r="U13" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="V13" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W13" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="X13" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="Y13" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Z13" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AA13" s="4" t="inlineStr">
+      <c r="AK13" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL13" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AB13" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AC13" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AD13" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE13" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF13" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG13" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AH13" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI13" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ13" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AK13" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AL13" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
       <c r="AN13" s="3" t="inlineStr">
         <is>
-          <t>QF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AO13" s="3" t="n">
-        <v>23.9</v>
+        <v>29.69</v>
       </c>
       <c r="AP13" t="n">
-        <v>43.45</v>
+        <v>50.3</v>
       </c>
       <c r="AQ13" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AR13" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS13" s="3" t="n">
-        <v>55.00575373993095</v>
+        <v>59.02584493041751</v>
       </c>
       <c r="AT13" t="n">
-        <v>55.00575373993095</v>
+        <v>59.02584493041751</v>
       </c>
       <c r="AU13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV13" t="n">
         <v>12</v>
@@ -3858,190 +3810,200 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BHIMJIYANI</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v/>
+          <t>PERRIE</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="I14" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="J14" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="K14" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="L14" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="M14" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="N14" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="O14" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="P14" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q14" s="4" t="inlineStr">
+        <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="G14" s="4" t="n">
-        <v/>
-      </c>
-      <c r="H14" s="4" t="inlineStr">
+      <c r="R14" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="S14" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T14" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U14" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="V14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W14" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="X14" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="Y14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Z14" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="AA14" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="I14" s="4" t="inlineStr">
+      <c r="AB14" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="J14" s="4" t="n">
-        <v/>
-      </c>
-      <c r="K14" s="4" t="inlineStr">
+      <c r="AC14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG14" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="L14" s="4" t="n">
-        <v/>
-      </c>
-      <c r="M14" s="4" t="n">
-        <v/>
-      </c>
-      <c r="N14" s="4" t="inlineStr">
+      <c r="AH14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ14" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AK14" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="AL14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="O14" s="4" t="inlineStr">
+      <c r="AN14" s="3" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="P14" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Q14" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="R14" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="S14" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T14" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="U14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="V14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="X14" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="Y14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Z14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AB14" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AC14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AD14" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AE14" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AF14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG14" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AH14" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AI14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ14" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AK14" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AL14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AN14" s="3" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
       <c r="AO14" s="3" t="n">
-        <v>26.74</v>
+        <v>23.9</v>
       </c>
       <c r="AP14" t="n">
-        <v>48.8</v>
+        <v>43.45</v>
       </c>
       <c r="AQ14" t="n">
         <v>10</v>
@@ -4050,13 +4012,13 @@
         <v>0</v>
       </c>
       <c r="AS14" s="3" t="n">
-        <v>54.79508196721311</v>
+        <v>55.00575373993095</v>
       </c>
       <c r="AT14" t="n">
-        <v>54.79508196721311</v>
+        <v>55.00575373993095</v>
       </c>
       <c r="AU14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV14" t="n">
         <v>13</v>
@@ -4071,199 +4033,205 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>WELTI</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+          <t>BHIMJIYANI</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v/>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="F15" s="4" t="n">
-        <v/>
-      </c>
-      <c r="G15" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v/>
       </c>
       <c r="H15" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="I15" s="4" t="n">
-        <v/>
+      <c r="I15" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
       </c>
       <c r="J15" s="4" t="n">
         <v/>
       </c>
-      <c r="K15" s="4" t="n">
-        <v/>
-      </c>
-      <c r="L15" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="K15" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="L15" s="4" t="n">
+        <v/>
       </c>
       <c r="M15" s="4" t="n">
         <v/>
       </c>
       <c r="N15" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="O15" s="4" t="n">
-        <v/>
-      </c>
-      <c r="P15" s="4" t="inlineStr">
-        <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="Q15" s="4" t="n">
-        <v/>
-      </c>
-      <c r="R15" s="4" t="n">
-        <v/>
+      <c r="O15" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="P15" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Q15" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="R15" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="S15" s="4" t="n">
         <v/>
       </c>
-      <c r="T15" s="4" t="n">
-        <v/>
+      <c r="T15" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
       </c>
       <c r="U15" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W15" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="X15" s="4" t="inlineStr">
+        <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="W15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="X15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="Y15" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Z15" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA15" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AB15" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="AC15" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD15" s="4" t="inlineStr">
+        <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="Z15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AB15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC15" s="4" t="inlineStr">
+      <c r="AE15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AD15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE15" s="4" t="inlineStr">
+      <c r="AF15" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG15" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AH15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AF15" s="4" t="inlineStr">
+      <c r="AI15" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AG15" s="4" t="inlineStr">
+      <c r="AK15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AH15" s="4" t="inlineStr">
+      <c r="AL15" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AI15" s="4" t="inlineStr">
+      <c r="AN15" s="3" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AJ15" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AK15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL15" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AN15" s="3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AO15" s="3" t="n">
-        <v>28.6</v>
+        <v>26.74</v>
       </c>
       <c r="AP15" t="n">
-        <v>52.45</v>
+        <v>48.8</v>
       </c>
       <c r="AQ15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR15" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS15" s="3" t="n">
-        <v>54.52812202097235</v>
+        <v>54.79508196721311</v>
       </c>
       <c r="AT15" t="n">
-        <v>54.52812202097235</v>
+        <v>54.79508196721311</v>
       </c>
       <c r="AU15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV15" t="n">
         <v>14</v>
@@ -4278,19 +4246,23 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HUGHES</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v/>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v/>
+          <t>WELTI</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
       </c>
       <c r="F16" s="4" t="n">
         <v/>
@@ -4302,183 +4274,171 @@
       </c>
       <c r="H16" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="I16" s="4" t="n">
         <v/>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="4" t="n">
+        <v/>
+      </c>
+      <c r="K16" s="4" t="n">
+        <v/>
+      </c>
+      <c r="L16" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="M16" s="4" t="n">
+        <v/>
+      </c>
+      <c r="N16" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="O16" s="4" t="n">
+        <v/>
+      </c>
+      <c r="P16" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="Q16" s="4" t="n">
+        <v/>
+      </c>
+      <c r="R16" s="4" t="n">
+        <v/>
+      </c>
+      <c r="S16" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T16" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U16" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="V16" s="4" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="K16" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="L16" s="4" t="inlineStr">
+      <c r="W16" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="X16" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Y16" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="M16" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="N16" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="O16" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="P16" s="4" t="inlineStr">
+      <c r="Z16" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA16" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AB16" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC16" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="Q16" s="4" t="n">
-        <v/>
-      </c>
-      <c r="R16" s="4" t="inlineStr">
+      <c r="AD16" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE16" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="S16" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T16" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="U16" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="V16" s="4" t="inlineStr">
+      <c r="AF16" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="W16" s="4" t="inlineStr">
+      <c r="AG16" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="X16" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Y16" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Z16" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA16" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AB16" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC16" s="4" t="inlineStr">
+      <c r="AH16" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AD16" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE16" s="4" t="inlineStr">
+      <c r="AI16" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AF16" s="4" t="inlineStr">
+      <c r="AJ16" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AG16" s="4" t="inlineStr">
+      <c r="AK16" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL16" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AH16" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI16" s="4" t="inlineStr">
+      <c r="AM16" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AJ16" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AK16" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL16" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
       <c r="AN16" s="3" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
       <c r="AO16" s="3" t="n">
-        <v>23.09</v>
+        <v>28.6</v>
       </c>
       <c r="AP16" t="n">
-        <v>43.3</v>
+        <v>52.45</v>
       </c>
       <c r="AQ16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR16" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS16" s="3" t="n">
-        <v>53.3256351039261</v>
+        <v>54.52812202097235</v>
       </c>
       <c r="AT16" t="n">
-        <v>53.3256351039261</v>
+        <v>54.52812202097235</v>
       </c>
       <c r="AU16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV16" t="n">
         <v>15</v>
@@ -4493,12 +4453,12 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ABRAHAMS</t>
+          <t>HUGHES</t>
         </is>
       </c>
       <c r="D17" s="4" t="n">
@@ -4510,44 +4470,60 @@
       <c r="F17" s="4" t="n">
         <v/>
       </c>
-      <c r="G17" s="4" t="n">
-        <v/>
-      </c>
-      <c r="H17" s="4" t="n">
-        <v/>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="I17" s="4" t="n">
         <v/>
       </c>
-      <c r="J17" s="4" t="n">
-        <v/>
-      </c>
-      <c r="K17" s="4" t="n">
-        <v/>
-      </c>
-      <c r="L17" s="4" t="n">
-        <v/>
-      </c>
-      <c r="M17" s="4" t="n">
-        <v/>
-      </c>
-      <c r="N17" s="4" t="n">
-        <v/>
-      </c>
-      <c r="O17" s="4" t="n">
-        <v/>
-      </c>
-      <c r="P17" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Q17" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="J17" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="K17" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="L17" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="N17" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="O17" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="P17" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="Q17" s="4" t="n">
+        <v/>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="S17" s="4" t="n">
@@ -4555,7 +4531,7 @@
       </c>
       <c r="T17" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="U17" s="4" t="inlineStr">
@@ -4565,12 +4541,12 @@
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="X17" s="4" t="inlineStr">
@@ -4580,17 +4556,17 @@
       </c>
       <c r="Y17" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Z17" s="4" t="inlineStr">
         <is>
-          <t>L16</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AA17" s="4" t="inlineStr">
         <is>
-          <t>L16</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AB17" s="4" t="inlineStr">
@@ -4600,7 +4576,7 @@
       </c>
       <c r="AC17" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="AD17" s="4" t="inlineStr">
@@ -4620,12 +4596,12 @@
       </c>
       <c r="AG17" s="4" t="inlineStr">
         <is>
-          <t>L16</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="AH17" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AI17" s="4" t="inlineStr">
@@ -4640,44 +4616,44 @@
       </c>
       <c r="AK17" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL17" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AL17" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
       <c r="AN17" s="3" t="inlineStr">
         <is>
-          <t>QF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AO17" s="3" t="n">
-        <v>27.91</v>
+        <v>23.09</v>
       </c>
       <c r="AP17" t="n">
-        <v>54.35</v>
+        <v>43.3</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AR17" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS17" s="3" t="n">
-        <v>51.35234590616376</v>
+        <v>53.3256351039261</v>
       </c>
       <c r="AT17" t="n">
-        <v>51.35234590616376</v>
+        <v>53.3256351039261</v>
       </c>
       <c r="AU17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV17" t="n">
         <v>16</v>
@@ -4692,12 +4668,12 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PEMBERTON</t>
+          <t>ABRAHAMS</t>
         </is>
       </c>
       <c r="D18" s="4" t="n">
@@ -4739,35 +4715,53 @@
       <c r="P18" s="4" t="n">
         <v/>
       </c>
-      <c r="Q18" s="4" t="n">
-        <v/>
-      </c>
-      <c r="R18" s="4" t="n">
-        <v/>
+      <c r="Q18" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="R18" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="S18" s="4" t="n">
         <v/>
       </c>
-      <c r="T18" s="4" t="n">
-        <v/>
-      </c>
-      <c r="U18" s="4" t="n">
-        <v/>
-      </c>
-      <c r="V18" s="4" t="n">
-        <v/>
-      </c>
-      <c r="W18" s="4" t="n">
-        <v/>
-      </c>
-      <c r="X18" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Y18" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Z18" s="4" t="n">
-        <v/>
+      <c r="T18" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="U18" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="V18" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="W18" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="X18" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Y18" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Z18" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
       </c>
       <c r="AA18" s="4" t="inlineStr">
         <is>
@@ -4781,7 +4775,7 @@
       </c>
       <c r="AC18" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AD18" s="4" t="inlineStr">
@@ -4791,12 +4785,12 @@
       </c>
       <c r="AE18" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="AF18" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="AG18" s="4" t="inlineStr">
@@ -4806,27 +4800,27 @@
       </c>
       <c r="AH18" s="4" t="inlineStr">
         <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AI18" s="4" t="inlineStr">
+        <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AI18" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AJ18" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="AK18" s="4" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="AL18" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
@@ -4840,25 +4834,25 @@
         </is>
       </c>
       <c r="AO18" s="3" t="n">
-        <v>17.32</v>
+        <v>27.91</v>
       </c>
       <c r="AP18" t="n">
-        <v>34.84999999999999</v>
+        <v>54.35</v>
       </c>
       <c r="AQ18" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AR18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AS18" s="3" t="n">
-        <v>49.69870875179341</v>
+        <v>51.35234590616376</v>
       </c>
       <c r="AT18" t="n">
-        <v>49.69870875179341</v>
+        <v>51.35234590616376</v>
       </c>
       <c r="AU18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV18" t="n">
         <v>17</v>
@@ -4873,12 +4867,12 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>J</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MCCAHON</t>
+          <t>PEMBERTON</t>
         </is>
       </c>
       <c r="D19" s="4" t="n">
@@ -4929,131 +4923,117 @@
       <c r="S19" s="4" t="n">
         <v/>
       </c>
-      <c r="T19" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="U19" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="V19" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="W19" s="4" t="inlineStr">
+      <c r="T19" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U19" s="4" t="n">
+        <v/>
+      </c>
+      <c r="V19" s="4" t="n">
+        <v/>
+      </c>
+      <c r="W19" s="4" t="n">
+        <v/>
+      </c>
+      <c r="X19" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Y19" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Z19" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AA19" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="X19" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Y19" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Z19" s="4" t="inlineStr">
+      <c r="AB19" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC19" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD19" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE19" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF19" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG19" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AA19" s="4" t="inlineStr">
+      <c r="AH19" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AB19" s="4" t="inlineStr">
+      <c r="AI19" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ19" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AK19" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="AL19" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AC19" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AD19" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AE19" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF19" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG19" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AH19" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI19" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ19" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AK19" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL19" s="4" t="inlineStr">
+      <c r="AN19" s="3" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AN19" s="3" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
       <c r="AO19" s="3" t="n">
-        <v>16.1</v>
+        <v>17.32</v>
       </c>
       <c r="AP19" t="n">
-        <v>35.7</v>
+        <v>34.84999999999999</v>
       </c>
       <c r="AQ19" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AR19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AS19" s="3" t="n">
-        <v>45.09803921568628</v>
+        <v>49.69870875179341</v>
       </c>
       <c r="AT19" t="n">
-        <v>45.09803921568628</v>
+        <v>49.69870875179341</v>
       </c>
       <c r="AU19" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV19" t="n">
         <v>18</v>
@@ -5068,12 +5048,12 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>WISEMAN</t>
+          <t>MCCAHON</t>
         </is>
       </c>
       <c r="D20" s="4" t="n">
@@ -5121,136 +5101,134 @@
       <c r="R20" s="4" t="n">
         <v/>
       </c>
-      <c r="S20" s="4" t="inlineStr">
+      <c r="S20" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T20" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="U20" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="V20" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="W20" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="X20" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Y20" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Z20" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AA20" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="T20" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="U20" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="V20" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W20" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="X20" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Y20" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Z20" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AA20" s="4" t="inlineStr">
+      <c r="AB20" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AC20" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="AD20" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AB20" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC20" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AD20" s="4" t="inlineStr">
+      <c r="AE20" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF20" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG20" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AH20" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI20" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ20" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AK20" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL20" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AE20" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AF20" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AG20" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AH20" s="4" t="inlineStr">
+      <c r="AN20" s="3" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AI20" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AJ20" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AK20" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL20" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AN20" s="3" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
       <c r="AO20" s="3" t="n">
-        <v>16.85</v>
+        <v>16.1</v>
       </c>
       <c r="AP20" t="n">
-        <v>38.55</v>
+        <v>35.7</v>
       </c>
       <c r="AQ20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR20" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AS20" s="3" t="n">
-        <v>43.70946822308691</v>
+        <v>45.09803921568628</v>
       </c>
       <c r="AT20" t="n">
-        <v>43.70946822308691</v>
+        <v>45.09803921568628</v>
       </c>
       <c r="AU20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV20" t="n">
         <v>19</v>
@@ -5265,217 +5243,189 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BROCK</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="inlineStr">
+          <t>WISEMAN</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v/>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v/>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v/>
+      </c>
+      <c r="H21" s="4" t="n">
+        <v/>
+      </c>
+      <c r="I21" s="4" t="n">
+        <v/>
+      </c>
+      <c r="J21" s="4" t="n">
+        <v/>
+      </c>
+      <c r="K21" s="4" t="n">
+        <v/>
+      </c>
+      <c r="L21" s="4" t="n">
+        <v/>
+      </c>
+      <c r="M21" s="4" t="n">
+        <v/>
+      </c>
+      <c r="N21" s="4" t="n">
+        <v/>
+      </c>
+      <c r="O21" s="4" t="n">
+        <v/>
+      </c>
+      <c r="P21" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Q21" s="4" t="n">
+        <v/>
+      </c>
+      <c r="R21" s="4" t="n">
+        <v/>
+      </c>
+      <c r="S21" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="T21" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="U21" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="V21" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W21" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="X21" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Y21" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Z21" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AA21" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AB21" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC21" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AD21" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AE21" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AF21" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AG21" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AH21" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="AI21" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="AJ21" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AK21" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL21" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AN21" s="3" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="H21" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="K21" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="L21" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="M21" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="N21" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="O21" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="P21" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="Q21" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="R21" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="S21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T21" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="U21" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="V21" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="W21" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="X21" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Y21" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="Z21" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AA21" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AB21" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AC21" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AD21" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE21" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF21" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG21" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AH21" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AI21" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ21" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AK21" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL21" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AM21" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AN21" s="3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AO21" s="3" t="n">
-        <v>12.85</v>
+        <v>16.85</v>
       </c>
       <c r="AP21" t="n">
-        <v>30.75</v>
+        <v>38.55</v>
       </c>
       <c r="AQ21" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AR21" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS21" s="3" t="n">
-        <v>41.78861788617886</v>
+        <v>43.70946822308691</v>
       </c>
       <c r="AT21" t="n">
-        <v>41.78861788617886</v>
+        <v>43.70946822308691</v>
       </c>
       <c r="AU21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV21" t="n">
         <v>20</v>
@@ -5490,189 +5440,217 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SATHIYAMOORTHY</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v/>
-      </c>
-      <c r="E22" s="4" t="n">
-        <v/>
-      </c>
-      <c r="F22" s="4" t="n">
-        <v/>
-      </c>
-      <c r="G22" s="4" t="n">
-        <v/>
-      </c>
-      <c r="H22" s="4" t="n">
-        <v/>
-      </c>
-      <c r="I22" s="4" t="n">
-        <v/>
-      </c>
-      <c r="J22" s="4" t="n">
-        <v/>
-      </c>
-      <c r="K22" s="4" t="n">
-        <v/>
-      </c>
-      <c r="L22" s="4" t="n">
-        <v/>
-      </c>
-      <c r="M22" s="4" t="n">
-        <v/>
-      </c>
-      <c r="N22" s="4" t="n">
-        <v/>
-      </c>
-      <c r="O22" s="4" t="n">
-        <v/>
-      </c>
-      <c r="P22" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Q22" s="4" t="n">
-        <v/>
-      </c>
-      <c r="R22" s="4" t="n">
-        <v/>
-      </c>
-      <c r="S22" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+          <t>BROCK</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="L22" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="M22" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="N22" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="O22" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="P22" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q22" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R22" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="S22" s="4" t="n">
+        <v/>
       </c>
       <c r="T22" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="U22" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="X22" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Y22" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="Z22" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AA22" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="AB22" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="AC22" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="AD22" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AH22" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AI22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AK22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL22" s="4" t="inlineStr">
+        <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AE22" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF22" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG22" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AH22" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AJ22" s="4" t="inlineStr">
+      <c r="AM22" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AK22" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AL22" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AN22" s="3" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AO22" s="3" t="n">
-        <v>12.53</v>
+        <v>12.85</v>
       </c>
       <c r="AP22" t="n">
-        <v>30.35</v>
+        <v>30.75</v>
       </c>
       <c r="AQ22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR22" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS22" s="3" t="n">
-        <v>41.28500823723229</v>
+        <v>41.78861788617886</v>
       </c>
       <c r="AT22" t="n">
-        <v>41.28500823723229</v>
+        <v>41.78861788617886</v>
       </c>
       <c r="AU22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
         <v>21</v>
@@ -5687,12 +5665,12 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AGARWAL</t>
+          <t>SATHIYAMOORTHY</t>
         </is>
       </c>
       <c r="D23" s="4" t="n">
@@ -5740,48 +5718,74 @@
       <c r="R23" s="4" t="n">
         <v/>
       </c>
-      <c r="S23" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T23" s="4" t="n">
-        <v/>
-      </c>
-      <c r="U23" s="4" t="n">
-        <v/>
-      </c>
-      <c r="V23" s="4" t="n">
-        <v/>
-      </c>
-      <c r="W23" s="4" t="n">
-        <v/>
-      </c>
-      <c r="X23" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Y23" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Z23" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AA23" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AB23" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AC23" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AD23" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AE23" s="4" t="n">
-        <v/>
+      <c r="S23" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="T23" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="U23" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="V23" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="W23" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="X23" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Y23" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Z23" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA23" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AB23" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AC23" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD23" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AE23" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
       </c>
       <c r="AF23" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AG23" s="4" t="inlineStr">
@@ -5796,54 +5800,54 @@
       </c>
       <c r="AI23" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="AJ23" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AK23" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AL23" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AN23" s="3" t="inlineStr">
+        <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AN23" s="3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AO23" s="3" t="n">
-        <v>7.2</v>
+        <v>12.53</v>
       </c>
       <c r="AP23" t="n">
-        <v>18.35</v>
+        <v>30.35</v>
       </c>
       <c r="AQ23" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AR23" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="3" t="n">
-        <v>39.23705722070845</v>
+        <v>41.28500823723229</v>
       </c>
       <c r="AT23" t="n">
-        <v>39.23705722070845</v>
+        <v>41.28500823723229</v>
       </c>
       <c r="AU23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AV23" t="n">
         <v>22</v>
@@ -5858,12 +5862,12 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LLOYD-JONES</t>
+          <t>AGARWAL</t>
         </is>
       </c>
       <c r="D24" s="4" t="n">
@@ -5884,10 +5888,8 @@
       <c r="I24" s="4" t="n">
         <v/>
       </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="J24" s="4" t="n">
+        <v/>
       </c>
       <c r="K24" s="4" t="n">
         <v/>
@@ -5895,10 +5897,8 @@
       <c r="L24" s="4" t="n">
         <v/>
       </c>
-      <c r="M24" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="M24" s="4" t="n">
+        <v/>
       </c>
       <c r="N24" s="4" t="n">
         <v/>
@@ -5954,18 +5954,24 @@
       <c r="AE24" s="4" t="n">
         <v/>
       </c>
-      <c r="AF24" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AG24" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AH24" s="4" t="n">
-        <v/>
+      <c r="AF24" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AG24" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AH24" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
       </c>
       <c r="AI24" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AJ24" s="4" t="inlineStr">
@@ -5980,12 +5986,12 @@
       </c>
       <c r="AL24" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>QF</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AN24" s="3" t="inlineStr">
@@ -5994,10 +6000,10 @@
         </is>
       </c>
       <c r="AO24" s="3" t="n">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="AP24" t="n">
-        <v>14.4</v>
+        <v>18.35</v>
       </c>
       <c r="AQ24" t="n">
         <v>3</v>
@@ -6006,13 +6012,13 @@
         <v>1</v>
       </c>
       <c r="AS24" s="3" t="n">
-        <v>38.88888888888889</v>
+        <v>39.23705722070845</v>
       </c>
       <c r="AT24" t="n">
-        <v>38.88888888888889</v>
+        <v>39.23705722070845</v>
       </c>
       <c r="AU24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV24" t="n">
         <v>23</v>
@@ -6027,12 +6033,12 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MERRETT</t>
+          <t>LLOYD-JONES</t>
         </is>
       </c>
       <c r="D25" s="4" t="n">
@@ -6053,8 +6059,10 @@
       <c r="I25" s="4" t="n">
         <v/>
       </c>
-      <c r="J25" s="4" t="n">
-        <v/>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="K25" s="4" t="n">
         <v/>
@@ -6062,13 +6070,13 @@
       <c r="L25" s="4" t="n">
         <v/>
       </c>
-      <c r="M25" s="4" t="n">
-        <v/>
-      </c>
-      <c r="N25" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="M25" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="N25" s="4" t="n">
+        <v/>
       </c>
       <c r="O25" s="4" t="n">
         <v/>
@@ -6097,111 +6105,89 @@
       <c r="W25" s="4" t="n">
         <v/>
       </c>
-      <c r="X25" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Y25" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Z25" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AA25" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AB25" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC25" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AD25" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE25" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF25" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AG25" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AH25" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="X25" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Y25" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Z25" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AA25" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AB25" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AC25" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AD25" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AE25" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AF25" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AG25" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AH25" s="4" t="n">
+        <v/>
       </c>
       <c r="AI25" s="4" t="inlineStr">
         <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AJ25" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AK25" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL25" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AJ25" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AK25" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AL25" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
       <c r="AN25" s="3" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
       <c r="AO25" s="3" t="n">
-        <v>10.6</v>
+        <v>5.6</v>
       </c>
       <c r="AP25" t="n">
-        <v>29.85</v>
+        <v>14.4</v>
       </c>
       <c r="AQ25" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AR25" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS25" s="3" t="n">
-        <v>35.5108877721943</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="AT25" t="n">
-        <v>35.5108877721943</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="AU25" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AV25" t="n">
         <v>24</v>
@@ -6216,12 +6202,12 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GIBSON-LEITAO</t>
+          <t>MERRETT</t>
         </is>
       </c>
       <c r="D26" s="4" t="n">
@@ -6254,8 +6240,10 @@
       <c r="M26" s="4" t="n">
         <v/>
       </c>
-      <c r="N26" s="4" t="n">
-        <v/>
+      <c r="N26" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="O26" s="4" t="n">
         <v/>
@@ -6266,10 +6254,8 @@
       <c r="Q26" s="4" t="n">
         <v/>
       </c>
-      <c r="R26" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="R26" s="4" t="n">
+        <v/>
       </c>
       <c r="S26" s="4" t="n">
         <v/>
@@ -6277,24 +6263,18 @@
       <c r="T26" s="4" t="n">
         <v/>
       </c>
-      <c r="U26" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="V26" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W26" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
+      <c r="U26" s="4" t="n">
+        <v/>
+      </c>
+      <c r="V26" s="4" t="n">
+        <v/>
+      </c>
+      <c r="W26" s="4" t="n">
+        <v/>
       </c>
       <c r="X26" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="Y26" s="4" t="inlineStr">
@@ -6304,99 +6284,99 @@
       </c>
       <c r="Z26" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AA26" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AB26" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC26" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD26" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE26" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF26" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AG26" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AH26" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AI26" s="4" t="inlineStr">
+        <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AC26" s="4" t="inlineStr">
+      <c r="AJ26" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AK26" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AD26" s="4" t="inlineStr">
+      <c r="AL26" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AE26" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF26" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG26" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AH26" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI26" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ26" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AK26" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL26" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM26" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AN26" s="3" t="inlineStr">
         <is>
-          <t>QF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AO26" s="3" t="n">
-        <v>6.95</v>
+        <v>10.6</v>
       </c>
       <c r="AP26" t="n">
-        <v>22.3</v>
+        <v>29.85</v>
       </c>
       <c r="AQ26" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AR26" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS26" s="3" t="n">
-        <v>31.16591928251121</v>
+        <v>35.5108877721943</v>
       </c>
       <c r="AT26" t="n">
-        <v>31.16591928251121</v>
+        <v>35.5108877721943</v>
       </c>
       <c r="AU26" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AV26" t="n">
         <v>25</v>
@@ -6411,12 +6391,12 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>H</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PRICKETT</t>
+          <t>GIBSON-LEITAO</t>
         </is>
       </c>
       <c r="D27" s="4" t="n">
@@ -6461,8 +6441,10 @@
       <c r="Q27" s="4" t="n">
         <v/>
       </c>
-      <c r="R27" s="4" t="n">
-        <v/>
+      <c r="R27" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="S27" s="4" t="n">
         <v/>
@@ -6470,18 +6452,24 @@
       <c r="T27" s="4" t="n">
         <v/>
       </c>
-      <c r="U27" s="4" t="n">
-        <v/>
-      </c>
-      <c r="V27" s="4" t="n">
-        <v/>
-      </c>
-      <c r="W27" s="4" t="n">
-        <v/>
+      <c r="U27" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="V27" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W27" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
       </c>
       <c r="X27" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Y27" s="4" t="inlineStr">
@@ -6506,17 +6494,17 @@
       </c>
       <c r="AC27" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="AD27" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AE27" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AF27" s="4" t="inlineStr">
@@ -6531,7 +6519,7 @@
       </c>
       <c r="AH27" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AI27" s="4" t="inlineStr">
@@ -6541,12 +6529,12 @@
       </c>
       <c r="AJ27" s="4" t="inlineStr">
         <is>
-          <t>L16</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AK27" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AL27" s="4" t="inlineStr">
@@ -6556,7 +6544,7 @@
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>L16</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AN27" s="3" t="inlineStr">
@@ -6565,25 +6553,25 @@
         </is>
       </c>
       <c r="AO27" s="3" t="n">
-        <v>7.9</v>
+        <v>6.95</v>
       </c>
       <c r="AP27" t="n">
-        <v>25.45</v>
+        <v>22.3</v>
       </c>
       <c r="AQ27" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AR27" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AS27" s="3" t="n">
-        <v>31.04125736738704</v>
+        <v>31.16591928251121</v>
       </c>
       <c r="AT27" t="n">
-        <v>31.04125736738704</v>
+        <v>31.16591928251121</v>
       </c>
       <c r="AU27" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AV27" t="n">
         <v>26</v>
@@ -6598,12 +6586,12 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BHATTACHARYA</t>
+          <t>PRICKETT</t>
         </is>
       </c>
       <c r="D28" s="4" t="n">
@@ -6612,18 +6600,14 @@
       <c r="E28" s="4" t="n">
         <v/>
       </c>
-      <c r="F28" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="F28" s="4" t="n">
+        <v/>
       </c>
       <c r="G28" s="4" t="n">
         <v/>
       </c>
-      <c r="H28" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="H28" s="4" t="n">
+        <v/>
       </c>
       <c r="I28" s="4" t="n">
         <v/>
@@ -6655,136 +6639,126 @@
       <c r="R28" s="4" t="n">
         <v/>
       </c>
-      <c r="S28" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="T28" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="U28" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="V28" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W28" s="4" t="inlineStr">
+      <c r="S28" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T28" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U28" s="4" t="n">
+        <v/>
+      </c>
+      <c r="V28" s="4" t="n">
+        <v/>
+      </c>
+      <c r="W28" s="4" t="n">
+        <v/>
+      </c>
+      <c r="X28" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Y28" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Z28" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA28" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AB28" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AC28" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD28" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE28" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AF28" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG28" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AH28" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AI28" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ28" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="X28" s="4" t="inlineStr">
+      <c r="AK28" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AL28" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AN28" s="3" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="Y28" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Z28" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA28" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AB28" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC28" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AD28" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AE28" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF28" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG28" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AH28" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI28" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ28" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AK28" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL28" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AM28" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AN28" s="3" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
       <c r="AO28" s="3" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AP28" t="n">
-        <v>24.2</v>
+        <v>25.45</v>
       </c>
       <c r="AQ28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR28" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AS28" s="3" t="n">
-        <v>30.99173553719008</v>
+        <v>31.04125736738704</v>
       </c>
       <c r="AT28" t="n">
-        <v>30.99173553719008</v>
+        <v>31.04125736738704</v>
       </c>
       <c r="AU28" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AV28" t="n">
         <v>27</v>
@@ -6799,30 +6773,32 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ALSTER</t>
+          <t>BHATTACHARYA</t>
         </is>
       </c>
       <c r="D29" s="4" t="n">
         <v/>
       </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="F29" s="4" t="n">
-        <v/>
+      <c r="E29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="G29" s="4" t="n">
         <v/>
       </c>
-      <c r="H29" s="4" t="n">
-        <v/>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="I29" s="4" t="n">
         <v/>
@@ -6854,54 +6830,84 @@
       <c r="R29" s="4" t="n">
         <v/>
       </c>
-      <c r="S29" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T29" s="4" t="n">
-        <v/>
-      </c>
-      <c r="U29" s="4" t="n">
-        <v/>
-      </c>
-      <c r="V29" s="4" t="n">
-        <v/>
-      </c>
-      <c r="W29" s="4" t="n">
-        <v/>
-      </c>
-      <c r="X29" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Y29" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Z29" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AA29" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AB29" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AC29" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AD29" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AE29" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AF29" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AG29" s="4" t="n">
-        <v/>
+      <c r="S29" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="T29" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="U29" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="V29" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W29" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="X29" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="Y29" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Z29" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA29" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AB29" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC29" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD29" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AE29" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF29" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG29" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
       </c>
       <c r="AH29" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AI29" s="4" t="inlineStr">
@@ -6916,12 +6922,12 @@
       </c>
       <c r="AK29" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AL29" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
@@ -6931,29 +6937,29 @@
       </c>
       <c r="AN29" s="3" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AO29" s="3" t="n">
-        <v>3.7</v>
+        <v>7.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>13.35</v>
+        <v>24.2</v>
       </c>
       <c r="AQ29" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AR29" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS29" s="3" t="n">
-        <v>27.71535580524345</v>
+        <v>30.99173553719008</v>
       </c>
       <c r="AT29" t="n">
-        <v>27.71535580524345</v>
+        <v>30.99173553719008</v>
       </c>
       <c r="AU29" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AV29" t="n">
         <v>28</v>
@@ -6973,14 +6979,16 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PRIOR</t>
+          <t>ALSTER</t>
         </is>
       </c>
       <c r="D30" s="4" t="n">
         <v/>
       </c>
-      <c r="E30" s="4" t="n">
-        <v/>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="F30" s="4" t="n">
         <v/>
@@ -6991,10 +6999,8 @@
       <c r="H30" s="4" t="n">
         <v/>
       </c>
-      <c r="I30" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="I30" s="4" t="n">
+        <v/>
       </c>
       <c r="J30" s="4" t="n">
         <v/>
@@ -7008,10 +7014,8 @@
       <c r="M30" s="4" t="n">
         <v/>
       </c>
-      <c r="N30" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="N30" s="4" t="n">
+        <v/>
       </c>
       <c r="O30" s="4" t="n">
         <v/>
@@ -7019,144 +7023,112 @@
       <c r="P30" s="4" t="n">
         <v/>
       </c>
-      <c r="Q30" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="Q30" s="4" t="n">
+        <v/>
       </c>
       <c r="R30" s="4" t="n">
         <v/>
       </c>
-      <c r="S30" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="T30" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="U30" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="V30" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W30" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="X30" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Y30" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Z30" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA30" s="4" t="inlineStr">
+      <c r="S30" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T30" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U30" s="4" t="n">
+        <v/>
+      </c>
+      <c r="V30" s="4" t="n">
+        <v/>
+      </c>
+      <c r="W30" s="4" t="n">
+        <v/>
+      </c>
+      <c r="X30" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Y30" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Z30" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AA30" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AB30" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AC30" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AD30" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AE30" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AF30" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AG30" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AH30" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AI30" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ30" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AB30" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC30" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AD30" s="4" t="inlineStr">
+      <c r="AK30" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AL30" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AE30" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AF30" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG30" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AH30" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI30" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ30" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AK30" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL30" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
       <c r="AN30" s="3" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
       <c r="AO30" s="3" t="n">
-        <v>5.300000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="AP30" t="n">
-        <v>19.65</v>
+        <v>13.35</v>
       </c>
       <c r="AQ30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR30" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS30" s="3" t="n">
-        <v>26.97201017811706</v>
+        <v>27.71535580524345</v>
       </c>
       <c r="AT30" t="n">
-        <v>26.97201017811706</v>
+        <v>27.71535580524345</v>
       </c>
       <c r="AU30" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AV30" t="n">
         <v>29</v>
@@ -7171,12 +7143,12 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>WEAVER</t>
+          <t>PRIOR</t>
         </is>
       </c>
       <c r="D31" s="4" t="n">
@@ -7194,8 +7166,10 @@
       <c r="H31" s="4" t="n">
         <v/>
       </c>
-      <c r="I31" s="4" t="n">
-        <v/>
+      <c r="I31" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="J31" s="4" t="n">
         <v/>
@@ -7209,8 +7183,10 @@
       <c r="M31" s="4" t="n">
         <v/>
       </c>
-      <c r="N31" s="4" t="n">
-        <v/>
+      <c r="N31" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="O31" s="4" t="n">
         <v/>
@@ -7218,20 +7194,22 @@
       <c r="P31" s="4" t="n">
         <v/>
       </c>
-      <c r="Q31" s="4" t="n">
-        <v/>
+      <c r="Q31" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="R31" s="4" t="n">
         <v/>
       </c>
       <c r="S31" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="T31" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="U31" s="4" t="inlineStr">
@@ -7241,7 +7219,7 @@
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -7266,7 +7244,7 @@
       </c>
       <c r="AA31" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AB31" s="4" t="inlineStr">
@@ -7281,12 +7259,12 @@
       </c>
       <c r="AD31" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AE31" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AF31" s="4" t="inlineStr">
@@ -7296,7 +7274,7 @@
       </c>
       <c r="AG31" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AH31" s="4" t="inlineStr">
@@ -7331,29 +7309,29 @@
       </c>
       <c r="AN31" s="3" t="inlineStr">
         <is>
-          <t>QF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AO31" s="3" t="n">
-        <v>5</v>
+        <v>5.300000000000001</v>
       </c>
       <c r="AP31" t="n">
-        <v>19.25</v>
+        <v>19.65</v>
       </c>
       <c r="AQ31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR31" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS31" s="3" t="n">
-        <v>25.97402597402597</v>
+        <v>26.97201017811706</v>
       </c>
       <c r="AT31" t="n">
-        <v>25.97402597402597</v>
+        <v>26.97201017811706</v>
       </c>
       <c r="AU31" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AV31" t="n">
         <v>30</v>
@@ -7368,12 +7346,12 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>I</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>VINEN</t>
+          <t>WEAVER</t>
         </is>
       </c>
       <c r="D32" s="4" t="n">
@@ -7421,56 +7399,84 @@
       <c r="R32" s="4" t="n">
         <v/>
       </c>
-      <c r="S32" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T32" s="4" t="n">
-        <v/>
-      </c>
-      <c r="U32" s="4" t="n">
-        <v/>
-      </c>
-      <c r="V32" s="4" t="n">
-        <v/>
-      </c>
-      <c r="W32" s="4" t="n">
-        <v/>
-      </c>
-      <c r="X32" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Y32" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Z32" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AA32" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AB32" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AC32" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AD32" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AE32" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AF32" s="4" t="n">
-        <v/>
+      <c r="S32" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="T32" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="U32" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="V32" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="W32" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="X32" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Y32" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Z32" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA32" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AB32" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC32" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD32" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE32" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF32" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
       </c>
       <c r="AG32" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AH32" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AI32" s="4" t="inlineStr">
@@ -7480,49 +7486,49 @@
       </c>
       <c r="AJ32" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AK32" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL32" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AK32" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AL32" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
       <c r="AN32" s="3" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="AO32" s="3" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="AP32" t="n">
-        <v>14.75</v>
+        <v>19.25</v>
       </c>
       <c r="AQ32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR32" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS32" s="3" t="n">
-        <v>25.08474576271186</v>
+        <v>25.97402597402597</v>
       </c>
       <c r="AT32" t="n">
-        <v>25.08474576271186</v>
+        <v>25.97402597402597</v>
       </c>
       <c r="AU32" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AV32" t="n">
         <v>31</v>
@@ -7537,36 +7543,28 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BHATTACHARYA</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+          <t>VINEN</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n">
+        <v/>
       </c>
       <c r="E33" s="4" t="n">
         <v/>
       </c>
-      <c r="F33" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="G33" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="H33" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="F33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="G33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="H33" s="4" t="n">
+        <v/>
       </c>
       <c r="I33" s="4" t="n">
         <v/>
@@ -7574,162 +7572,132 @@
       <c r="J33" s="4" t="n">
         <v/>
       </c>
-      <c r="K33" s="4" t="inlineStr">
+      <c r="K33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="L33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="M33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="N33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="O33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="P33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Q33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="R33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="S33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="V33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="W33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="X33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Y33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Z33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AA33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AB33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AC33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AD33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AE33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AF33" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AG33" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AH33" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AI33" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ33" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="L33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="M33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="N33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="O33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="P33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Q33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="R33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="S33" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="T33" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="U33" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="V33" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W33" s="4" t="inlineStr">
+      <c r="AK33" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AL33" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="X33" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="Y33" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Z33" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA33" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AB33" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC33" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AD33" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE33" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AF33" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG33" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AH33" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AI33" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ33" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AK33" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AL33" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
       <c r="AN33" s="3" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AO33" s="3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AQ33" t="n">
         <v>5</v>
       </c>
-      <c r="AP33" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>11</v>
-      </c>
       <c r="AR33" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS33" s="3" t="n">
-        <v>21.64502164502164</v>
+        <v>25.08474576271186</v>
       </c>
       <c r="AT33" t="n">
-        <v>21.64502164502164</v>
+        <v>25.08474576271186</v>
       </c>
       <c r="AU33" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AV33" t="n">
         <v>32</v>
@@ -7744,28 +7712,36 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SCOONES</t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="n">
-        <v/>
+          <t>BHATTACHARYA</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="E34" s="4" t="n">
         <v/>
       </c>
-      <c r="F34" s="4" t="n">
-        <v/>
-      </c>
-      <c r="G34" s="4" t="n">
-        <v/>
-      </c>
-      <c r="H34" s="4" t="n">
-        <v/>
+      <c r="F34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="G34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="H34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="I34" s="4" t="n">
         <v/>
@@ -7773,8 +7749,10 @@
       <c r="J34" s="4" t="n">
         <v/>
       </c>
-      <c r="K34" s="4" t="n">
-        <v/>
+      <c r="K34" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
       </c>
       <c r="L34" s="4" t="n">
         <v/>
@@ -7785,10 +7763,8 @@
       <c r="N34" s="4" t="n">
         <v/>
       </c>
-      <c r="O34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="O34" s="4" t="n">
+        <v/>
       </c>
       <c r="P34" s="4" t="n">
         <v/>
@@ -7796,10 +7772,8 @@
       <c r="Q34" s="4" t="n">
         <v/>
       </c>
-      <c r="R34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="R34" s="4" t="n">
+        <v/>
       </c>
       <c r="S34" s="4" t="inlineStr">
         <is>
@@ -7818,37 +7792,37 @@
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="X34" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="Y34" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Z34" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AA34" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AB34" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AC34" s="4" t="inlineStr">
@@ -7858,7 +7832,7 @@
       </c>
       <c r="AD34" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AE34" s="4" t="inlineStr">
@@ -7868,17 +7842,17 @@
       </c>
       <c r="AF34" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AG34" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AH34" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AI34" s="4" t="inlineStr">
@@ -7908,29 +7882,29 @@
       </c>
       <c r="AN34" s="3" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AO34" s="3" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="AP34" t="n">
-        <v>22.95</v>
+        <v>23.1</v>
       </c>
       <c r="AQ34" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AR34" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS34" s="3" t="n">
-        <v>16.12200435729848</v>
+        <v>21.64502164502164</v>
       </c>
       <c r="AT34" t="n">
-        <v>16.12200435729848</v>
+        <v>21.64502164502164</v>
       </c>
       <c r="AU34" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AV34" t="n">
         <v>33</v>
@@ -7945,12 +7919,12 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>SCOONES</t>
         </is>
       </c>
       <c r="D35" s="4" t="n">
@@ -7986,8 +7960,10 @@
       <c r="N35" s="4" t="n">
         <v/>
       </c>
-      <c r="O35" s="4" t="n">
-        <v/>
+      <c r="O35" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="P35" s="4" t="n">
         <v/>
@@ -7995,50 +7971,80 @@
       <c r="Q35" s="4" t="n">
         <v/>
       </c>
-      <c r="R35" s="4" t="n">
-        <v/>
-      </c>
-      <c r="S35" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T35" s="4" t="n">
-        <v/>
-      </c>
-      <c r="U35" s="4" t="n">
-        <v/>
-      </c>
-      <c r="V35" s="4" t="n">
-        <v/>
-      </c>
-      <c r="W35" s="4" t="n">
-        <v/>
-      </c>
-      <c r="X35" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Y35" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Z35" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AA35" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AB35" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AC35" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AD35" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AE35" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AF35" s="4" t="n">
-        <v/>
+      <c r="R35" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="S35" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="T35" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="U35" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="V35" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="W35" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="X35" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Y35" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Z35" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AA35" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AB35" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AC35" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AD35" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AE35" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AF35" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="AG35" s="4" t="inlineStr">
         <is>
@@ -8062,17 +8068,17 @@
       </c>
       <c r="AK35" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AL35" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AN35" s="3" t="inlineStr">
@@ -8081,25 +8087,25 @@
         </is>
       </c>
       <c r="AO35" s="3" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="AP35" t="n">
-        <v>11.2</v>
+        <v>22.95</v>
       </c>
       <c r="AQ35" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AR35" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS35" s="3" t="n">
-        <v>15.17857142857143</v>
+        <v>16.12200435729848</v>
       </c>
       <c r="AT35" t="n">
-        <v>15.17857142857143</v>
+        <v>16.12200435729848</v>
       </c>
       <c r="AU35" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AV35" t="n">
         <v>34</v>
@@ -8114,12 +8120,12 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ARJARIA</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="D36" s="4" t="n">
@@ -8206,14 +8212,12 @@
       <c r="AE36" s="4" t="n">
         <v/>
       </c>
-      <c r="AF36" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="AF36" s="4" t="n">
+        <v/>
       </c>
       <c r="AG36" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AH36" s="4" t="inlineStr">
@@ -8223,12 +8227,12 @@
       </c>
       <c r="AI36" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AJ36" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AK36" s="4" t="inlineStr">
@@ -8238,12 +8242,12 @@
       </c>
       <c r="AL36" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>L16</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AN36" s="3" t="inlineStr">
@@ -8252,25 +8256,25 @@
         </is>
       </c>
       <c r="AO36" s="3" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AP36" t="n">
-        <v>13.2</v>
+        <v>11.2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR36" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS36" s="3" t="n">
-        <v>15.15151515151515</v>
+        <v>15.17857142857143</v>
       </c>
       <c r="AT36" t="n">
-        <v>15.15151515151515</v>
+        <v>15.17857142857143</v>
       </c>
       <c r="AU36" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV36" t="n">
         <v>35</v>
@@ -8285,12 +8289,12 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>HABERSHON</t>
+          <t>ARJARIA</t>
         </is>
       </c>
       <c r="D37" s="4" t="n">
@@ -8344,126 +8348,104 @@
       <c r="T37" s="4" t="n">
         <v/>
       </c>
-      <c r="U37" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="V37" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W37" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="X37" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Y37" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Z37" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA37" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AB37" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC37" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AD37" s="4" t="inlineStr">
+      <c r="U37" s="4" t="n">
+        <v/>
+      </c>
+      <c r="V37" s="4" t="n">
+        <v/>
+      </c>
+      <c r="W37" s="4" t="n">
+        <v/>
+      </c>
+      <c r="X37" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Y37" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Z37" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AA37" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AB37" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AC37" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AD37" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AE37" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AF37" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AG37" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AH37" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI37" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AJ37" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AK37" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL37" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AE37" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF37" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AG37" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AH37" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI37" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ37" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AK37" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL37" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
       <c r="AN37" s="3" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
       <c r="AO37" s="3" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>14.25</v>
+        <v>13.2</v>
       </c>
       <c r="AQ37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR37" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS37" s="3" t="n">
-        <v>7.719298245614034</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="AT37" t="n">
-        <v>7.719298245614034</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="AU37" t="n">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="AV37" t="n">
         <v>36</v>
@@ -8478,36 +8460,28 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MORRIS</t>
-        </is>
-      </c>
-      <c r="D38" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="E38" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+          <t>HABERSHON</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v/>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v/>
       </c>
       <c r="F38" s="4" t="n">
         <v/>
       </c>
-      <c r="G38" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="H38" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="G38" s="4" t="n">
+        <v/>
+      </c>
+      <c r="H38" s="4" t="n">
+        <v/>
       </c>
       <c r="I38" s="4" t="n">
         <v/>
@@ -8515,10 +8489,8 @@
       <c r="J38" s="4" t="n">
         <v/>
       </c>
-      <c r="K38" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="K38" s="4" t="n">
+        <v/>
       </c>
       <c r="L38" s="4" t="n">
         <v/>
@@ -8547,12 +8519,14 @@
       <c r="T38" s="4" t="n">
         <v/>
       </c>
-      <c r="U38" s="4" t="n">
-        <v/>
+      <c r="U38" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -8567,7 +8541,7 @@
       </c>
       <c r="Y38" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Z38" s="4" t="inlineStr">
@@ -8577,24 +8551,24 @@
       </c>
       <c r="AA38" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AB38" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC38" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD38" s="4" t="inlineStr">
+        <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AB38" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC38" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AD38" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AE38" s="4" t="inlineStr">
         <is>
           <t>P</t>
@@ -8602,7 +8576,7 @@
       </c>
       <c r="AF38" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AG38" s="4" t="inlineStr">
@@ -8617,7 +8591,7 @@
       </c>
       <c r="AI38" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AJ38" s="4" t="inlineStr">
@@ -8632,12 +8606,12 @@
       </c>
       <c r="AL38" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AN38" s="3" t="inlineStr">
@@ -8646,25 +8620,25 @@
         </is>
       </c>
       <c r="AO38" s="3" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AP38" t="n">
-        <v>14.85</v>
+        <v>14.25</v>
       </c>
       <c r="AQ38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AR38" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS38" s="3" t="n">
-        <v>5.387205387205388</v>
+        <v>7.719298245614034</v>
       </c>
       <c r="AT38" t="n">
-        <v>5.387205387205388</v>
+        <v>7.719298245614034</v>
       </c>
       <c r="AU38" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AV38" t="n">
         <v>37</v>
@@ -8679,37 +8653,39 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>COOLEY</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="n">
-        <v/>
-      </c>
-      <c r="E39" s="4" t="n">
-        <v/>
-      </c>
-      <c r="F39" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="G39" s="4" t="n">
-        <v/>
+          <t>MORRIS</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="n">
+        <v/>
+      </c>
+      <c r="G39" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="H39" s="4" t="inlineStr">
         <is>
           <t>NQ</t>
         </is>
       </c>
-      <c r="I39" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="I39" s="4" t="n">
+        <v/>
       </c>
       <c r="J39" s="4" t="n">
         <v/>
@@ -8719,49 +8695,35 @@
           <t>NQ</t>
         </is>
       </c>
-      <c r="L39" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="L39" s="4" t="n">
+        <v/>
       </c>
       <c r="M39" s="4" t="n">
         <v/>
       </c>
-      <c r="N39" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="O39" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="N39" s="4" t="n">
+        <v/>
+      </c>
+      <c r="O39" s="4" t="n">
+        <v/>
       </c>
       <c r="P39" s="4" t="n">
         <v/>
       </c>
-      <c r="Q39" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="Q39" s="4" t="n">
+        <v/>
       </c>
       <c r="R39" s="4" t="n">
         <v/>
       </c>
-      <c r="S39" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="T39" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="U39" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="S39" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T39" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U39" s="4" t="n">
+        <v/>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
@@ -8770,7 +8732,7 @@
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="X39" s="4" t="inlineStr">
@@ -8785,17 +8747,17 @@
       </c>
       <c r="Z39" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA39" s="4" t="inlineStr">
+        <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AA39" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
       <c r="AB39" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AC39" s="4" t="inlineStr">
@@ -8805,12 +8767,12 @@
       </c>
       <c r="AD39" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AE39" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AF39" s="4" t="inlineStr">
@@ -8820,22 +8782,22 @@
       </c>
       <c r="AG39" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AH39" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AI39" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AJ39" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AK39" s="4" t="inlineStr">
@@ -8845,12 +8807,12 @@
       </c>
       <c r="AL39" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AN39" s="3" t="inlineStr">
@@ -8859,25 +8821,25 @@
         </is>
       </c>
       <c r="AO39" s="3" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP39" t="n">
-        <v>17.8</v>
+        <v>14.85</v>
       </c>
       <c r="AQ39" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AR39" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS39" s="3" t="n">
-        <v>2.808988764044944</v>
+        <v>5.387205387205388</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.808988764044944</v>
+        <v>5.387205387205388</v>
       </c>
       <c r="AU39" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AV39" t="n">
         <v>38</v>
@@ -8892,12 +8854,12 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HIRD</t>
+          <t>COOLEY</t>
         </is>
       </c>
       <c r="D40" s="4" t="n">
@@ -8924,10 +8886,8 @@
           <t>NQ</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="J40" s="4" t="n">
+        <v/>
       </c>
       <c r="K40" s="4" t="inlineStr">
         <is>
@@ -8960,10 +8920,8 @@
           <t>NQ</t>
         </is>
       </c>
-      <c r="R40" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="R40" s="4" t="n">
+        <v/>
       </c>
       <c r="S40" s="4" t="inlineStr">
         <is>
@@ -8992,7 +8950,7 @@
       </c>
       <c r="X40" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Y40" s="4" t="inlineStr">
@@ -9057,7 +9015,7 @@
       </c>
       <c r="AK40" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AL40" s="4" t="inlineStr">
@@ -9079,22 +9037,22 @@
         <v>0.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>18.75</v>
+        <v>17.8</v>
       </c>
       <c r="AQ40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR40" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS40" s="3" t="n">
-        <v>2.666666666666667</v>
+        <v>2.808988764044944</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.666666666666667</v>
+        <v>2.808988764044944</v>
       </c>
       <c r="AU40" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AV40" t="n">
         <v>39</v>
@@ -9109,12 +9067,12 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>HIRD</t>
         </is>
       </c>
       <c r="D41" s="4" t="n">
@@ -9123,122 +9081,128 @@
       <c r="E41" s="4" t="n">
         <v/>
       </c>
-      <c r="F41" s="4" t="n">
-        <v/>
+      <c r="F41" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="G41" s="4" t="n">
         <v/>
       </c>
       <c r="H41" s="4" t="inlineStr">
         <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="I41" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="J41" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="L41" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="M41" s="4" t="n">
+        <v/>
+      </c>
+      <c r="N41" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="O41" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="P41" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Q41" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="R41" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="S41" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="T41" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="U41" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="V41" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="W41" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="X41" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Y41" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Z41" s="4" t="inlineStr">
+        <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="I41" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="J41" s="4" t="n">
-        <v/>
-      </c>
-      <c r="K41" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="L41" s="4" t="n">
-        <v/>
-      </c>
-      <c r="M41" s="4" t="n">
-        <v/>
-      </c>
-      <c r="N41" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="O41" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="P41" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Q41" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="R41" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="S41" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="T41" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="U41" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="V41" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="W41" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="X41" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="Y41" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Z41" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
       <c r="AA41" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AB41" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AC41" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AD41" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AE41" s="4" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AF41" s="4" t="inlineStr">
@@ -9248,12 +9212,12 @@
       </c>
       <c r="AG41" s="4" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AH41" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AI41" s="4" t="inlineStr">
@@ -9263,12 +9227,12 @@
       </c>
       <c r="AJ41" s="4" t="inlineStr">
         <is>
-          <t>QF</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AK41" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AL41" s="4" t="inlineStr">
@@ -9278,7 +9242,7 @@
       </c>
       <c r="AM41" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AN41" s="3" t="inlineStr">
@@ -9287,25 +9251,25 @@
         </is>
       </c>
       <c r="AO41" s="3" t="n">
-        <v>56.615</v>
+        <v>0.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>72.40000000000001</v>
+        <v>18.75</v>
       </c>
       <c r="AQ41" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR41" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS41" s="3" t="n">
-        <v>78.1975138121547</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.0781975138121547</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AU41" t="n">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="AV41" t="n">
         <v>40</v>
@@ -9325,7 +9289,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HOPKINS</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="D42" s="4" t="n">
@@ -9340,18 +9304,22 @@
       <c r="G42" s="4" t="n">
         <v/>
       </c>
-      <c r="H42" s="4" t="n">
-        <v/>
-      </c>
-      <c r="I42" s="4" t="n">
-        <v/>
+      <c r="H42" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="I42" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
       </c>
       <c r="J42" s="4" t="n">
         <v/>
       </c>
       <c r="K42" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="L42" s="4" t="n">
@@ -9360,56 +9328,88 @@
       <c r="M42" s="4" t="n">
         <v/>
       </c>
-      <c r="N42" s="4" t="n">
-        <v/>
-      </c>
-      <c r="O42" s="4" t="n">
-        <v/>
+      <c r="N42" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="O42" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
       </c>
       <c r="P42" s="4" t="n">
         <v/>
       </c>
-      <c r="Q42" s="4" t="n">
-        <v/>
-      </c>
-      <c r="R42" s="4" t="n">
-        <v/>
-      </c>
-      <c r="S42" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T42" s="4" t="n">
-        <v/>
-      </c>
-      <c r="U42" s="4" t="n">
-        <v/>
-      </c>
-      <c r="V42" s="4" t="n">
-        <v/>
-      </c>
-      <c r="W42" s="4" t="n">
-        <v/>
-      </c>
-      <c r="X42" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Y42" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Z42" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AA42" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AB42" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AC42" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AD42" s="4" t="n">
-        <v/>
+      <c r="Q42" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R42" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="S42" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="T42" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U42" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="V42" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="W42" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="X42" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="Y42" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Z42" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="AA42" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AB42" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC42" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AD42" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="AE42" s="4" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
       </c>
       <c r="AK42" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>F</t>
         </is>
       </c>
       <c r="AL42" s="4" t="inlineStr">
@@ -9462,25 +9462,25 @@
         </is>
       </c>
       <c r="AO42" s="3" t="n">
-        <v>19.94</v>
+        <v>56.615</v>
       </c>
       <c r="AP42" t="n">
-        <v>32</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="AQ42" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AR42" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS42" s="3" t="n">
-        <v>62.31249999999999</v>
+        <v>78.1975138121547</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.0623124999999999</v>
+        <v>0.0781975138121547</v>
       </c>
       <c r="AU42" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AV42" t="n">
         <v>41</v>
@@ -80458,12 +80458,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>JACK</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>HOPKINS</t>
+          <t>SEELY</t>
         </is>
       </c>
       <c r="D416" t="n">
@@ -80610,161 +80610,10 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="n">
-        <v>416</v>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="C417" t="inlineStr">
-        <is>
-          <t>SEELY</t>
-        </is>
-      </c>
-      <c r="D417" t="n">
-        <v/>
-      </c>
-      <c r="E417" t="n">
-        <v/>
-      </c>
-      <c r="F417" t="n">
-        <v/>
-      </c>
-      <c r="G417" t="n">
-        <v/>
-      </c>
-      <c r="H417" t="n">
-        <v/>
-      </c>
-      <c r="I417" t="n">
-        <v/>
-      </c>
-      <c r="J417" t="n">
-        <v/>
-      </c>
-      <c r="K417" t="n">
-        <v/>
-      </c>
-      <c r="L417" t="n">
-        <v/>
-      </c>
-      <c r="M417" t="n">
-        <v/>
-      </c>
-      <c r="N417" t="n">
-        <v/>
-      </c>
-      <c r="O417" t="n">
-        <v/>
-      </c>
-      <c r="P417" t="n">
-        <v/>
-      </c>
-      <c r="Q417" t="n">
-        <v/>
-      </c>
-      <c r="R417" t="n">
-        <v/>
-      </c>
-      <c r="S417" t="n">
-        <v/>
-      </c>
-      <c r="T417" t="n">
-        <v/>
-      </c>
-      <c r="U417" t="n">
-        <v/>
-      </c>
-      <c r="V417" t="n">
-        <v/>
-      </c>
-      <c r="W417" t="n">
-        <v/>
-      </c>
-      <c r="X417" t="n">
-        <v/>
-      </c>
-      <c r="Y417" t="n">
-        <v/>
-      </c>
-      <c r="Z417" t="n">
-        <v/>
-      </c>
-      <c r="AA417" t="n">
-        <v/>
-      </c>
-      <c r="AB417" t="n">
-        <v/>
-      </c>
-      <c r="AC417" t="n">
-        <v/>
-      </c>
-      <c r="AD417" t="n">
-        <v/>
-      </c>
-      <c r="AE417" t="n">
-        <v/>
-      </c>
-      <c r="AF417" t="n">
-        <v/>
-      </c>
-      <c r="AG417" t="n">
-        <v/>
-      </c>
-      <c r="AH417" t="n">
-        <v/>
-      </c>
-      <c r="AI417" t="n">
-        <v/>
-      </c>
-      <c r="AJ417" t="n">
-        <v/>
-      </c>
-      <c r="AK417" t="n">
-        <v/>
-      </c>
-      <c r="AL417" t="n">
-        <v/>
-      </c>
-      <c r="AM417" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AN417" s="3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO417" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP417" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ417" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR417" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS417" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT417" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU417" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV417" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW417" t="n">
-        <v>416</v>
-      </c>
+      <c r="AN417" s="3" t="n"/>
+      <c r="AO417" s="3" t="n"/>
+      <c r="AR417" s="3" t="n"/>
+      <c r="AS417" s="3" t="n"/>
     </row>
     <row r="418">
       <c r="AN418" s="3" t="n"/>
@@ -80779,7 +80628,7 @@
       <c r="AS419" s="3" t="n"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:AN417">
+  <conditionalFormatting sqref="D2:AN416">
     <cfRule type="cellIs" priority="2" operator="equal" dxfId="6">
       <formula>"NQ"</formula>
     </cfRule>

--- a/docs/downloads/rankings_latest.xlsx
+++ b/docs/downloads/rankings_latest.xlsx
@@ -990,7 +990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV419"/>
+  <dimension ref="A1:AW419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
@@ -1045,6 +1045,8 @@
     <col width="6" customWidth="1" min="45" max="45"/>
     <col width="6" bestFit="1" customWidth="1" min="46" max="46"/>
     <col width="7" bestFit="1" customWidth="1" min="47" max="48"/>
+    <col width="6" customWidth="1" min="48" max="48"/>
+    <col width="6" customWidth="1" min="49" max="49"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1280,6 +1282,16 @@
       </c>
       <c r="AU1" s="5" t="inlineStr">
         <is>
+          <t>RANK</t>
+        </is>
+      </c>
+      <c r="AV1" s="5" t="inlineStr">
+        <is>
+          <t>RANK2</t>
+        </is>
+      </c>
+      <c r="AW1" s="5" t="inlineStr">
+        <is>
           <t>RANK3</t>
         </is>
       </c>
@@ -1494,6 +1506,12 @@
       <c r="AU2" t="n">
         <v>1</v>
       </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1681,6 +1699,12 @@
       <c r="AU3" t="n">
         <v>2</v>
       </c>
+      <c r="AV3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1900,6 +1924,12 @@
       <c r="AU4" t="n">
         <v>3</v>
       </c>
+      <c r="AV4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -2121,6 +2151,12 @@
       <c r="AU5" t="n">
         <v>4</v>
       </c>
+      <c r="AV5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2338,6 +2374,12 @@
         <v>72.25714285714285</v>
       </c>
       <c r="AU6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2529,6 +2571,12 @@
         <v>67.56345177664976</v>
       </c>
       <c r="AU7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2726,6 +2774,12 @@
         <v>66.42528735632185</v>
       </c>
       <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2933,6 +2987,12 @@
         <v>65.33788395904436</v>
       </c>
       <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3140,6 +3200,12 @@
         <v>65.33646322378718</v>
       </c>
       <c r="AU10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3333,6 +3399,12 @@
         <v>63.43319838056679</v>
       </c>
       <c r="AU11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3502,6 +3574,12 @@
         <v>60.42424242424241</v>
       </c>
       <c r="AU12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW12" t="n">
         <v>11</v>
       </c>
     </row>
@@ -3717,6 +3795,12 @@
         <v>59.02584493041751</v>
       </c>
       <c r="AU13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW13" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3934,6 +4018,12 @@
         <v>55.00575373993095</v>
       </c>
       <c r="AU14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW14" t="n">
         <v>13</v>
       </c>
     </row>
@@ -4141,6 +4231,12 @@
         <v>54.79508196721311</v>
       </c>
       <c r="AU15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW15" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4342,6 +4438,12 @@
         <v>54.52812202097235</v>
       </c>
       <c r="AU16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW16" t="n">
         <v>15</v>
       </c>
     </row>
@@ -4551,6 +4653,12 @@
         <v>53.3256351039261</v>
       </c>
       <c r="AU17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW17" t="n">
         <v>16</v>
       </c>
     </row>
@@ -4744,6 +4852,12 @@
         <v>51.35234590616376</v>
       </c>
       <c r="AU18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW18" t="n">
         <v>17</v>
       </c>
     </row>
@@ -4919,6 +5033,12 @@
         <v>49.69870875179341</v>
       </c>
       <c r="AU19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW19" t="n">
         <v>18</v>
       </c>
     </row>
@@ -5108,6 +5228,12 @@
         <v>45.09803921568628</v>
       </c>
       <c r="AU20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW20" t="n">
         <v>19</v>
       </c>
     </row>
@@ -5299,6 +5425,12 @@
         <v>43.70946822308691</v>
       </c>
       <c r="AU21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW21" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5518,6 +5650,12 @@
         <v>41.78861788617886</v>
       </c>
       <c r="AU22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW22" t="n">
         <v>21</v>
       </c>
     </row>
@@ -5709,6 +5847,12 @@
         <v>41.28500823723229</v>
       </c>
       <c r="AU23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW23" t="n">
         <v>22</v>
       </c>
     </row>
@@ -5874,6 +6018,12 @@
         <v>39.23705722070845</v>
       </c>
       <c r="AU24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW24" t="n">
         <v>23</v>
       </c>
     </row>
@@ -6037,6 +6187,12 @@
         <v>38.88888888888889</v>
       </c>
       <c r="AU25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW25" t="n">
         <v>24</v>
       </c>
     </row>
@@ -6220,6 +6376,12 @@
         <v>35.5108877721943</v>
       </c>
       <c r="AU26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AW26" t="n">
         <v>25</v>
       </c>
     </row>
@@ -6409,6 +6571,12 @@
         <v>31.16591928251121</v>
       </c>
       <c r="AU27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW27" t="n">
         <v>26</v>
       </c>
     </row>
@@ -6590,6 +6758,12 @@
         <v>31.04125736738704</v>
       </c>
       <c r="AU28" t="n">
+        <v>35</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AW28" t="n">
         <v>27</v>
       </c>
     </row>
@@ -6785,6 +6959,12 @@
         <v>30.99173553719008</v>
       </c>
       <c r="AU29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AW29" t="n">
         <v>28</v>
       </c>
     </row>
@@ -6948,6 +7128,12 @@
         <v>27.71535580524345</v>
       </c>
       <c r="AU30" t="n">
+        <v>38</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW30" t="n">
         <v>29</v>
       </c>
     </row>
@@ -7145,6 +7331,12 @@
         <v>26.97201017811706</v>
       </c>
       <c r="AU31" t="n">
+        <v>39</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AW31" t="n">
         <v>30</v>
       </c>
     </row>
@@ -7336,6 +7528,12 @@
         <v>25.97402597402597</v>
       </c>
       <c r="AU32" t="n">
+        <v>42</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>31</v>
+      </c>
+      <c r="AW32" t="n">
         <v>31</v>
       </c>
     </row>
@@ -7499,6 +7697,12 @@
         <v>25.08474576271186</v>
       </c>
       <c r="AU33" t="n">
+        <v>43</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AW33" t="n">
         <v>32</v>
       </c>
     </row>
@@ -7700,6 +7904,12 @@
         <v>21.64502164502164</v>
       </c>
       <c r="AU34" t="n">
+        <v>48</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>33</v>
+      </c>
+      <c r="AW34" t="n">
         <v>33</v>
       </c>
     </row>
@@ -7895,6 +8105,12 @@
         <v>16.12200435729848</v>
       </c>
       <c r="AU35" t="n">
+        <v>54</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW35" t="n">
         <v>34</v>
       </c>
     </row>
@@ -8058,6 +8274,12 @@
         <v>15.17857142857143</v>
       </c>
       <c r="AU36" t="n">
+        <v>57</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>35</v>
+      </c>
+      <c r="AW36" t="n">
         <v>35</v>
       </c>
     </row>
@@ -8223,6 +8445,12 @@
         <v>15.15151515151515</v>
       </c>
       <c r="AU37" t="n">
+        <v>58</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>36</v>
+      </c>
+      <c r="AW37" t="n">
         <v>36</v>
       </c>
     </row>
@@ -8410,6 +8638,12 @@
         <v>7.719298245614034</v>
       </c>
       <c r="AU38" t="n">
+        <v>83</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>37</v>
+      </c>
+      <c r="AW38" t="n">
         <v>37</v>
       </c>
     </row>
@@ -8605,6 +8839,12 @@
         <v>5.387205387205388</v>
       </c>
       <c r="AU39" t="n">
+        <v>89</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>38</v>
+      </c>
+      <c r="AW39" t="n">
         <v>38</v>
       </c>
     </row>
@@ -8812,6 +9052,12 @@
         <v>2.808988764044944</v>
       </c>
       <c r="AU40" t="n">
+        <v>92</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>39</v>
+      </c>
+      <c r="AW40" t="n">
         <v>39</v>
       </c>
     </row>
@@ -9023,6 +9269,12 @@
         <v>2.666666666666667</v>
       </c>
       <c r="AU41" t="n">
+        <v>93</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW41" t="n">
         <v>40</v>
       </c>
     </row>
@@ -9228,6 +9480,12 @@
         <v>0.0781975138121547</v>
       </c>
       <c r="AU42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW42" t="n">
         <v>41</v>
       </c>
     </row>
@@ -9425,6 +9683,12 @@
         <v>0.0527633587786259</v>
       </c>
       <c r="AU43" t="n">
+        <v>18</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>42</v>
+      </c>
+      <c r="AW43" t="n">
         <v>42</v>
       </c>
     </row>
@@ -9578,6 +9842,12 @@
         <v>0.0472727272727272</v>
       </c>
       <c r="AU44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>43</v>
+      </c>
+      <c r="AW44" t="n">
         <v>43</v>
       </c>
     </row>
@@ -9785,6 +10055,12 @@
         <v>0.040943396226415</v>
       </c>
       <c r="AU45" t="n">
+        <v>26</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>44</v>
+      </c>
+      <c r="AW45" t="n">
         <v>44</v>
       </c>
     </row>
@@ -10002,6 +10278,12 @@
         <v>0.0362227602905568</v>
       </c>
       <c r="AU46" t="n">
+        <v>29</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW46" t="n">
         <v>45</v>
       </c>
     </row>
@@ -10193,6 +10475,12 @@
         <v>0.0340122199592668</v>
       </c>
       <c r="AU47" t="n">
+        <v>31</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>46</v>
+      </c>
+      <c r="AW47" t="n">
         <v>46</v>
       </c>
     </row>
@@ -10384,6 +10672,12 @@
         <v>0.0332231404958677</v>
       </c>
       <c r="AU48" t="n">
+        <v>32</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>47</v>
+      </c>
+      <c r="AW48" t="n">
         <v>47</v>
       </c>
     </row>
@@ -10573,6 +10867,12 @@
         <v>0.0325641025641025</v>
       </c>
       <c r="AU49" t="n">
+        <v>33</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>48</v>
+      </c>
+      <c r="AW49" t="n">
         <v>48</v>
       </c>
     </row>
@@ -10762,6 +11062,12 @@
         <v>0.0307822410147991</v>
       </c>
       <c r="AU50" t="n">
+        <v>37</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>49</v>
+      </c>
+      <c r="AW50" t="n">
         <v>49</v>
       </c>
     </row>
@@ -10927,6 +11233,12 @@
         <v>0.0267241379310344</v>
       </c>
       <c r="AU51" t="n">
+        <v>40</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW51" t="n">
         <v>50</v>
       </c>
     </row>
@@ -11128,6 +11440,12 @@
         <v>0.0262376237623762</v>
       </c>
       <c r="AU52" t="n">
+        <v>41</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW52" t="n">
         <v>51</v>
       </c>
     </row>
@@ -11331,6 +11649,12 @@
         <v>0.0248295454545454</v>
       </c>
       <c r="AU53" t="n">
+        <v>44</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>52</v>
+      </c>
+      <c r="AW53" t="n">
         <v>52</v>
       </c>
     </row>
@@ -11532,6 +11856,12 @@
         <v>0.0248295454545454</v>
       </c>
       <c r="AU54" t="n">
+        <v>44</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>52</v>
+      </c>
+      <c r="AW54" t="n">
         <v>53</v>
       </c>
     </row>
@@ -11719,6 +12049,12 @@
         <v>0.0237142857142857</v>
       </c>
       <c r="AU55" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>54</v>
+      </c>
+      <c r="AW55" t="n">
         <v>54</v>
       </c>
     </row>
@@ -11904,6 +12240,12 @@
         <v>0.0235955056179775</v>
       </c>
       <c r="AU56" t="n">
+        <v>47</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW56" t="n">
         <v>55</v>
       </c>
     </row>
@@ -12077,6 +12419,12 @@
         <v>0.0211267605633802</v>
       </c>
       <c r="AU57" t="n">
+        <v>49</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>56</v>
+      </c>
+      <c r="AW57" t="n">
         <v>56</v>
       </c>
     </row>
@@ -12252,6 +12600,12 @@
         <v>0.0207407407407407</v>
       </c>
       <c r="AU58" t="n">
+        <v>50</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>57</v>
+      </c>
+      <c r="AW58" t="n">
         <v>57</v>
       </c>
     </row>
@@ -12437,6 +12791,12 @@
         <v>0.0197435897435897</v>
       </c>
       <c r="AU59" t="n">
+        <v>51</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>58</v>
+      </c>
+      <c r="AW59" t="n">
         <v>58</v>
       </c>
     </row>
@@ -12642,6 +13002,12 @@
         <v>0.0188679245283018</v>
       </c>
       <c r="AU60" t="n">
+        <v>52</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>59</v>
+      </c>
+      <c r="AW60" t="n">
         <v>59</v>
       </c>
     </row>
@@ -12821,6 +13187,12 @@
         <v>0.0173643410852713</v>
       </c>
       <c r="AU61" t="n">
+        <v>53</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW61" t="n">
         <v>60</v>
       </c>
     </row>
@@ -13004,6 +13376,12 @@
         <v>0.0159999999999999</v>
       </c>
       <c r="AU62" t="n">
+        <v>55</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>61</v>
+      </c>
+      <c r="AW62" t="n">
         <v>61</v>
       </c>
     </row>
@@ -13203,6 +13581,12 @@
         <v>0.0154098360655737</v>
       </c>
       <c r="AU63" t="n">
+        <v>56</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>62</v>
+      </c>
+      <c r="AW63" t="n">
         <v>62</v>
       </c>
     </row>
@@ -13394,6 +13778,12 @@
         <v>0.0147924528301886</v>
       </c>
       <c r="AU64" t="n">
+        <v>59</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>63</v>
+      </c>
+      <c r="AW64" t="n">
         <v>63</v>
       </c>
     </row>
@@ -13561,6 +13951,12 @@
         <v>0.0141666666666666</v>
       </c>
       <c r="AU65" t="n">
+        <v>60</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>64</v>
+      </c>
+      <c r="AW65" t="n">
         <v>64</v>
       </c>
     </row>
@@ -13750,6 +14146,12 @@
         <v>0.0138181818181818</v>
       </c>
       <c r="AU66" t="n">
+        <v>61</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW66" t="n">
         <v>65</v>
       </c>
     </row>
@@ -13945,6 +14347,12 @@
         <v>0.0138181818181818</v>
       </c>
       <c r="AU67" t="n">
+        <v>61</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW67" t="n">
         <v>66</v>
       </c>
     </row>
@@ -14150,6 +14558,12 @@
         <v>0.0132867132867132</v>
       </c>
       <c r="AU68" t="n">
+        <v>63</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW68" t="n">
         <v>67</v>
       </c>
     </row>
@@ -14337,6 +14751,12 @@
         <v>0.0119702602230483</v>
       </c>
       <c r="AU69" t="n">
+        <v>64</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>68</v>
+      </c>
+      <c r="AW69" t="n">
         <v>68</v>
       </c>
     </row>
@@ -14514,6 +14934,12 @@
         <v>0.0115702479338842</v>
       </c>
       <c r="AU70" t="n">
+        <v>65</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>69</v>
+      </c>
+      <c r="AW70" t="n">
         <v>69</v>
       </c>
     </row>
@@ -14693,6 +15119,12 @@
         <v>0.0115702479338842</v>
       </c>
       <c r="AU71" t="n">
+        <v>65</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>69</v>
+      </c>
+      <c r="AW71" t="n">
         <v>70</v>
       </c>
     </row>
@@ -14884,6 +15316,12 @@
         <v>0.0113793103448275</v>
       </c>
       <c r="AU72" t="n">
+        <v>67</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>71</v>
+      </c>
+      <c r="AW72" t="n">
         <v>71</v>
       </c>
     </row>
@@ -15075,6 +15513,12 @@
         <v>0.0113013698630136</v>
       </c>
       <c r="AU73" t="n">
+        <v>68</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>72</v>
+      </c>
+      <c r="AW73" t="n">
         <v>72</v>
       </c>
     </row>
@@ -15252,6 +15696,12 @@
         <v>0.011038961038961</v>
       </c>
       <c r="AU74" t="n">
+        <v>69</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>73</v>
+      </c>
+      <c r="AW74" t="n">
         <v>73</v>
       </c>
     </row>
@@ -15439,6 +15889,12 @@
         <v>0.0107843137254901</v>
       </c>
       <c r="AU75" t="n">
+        <v>70</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>74</v>
+      </c>
+      <c r="AW75" t="n">
         <v>74</v>
       </c>
     </row>
@@ -15636,6 +16092,12 @@
         <v>0.0107692307692307</v>
       </c>
       <c r="AU76" t="n">
+        <v>71</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW76" t="n">
         <v>75</v>
       </c>
     </row>
@@ -15813,6 +16275,12 @@
         <v>0.0102564102564102</v>
       </c>
       <c r="AU77" t="n">
+        <v>72</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>76</v>
+      </c>
+      <c r="AW77" t="n">
         <v>76</v>
       </c>
     </row>
@@ -15982,6 +16450,12 @@
         <v>0.0100456621004566</v>
       </c>
       <c r="AU78" t="n">
+        <v>73</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>77</v>
+      </c>
+      <c r="AW78" t="n">
         <v>77</v>
       </c>
     </row>
@@ -16179,6 +16653,12 @@
         <v>0.01003861003861</v>
       </c>
       <c r="AU79" t="n">
+        <v>74</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>78</v>
+      </c>
+      <c r="AW79" t="n">
         <v>78</v>
       </c>
     </row>
@@ -16348,6 +16828,12 @@
         <v>0.009909909909909901</v>
       </c>
       <c r="AU80" t="n">
+        <v>75</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>79</v>
+      </c>
+      <c r="AW80" t="n">
         <v>79</v>
       </c>
     </row>
@@ -16543,6 +17029,12 @@
         <v>0.0090579710144927</v>
       </c>
       <c r="AU81" t="n">
+        <v>76</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW81" t="n">
         <v>80</v>
       </c>
     </row>
@@ -16738,6 +17230,12 @@
         <v>0.008945686900958399</v>
       </c>
       <c r="AU82" t="n">
+        <v>77</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW82" t="n">
         <v>81</v>
       </c>
     </row>
@@ -16919,6 +17417,12 @@
         <v>0.0088353413654618</v>
       </c>
       <c r="AU83" t="n">
+        <v>78</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>82</v>
+      </c>
+      <c r="AW83" t="n">
         <v>82</v>
       </c>
     </row>
@@ -17100,6 +17604,12 @@
         <v>0.0088353413654618</v>
       </c>
       <c r="AU84" t="n">
+        <v>78</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>82</v>
+      </c>
+      <c r="AW84" t="n">
         <v>83</v>
       </c>
     </row>
@@ -17283,6 +17793,12 @@
         <v>0.008593750000000001</v>
       </c>
       <c r="AU85" t="n">
+        <v>80</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>84</v>
+      </c>
+      <c r="AW85" t="n">
         <v>84</v>
       </c>
     </row>
@@ -17484,6 +18000,12 @@
         <v>0.008</v>
       </c>
       <c r="AU86" t="n">
+        <v>81</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>85</v>
+      </c>
+      <c r="AW86" t="n">
         <v>85</v>
       </c>
     </row>
@@ -17687,6 +18209,12 @@
         <v>0.008</v>
       </c>
       <c r="AU87" t="n">
+        <v>81</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>85</v>
+      </c>
+      <c r="AW87" t="n">
         <v>86</v>
       </c>
     </row>
@@ -17878,6 +18406,12 @@
         <v>0.0071942446043165</v>
       </c>
       <c r="AU88" t="n">
+        <v>84</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>87</v>
+      </c>
+      <c r="AW88" t="n">
         <v>87</v>
       </c>
     </row>
@@ -18057,6 +18591,12 @@
         <v>0.0066390041493775</v>
       </c>
       <c r="AU89" t="n">
+        <v>85</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>88</v>
+      </c>
+      <c r="AW89" t="n">
         <v>88</v>
       </c>
     </row>
@@ -18264,6 +18804,12 @@
         <v>0.0065843621399176</v>
       </c>
       <c r="AU90" t="n">
+        <v>86</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>89</v>
+      </c>
+      <c r="AW90" t="n">
         <v>89</v>
       </c>
     </row>
@@ -18443,6 +18989,12 @@
         <v>0.0062015503875969</v>
       </c>
       <c r="AU91" t="n">
+        <v>87</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW91" t="n">
         <v>90</v>
       </c>
     </row>
@@ -18634,6 +19186,12 @@
         <v>0.005857740585774</v>
       </c>
       <c r="AU92" t="n">
+        <v>88</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>91</v>
+      </c>
+      <c r="AW92" t="n">
         <v>91</v>
       </c>
     </row>
@@ -18825,6 +19383,12 @@
         <v>0.0048275862068965</v>
       </c>
       <c r="AU93" t="n">
+        <v>90</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>92</v>
+      </c>
+      <c r="AW93" t="n">
         <v>92</v>
       </c>
     </row>
@@ -19028,6 +19592,12 @@
         <v>0.0042918454935622</v>
       </c>
       <c r="AU94" t="n">
+        <v>91</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>93</v>
+      </c>
+      <c r="AW94" t="n">
         <v>93</v>
       </c>
     </row>
@@ -19225,6 +19795,12 @@
       <c r="AU95" t="n">
         <v>94</v>
       </c>
+      <c r="AV95" t="n">
+        <v>94</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -19408,6 +19984,12 @@
       <c r="AU96" t="n">
         <v>95</v>
       </c>
+      <c r="AV96" t="n">
+        <v>95</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -19599,6 +20181,12 @@
       <c r="AU97" t="n">
         <v>96</v>
       </c>
+      <c r="AV97" t="n">
+        <v>96</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -19776,6 +20364,12 @@
       <c r="AU98" t="n">
         <v>97</v>
       </c>
+      <c r="AV98" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -19971,6 +20565,12 @@
         <v>0</v>
       </c>
       <c r="AU99" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW99" t="n">
         <v>98</v>
       </c>
     </row>
@@ -20174,6 +20774,12 @@
         <v>0</v>
       </c>
       <c r="AU100" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW100" t="n">
         <v>99</v>
       </c>
     </row>
@@ -20363,6 +20969,12 @@
         <v>0</v>
       </c>
       <c r="AU101" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW101" t="n">
         <v>100</v>
       </c>
     </row>
@@ -20546,6 +21158,12 @@
         <v>0</v>
       </c>
       <c r="AU102" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW102" t="n">
         <v>101</v>
       </c>
     </row>
@@ -20729,6 +21347,12 @@
         <v>0</v>
       </c>
       <c r="AU103" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW103" t="n">
         <v>102</v>
       </c>
     </row>
@@ -20922,6 +21546,12 @@
         <v>0</v>
       </c>
       <c r="AU104" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW104" t="n">
         <v>103</v>
       </c>
     </row>
@@ -21103,6 +21733,12 @@
         <v>0</v>
       </c>
       <c r="AU105" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW105" t="n">
         <v>104</v>
       </c>
     </row>
@@ -21290,6 +21926,12 @@
         <v>0</v>
       </c>
       <c r="AU106" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW106" t="n">
         <v>105</v>
       </c>
     </row>
@@ -21477,6 +22119,12 @@
         <v>0</v>
       </c>
       <c r="AU107" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW107" t="n">
         <v>106</v>
       </c>
     </row>
@@ -21660,6 +22308,12 @@
         <v>0</v>
       </c>
       <c r="AU108" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW108" t="n">
         <v>107</v>
       </c>
     </row>
@@ -21851,6 +22505,12 @@
         <v>0</v>
       </c>
       <c r="AU109" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW109" t="n">
         <v>108</v>
       </c>
     </row>
@@ -22026,6 +22686,12 @@
         <v>0</v>
       </c>
       <c r="AU110" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW110" t="n">
         <v>109</v>
       </c>
     </row>
@@ -22213,6 +22879,12 @@
         <v>0</v>
       </c>
       <c r="AU111" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW111" t="n">
         <v>110</v>
       </c>
     </row>
@@ -22408,6 +23080,12 @@
         <v>0</v>
       </c>
       <c r="AU112" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW112" t="n">
         <v>111</v>
       </c>
     </row>
@@ -22593,6 +23271,12 @@
         <v>0</v>
       </c>
       <c r="AU113" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW113" t="n">
         <v>112</v>
       </c>
     </row>
@@ -22798,6 +23482,12 @@
         <v>0</v>
       </c>
       <c r="AU114" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW114" t="n">
         <v>113</v>
       </c>
     </row>
@@ -22977,6 +23667,12 @@
         <v>0</v>
       </c>
       <c r="AU115" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW115" t="n">
         <v>114</v>
       </c>
     </row>
@@ -23156,6 +23852,12 @@
         <v>0</v>
       </c>
       <c r="AU116" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW116" t="n">
         <v>115</v>
       </c>
     </row>
@@ -23325,6 +24027,12 @@
         <v>0</v>
       </c>
       <c r="AU117" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW117" t="n">
         <v>116</v>
       </c>
     </row>
@@ -23502,6 +24210,12 @@
         <v>0</v>
       </c>
       <c r="AU118" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW118" t="n">
         <v>117</v>
       </c>
     </row>
@@ -23695,6 +24409,12 @@
         <v>0</v>
       </c>
       <c r="AU119" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW119" t="n">
         <v>118</v>
       </c>
     </row>
@@ -23882,6 +24602,12 @@
         <v>0</v>
       </c>
       <c r="AU120" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW120" t="n">
         <v>119</v>
       </c>
     </row>
@@ -24067,6 +24793,12 @@
         <v>0</v>
       </c>
       <c r="AU121" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW121" t="n">
         <v>120</v>
       </c>
     </row>
@@ -24252,6 +24984,12 @@
         <v>0</v>
       </c>
       <c r="AU122" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW122" t="n">
         <v>121</v>
       </c>
     </row>
@@ -24443,6 +25181,12 @@
         <v>0</v>
       </c>
       <c r="AU123" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW123" t="n">
         <v>122</v>
       </c>
     </row>
@@ -24628,6 +25372,12 @@
         <v>0</v>
       </c>
       <c r="AU124" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW124" t="n">
         <v>123</v>
       </c>
     </row>
@@ -24799,6 +25549,12 @@
         <v>0</v>
       </c>
       <c r="AU125" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW125" t="n">
         <v>124</v>
       </c>
     </row>
@@ -24980,6 +25736,12 @@
         <v>0</v>
       </c>
       <c r="AU126" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW126" t="n">
         <v>125</v>
       </c>
     </row>
@@ -25159,6 +25921,12 @@
         <v>0</v>
       </c>
       <c r="AU127" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW127" t="n">
         <v>126</v>
       </c>
     </row>
@@ -25340,6 +26108,12 @@
         <v>0</v>
       </c>
       <c r="AU128" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW128" t="n">
         <v>127</v>
       </c>
     </row>
@@ -25521,6 +26295,12 @@
         <v>0</v>
       </c>
       <c r="AU129" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW129" t="n">
         <v>128</v>
       </c>
     </row>
@@ -25706,6 +26486,12 @@
         <v>0</v>
       </c>
       <c r="AU130" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW130" t="n">
         <v>129</v>
       </c>
     </row>
@@ -25887,6 +26673,12 @@
         <v>0</v>
       </c>
       <c r="AU131" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW131" t="n">
         <v>130</v>
       </c>
     </row>
@@ -26068,6 +26860,12 @@
         <v>0</v>
       </c>
       <c r="AU132" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW132" t="n">
         <v>131</v>
       </c>
     </row>
@@ -26237,6 +27035,12 @@
         <v>0</v>
       </c>
       <c r="AU133" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW133" t="n">
         <v>132</v>
       </c>
     </row>
@@ -26428,6 +27232,12 @@
         <v>0</v>
       </c>
       <c r="AU134" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW134" t="n">
         <v>133</v>
       </c>
     </row>
@@ -26599,6 +27409,12 @@
         <v>0</v>
       </c>
       <c r="AU135" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW135" t="n">
         <v>134</v>
       </c>
     </row>
@@ -26780,6 +27596,12 @@
         <v>0</v>
       </c>
       <c r="AU136" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW136" t="n">
         <v>135</v>
       </c>
     </row>
@@ -26971,6 +27793,12 @@
         <v>0</v>
       </c>
       <c r="AU137" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW137" t="n">
         <v>136</v>
       </c>
     </row>
@@ -27154,6 +27982,12 @@
         <v>0</v>
       </c>
       <c r="AU138" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW138" t="n">
         <v>137</v>
       </c>
     </row>
@@ -27319,6 +28153,12 @@
         <v>0</v>
       </c>
       <c r="AU139" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW139" t="n">
         <v>138</v>
       </c>
     </row>
@@ -27510,6 +28350,12 @@
         <v>0</v>
       </c>
       <c r="AU140" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW140" t="n">
         <v>139</v>
       </c>
     </row>
@@ -27695,6 +28541,12 @@
         <v>0</v>
       </c>
       <c r="AU141" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW141" t="n">
         <v>140</v>
       </c>
     </row>
@@ -27880,6 +28732,12 @@
         <v>0</v>
       </c>
       <c r="AU142" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW142" t="n">
         <v>141</v>
       </c>
     </row>
@@ -28065,6 +28923,12 @@
         <v>0</v>
       </c>
       <c r="AU143" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW143" t="n">
         <v>142</v>
       </c>
     </row>
@@ -28256,6 +29120,12 @@
         <v>0</v>
       </c>
       <c r="AU144" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW144" t="n">
         <v>143</v>
       </c>
     </row>
@@ -28441,6 +29311,12 @@
         <v>0</v>
       </c>
       <c r="AU145" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW145" t="n">
         <v>144</v>
       </c>
     </row>
@@ -28632,6 +29508,12 @@
         <v>0</v>
       </c>
       <c r="AU146" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW146" t="n">
         <v>145</v>
       </c>
     </row>
@@ -28803,6 +29685,12 @@
         <v>0</v>
       </c>
       <c r="AU147" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW147" t="n">
         <v>146</v>
       </c>
     </row>
@@ -28992,6 +29880,12 @@
         <v>0</v>
       </c>
       <c r="AU148" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW148" t="n">
         <v>147</v>
       </c>
     </row>
@@ -29183,6 +30077,12 @@
         <v>0</v>
       </c>
       <c r="AU149" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW149" t="n">
         <v>148</v>
       </c>
     </row>
@@ -29374,6 +30274,12 @@
         <v>0</v>
       </c>
       <c r="AU150" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW150" t="n">
         <v>149</v>
       </c>
     </row>
@@ -29565,6 +30471,12 @@
         <v>0</v>
       </c>
       <c r="AU151" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW151" t="n">
         <v>150</v>
       </c>
     </row>
@@ -29756,6 +30668,12 @@
         <v>0</v>
       </c>
       <c r="AU152" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW152" t="n">
         <v>151</v>
       </c>
     </row>
@@ -29945,6 +30863,12 @@
         <v>0</v>
       </c>
       <c r="AU153" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW153" t="n">
         <v>152</v>
       </c>
     </row>
@@ -30134,6 +31058,12 @@
         <v>0</v>
       </c>
       <c r="AU154" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW154" t="n">
         <v>153</v>
       </c>
     </row>
@@ -30325,6 +31255,12 @@
         <v>0</v>
       </c>
       <c r="AU155" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW155" t="n">
         <v>154</v>
       </c>
     </row>
@@ -30514,6 +31450,12 @@
         <v>0</v>
       </c>
       <c r="AU156" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW156" t="n">
         <v>155</v>
       </c>
     </row>
@@ -30705,6 +31647,12 @@
         <v>0</v>
       </c>
       <c r="AU157" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW157" t="n">
         <v>156</v>
       </c>
     </row>
@@ -30896,6 +31844,12 @@
         <v>0</v>
       </c>
       <c r="AU158" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW158" t="n">
         <v>157</v>
       </c>
     </row>
@@ -31087,6 +32041,12 @@
         <v>0</v>
       </c>
       <c r="AU159" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW159" t="n">
         <v>158</v>
       </c>
     </row>
@@ -31276,6 +32236,12 @@
         <v>0</v>
       </c>
       <c r="AU160" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW160" t="n">
         <v>159</v>
       </c>
     </row>
@@ -31467,6 +32433,12 @@
         <v>0</v>
       </c>
       <c r="AU161" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW161" t="n">
         <v>160</v>
       </c>
     </row>
@@ -31658,6 +32630,12 @@
         <v>0</v>
       </c>
       <c r="AU162" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW162" t="n">
         <v>161</v>
       </c>
     </row>
@@ -31849,6 +32827,12 @@
         <v>0</v>
       </c>
       <c r="AU163" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW163" t="n">
         <v>162</v>
       </c>
     </row>
@@ -32040,6 +33024,12 @@
         <v>0</v>
       </c>
       <c r="AU164" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW164" t="n">
         <v>163</v>
       </c>
     </row>
@@ -32229,6 +33219,12 @@
         <v>0</v>
       </c>
       <c r="AU165" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW165" t="n">
         <v>164</v>
       </c>
     </row>
@@ -32420,6 +33416,12 @@
         <v>0</v>
       </c>
       <c r="AU166" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW166" t="n">
         <v>165</v>
       </c>
     </row>
@@ -32611,6 +33613,12 @@
         <v>0</v>
       </c>
       <c r="AU167" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW167" t="n">
         <v>166</v>
       </c>
     </row>
@@ -32802,6 +33810,12 @@
         <v>0</v>
       </c>
       <c r="AU168" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW168" t="n">
         <v>167</v>
       </c>
     </row>
@@ -32993,6 +34007,12 @@
         <v>0</v>
       </c>
       <c r="AU169" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW169" t="n">
         <v>168</v>
       </c>
     </row>
@@ -33188,6 +34208,12 @@
         <v>0</v>
       </c>
       <c r="AU170" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW170" t="n">
         <v>169</v>
       </c>
     </row>
@@ -33377,6 +34403,12 @@
         <v>0</v>
       </c>
       <c r="AU171" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW171" t="n">
         <v>170</v>
       </c>
     </row>
@@ -33570,6 +34602,12 @@
         <v>0</v>
       </c>
       <c r="AU172" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW172" t="n">
         <v>171</v>
       </c>
     </row>
@@ -33763,6 +34801,12 @@
         <v>0</v>
       </c>
       <c r="AU173" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW173" t="n">
         <v>172</v>
       </c>
     </row>
@@ -33958,6 +35002,12 @@
         <v>0</v>
       </c>
       <c r="AU174" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW174" t="n">
         <v>173</v>
       </c>
     </row>
@@ -34151,6 +35201,12 @@
         <v>0</v>
       </c>
       <c r="AU175" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW175" t="n">
         <v>174</v>
       </c>
     </row>
@@ -34344,6 +35400,12 @@
         <v>0</v>
       </c>
       <c r="AU176" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW176" t="n">
         <v>175</v>
       </c>
     </row>
@@ -34537,6 +35599,12 @@
         <v>0</v>
       </c>
       <c r="AU177" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW177" t="n">
         <v>176</v>
       </c>
     </row>
@@ -34730,6 +35798,12 @@
         <v>0</v>
       </c>
       <c r="AU178" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW178" t="n">
         <v>177</v>
       </c>
     </row>
@@ -34923,6 +35997,12 @@
         <v>0</v>
       </c>
       <c r="AU179" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW179" t="n">
         <v>178</v>
       </c>
     </row>
@@ -35120,6 +36200,12 @@
         <v>0</v>
       </c>
       <c r="AU180" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW180" t="n">
         <v>179</v>
       </c>
     </row>
@@ -35315,6 +36401,12 @@
         <v>0</v>
       </c>
       <c r="AU181" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW181" t="n">
         <v>180</v>
       </c>
     </row>
@@ -35508,6 +36600,12 @@
         <v>0</v>
       </c>
       <c r="AU182" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW182" t="n">
         <v>181</v>
       </c>
     </row>
@@ -35701,6 +36799,12 @@
         <v>0</v>
       </c>
       <c r="AU183" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW183" t="n">
         <v>182</v>
       </c>
     </row>
@@ -35890,6 +36994,12 @@
         <v>0</v>
       </c>
       <c r="AU184" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW184" t="n">
         <v>183</v>
       </c>
     </row>
@@ -36083,6 +37193,12 @@
         <v>0</v>
       </c>
       <c r="AU185" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW185" t="n">
         <v>184</v>
       </c>
     </row>
@@ -36278,6 +37394,12 @@
         <v>0</v>
       </c>
       <c r="AU186" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW186" t="n">
         <v>185</v>
       </c>
     </row>
@@ -36471,6 +37593,12 @@
         <v>0</v>
       </c>
       <c r="AU187" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW187" t="n">
         <v>186</v>
       </c>
     </row>
@@ -36668,6 +37796,12 @@
         <v>0</v>
       </c>
       <c r="AU188" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW188" t="n">
         <v>187</v>
       </c>
     </row>
@@ -36861,6 +37995,12 @@
         <v>0</v>
       </c>
       <c r="AU189" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW189" t="n">
         <v>188</v>
       </c>
     </row>
@@ -37054,6 +38194,12 @@
         <v>0</v>
       </c>
       <c r="AU190" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW190" t="n">
         <v>189</v>
       </c>
     </row>
@@ -37247,6 +38393,12 @@
         <v>0</v>
       </c>
       <c r="AU191" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW191" t="n">
         <v>190</v>
       </c>
     </row>
@@ -37440,6 +38592,12 @@
         <v>0</v>
       </c>
       <c r="AU192" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW192" t="n">
         <v>191</v>
       </c>
     </row>
@@ -37633,6 +38791,12 @@
         <v>0</v>
       </c>
       <c r="AU193" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW193" t="n">
         <v>192</v>
       </c>
     </row>
@@ -37826,6 +38990,12 @@
         <v>0</v>
       </c>
       <c r="AU194" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW194" t="n">
         <v>193</v>
       </c>
     </row>
@@ -38027,6 +39197,12 @@
         <v>0</v>
       </c>
       <c r="AU195" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW195" t="n">
         <v>194</v>
       </c>
     </row>
@@ -38222,6 +39398,12 @@
         <v>0</v>
       </c>
       <c r="AU196" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW196" t="n">
         <v>195</v>
       </c>
     </row>
@@ -38415,6 +39597,12 @@
         <v>0</v>
       </c>
       <c r="AU197" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW197" t="n">
         <v>196</v>
       </c>
     </row>
@@ -38608,6 +39796,12 @@
         <v>0</v>
       </c>
       <c r="AU198" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW198" t="n">
         <v>197</v>
       </c>
     </row>
@@ -38803,6 +39997,12 @@
         <v>0</v>
       </c>
       <c r="AU199" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW199" t="n">
         <v>198</v>
       </c>
     </row>
@@ -38996,6 +40196,12 @@
         <v>0</v>
       </c>
       <c r="AU200" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW200" t="n">
         <v>199</v>
       </c>
     </row>
@@ -39185,6 +40391,12 @@
         <v>0</v>
       </c>
       <c r="AU201" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW201" t="n">
         <v>200</v>
       </c>
     </row>
@@ -39392,6 +40604,12 @@
         <v>0</v>
       </c>
       <c r="AU202" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW202" t="n">
         <v>201</v>
       </c>
     </row>
@@ -39587,6 +40805,12 @@
         <v>0</v>
       </c>
       <c r="AU203" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW203" t="n">
         <v>202</v>
       </c>
     </row>
@@ -39780,6 +41004,12 @@
         <v>0</v>
       </c>
       <c r="AU204" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW204" t="n">
         <v>203</v>
       </c>
     </row>
@@ -39973,6 +41203,12 @@
         <v>0</v>
       </c>
       <c r="AU205" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW205" t="n">
         <v>204</v>
       </c>
     </row>
@@ -40166,6 +41402,12 @@
         <v>0</v>
       </c>
       <c r="AU206" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW206" t="n">
         <v>205</v>
       </c>
     </row>
@@ -40359,6 +41601,12 @@
         <v>0</v>
       </c>
       <c r="AU207" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW207" t="n">
         <v>206</v>
       </c>
     </row>
@@ -40568,6 +41816,12 @@
         <v>0</v>
       </c>
       <c r="AU208" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW208" t="n">
         <v>207</v>
       </c>
     </row>
@@ -40763,6 +42017,12 @@
         <v>0</v>
       </c>
       <c r="AU209" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW209" t="n">
         <v>208</v>
       </c>
     </row>
@@ -40956,6 +42216,12 @@
         <v>0</v>
       </c>
       <c r="AU210" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW210" t="n">
         <v>209</v>
       </c>
     </row>
@@ -41149,6 +42415,12 @@
         <v>0</v>
       </c>
       <c r="AU211" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW211" t="n">
         <v>210</v>
       </c>
     </row>
@@ -41342,6 +42614,12 @@
         <v>0</v>
       </c>
       <c r="AU212" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW212" t="n">
         <v>211</v>
       </c>
     </row>
@@ -41535,6 +42813,12 @@
         <v>0</v>
       </c>
       <c r="AU213" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW213" t="n">
         <v>212</v>
       </c>
     </row>
@@ -41728,6 +43012,12 @@
         <v>0</v>
       </c>
       <c r="AU214" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW214" t="n">
         <v>213</v>
       </c>
     </row>
@@ -41921,6 +43211,12 @@
         <v>0</v>
       </c>
       <c r="AU215" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW215" t="n">
         <v>214</v>
       </c>
     </row>
@@ -42122,6 +43418,12 @@
         <v>0</v>
       </c>
       <c r="AU216" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW216" t="n">
         <v>215</v>
       </c>
     </row>
@@ -42319,6 +43621,12 @@
         <v>0</v>
       </c>
       <c r="AU217" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW217" t="n">
         <v>216</v>
       </c>
     </row>
@@ -42512,6 +43820,12 @@
         <v>0</v>
       </c>
       <c r="AU218" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW218" t="n">
         <v>217</v>
       </c>
     </row>
@@ -42707,6 +44021,12 @@
         <v>0</v>
       </c>
       <c r="AU219" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW219" t="n">
         <v>218</v>
       </c>
     </row>
@@ -42900,6 +44220,12 @@
         <v>0</v>
       </c>
       <c r="AU220" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW220" t="n">
         <v>219</v>
       </c>
     </row>
@@ -43093,6 +44419,12 @@
         <v>0</v>
       </c>
       <c r="AU221" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW221" t="n">
         <v>220</v>
       </c>
     </row>
@@ -43290,6 +44622,12 @@
         <v>0</v>
       </c>
       <c r="AU222" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW222" t="n">
         <v>221</v>
       </c>
     </row>
@@ -43483,6 +44821,12 @@
         <v>0</v>
       </c>
       <c r="AU223" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW223" t="n">
         <v>222</v>
       </c>
     </row>
@@ -43680,6 +45024,12 @@
         <v>0</v>
       </c>
       <c r="AU224" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW224" t="n">
         <v>223</v>
       </c>
     </row>
@@ -43873,6 +45223,12 @@
         <v>0</v>
       </c>
       <c r="AU225" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW225" t="n">
         <v>224</v>
       </c>
     </row>
@@ -44066,6 +45422,12 @@
         <v>0</v>
       </c>
       <c r="AU226" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW226" t="n">
         <v>225</v>
       </c>
     </row>
@@ -44261,6 +45623,12 @@
         <v>0</v>
       </c>
       <c r="AU227" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW227" t="n">
         <v>226</v>
       </c>
     </row>
@@ -44452,6 +45820,12 @@
         <v>0</v>
       </c>
       <c r="AU228" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW228" t="n">
         <v>227</v>
       </c>
     </row>
@@ -44643,6 +46017,12 @@
         <v>0</v>
       </c>
       <c r="AU229" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW229" t="n">
         <v>228</v>
       </c>
     </row>
@@ -44836,6 +46216,12 @@
         <v>0</v>
       </c>
       <c r="AU230" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW230" t="n">
         <v>229</v>
       </c>
     </row>
@@ -45033,6 +46419,12 @@
         <v>0</v>
       </c>
       <c r="AU231" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW231" t="n">
         <v>230</v>
       </c>
     </row>
@@ -45232,6 +46624,12 @@
         <v>0</v>
       </c>
       <c r="AU232" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW232" t="n">
         <v>231</v>
       </c>
     </row>
@@ -45425,6 +46823,12 @@
         <v>0</v>
       </c>
       <c r="AU233" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW233" t="n">
         <v>232</v>
       </c>
     </row>
@@ -45620,6 +47024,12 @@
         <v>0</v>
       </c>
       <c r="AU234" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW234" t="n">
         <v>233</v>
       </c>
     </row>
@@ -45813,6 +47223,12 @@
         <v>0</v>
       </c>
       <c r="AU235" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW235" t="n">
         <v>234</v>
       </c>
     </row>
@@ -46008,6 +47424,12 @@
         <v>0</v>
       </c>
       <c r="AU236" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW236" t="n">
         <v>235</v>
       </c>
     </row>
@@ -46201,6 +47623,12 @@
         <v>0</v>
       </c>
       <c r="AU237" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW237" t="n">
         <v>236</v>
       </c>
     </row>
@@ -46394,6 +47822,12 @@
         <v>0</v>
       </c>
       <c r="AU238" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW238" t="n">
         <v>237</v>
       </c>
     </row>
@@ -46587,6 +48021,12 @@
         <v>0</v>
       </c>
       <c r="AU239" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW239" t="n">
         <v>238</v>
       </c>
     </row>
@@ -46780,6 +48220,12 @@
         <v>0</v>
       </c>
       <c r="AU240" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW240" t="n">
         <v>239</v>
       </c>
     </row>
@@ -46975,6 +48421,12 @@
         <v>0</v>
       </c>
       <c r="AU241" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW241" t="n">
         <v>240</v>
       </c>
     </row>
@@ -47172,6 +48624,12 @@
         <v>0</v>
       </c>
       <c r="AU242" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW242" t="n">
         <v>241</v>
       </c>
     </row>
@@ -47365,6 +48823,12 @@
         <v>0</v>
       </c>
       <c r="AU243" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW243" t="n">
         <v>242</v>
       </c>
     </row>
@@ -47560,6 +49024,12 @@
         <v>0</v>
       </c>
       <c r="AU244" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW244" t="n">
         <v>243</v>
       </c>
     </row>
@@ -47753,6 +49223,12 @@
         <v>0</v>
       </c>
       <c r="AU245" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW245" t="n">
         <v>244</v>
       </c>
     </row>
@@ -47950,6 +49426,12 @@
         <v>0</v>
       </c>
       <c r="AU246" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW246" t="n">
         <v>245</v>
       </c>
     </row>
@@ -48143,6 +49625,12 @@
         <v>0</v>
       </c>
       <c r="AU247" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW247" t="n">
         <v>246</v>
       </c>
     </row>
@@ -48338,6 +49826,12 @@
         <v>0</v>
       </c>
       <c r="AU248" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW248" t="n">
         <v>247</v>
       </c>
     </row>
@@ -48531,6 +50025,12 @@
         <v>0</v>
       </c>
       <c r="AU249" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW249" t="n">
         <v>248</v>
       </c>
     </row>
@@ -48724,6 +50224,12 @@
         <v>0</v>
       </c>
       <c r="AU250" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW250" t="n">
         <v>249</v>
       </c>
     </row>
@@ -48933,6 +50439,12 @@
         <v>0</v>
       </c>
       <c r="AU251" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW251" t="n">
         <v>250</v>
       </c>
     </row>
@@ -49132,6 +50644,12 @@
         <v>0</v>
       </c>
       <c r="AU252" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW252" t="n">
         <v>251</v>
       </c>
     </row>
@@ -49323,6 +50841,12 @@
         <v>0</v>
       </c>
       <c r="AU253" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW253" t="n">
         <v>252</v>
       </c>
     </row>
@@ -49512,6 +51036,12 @@
         <v>0</v>
       </c>
       <c r="AU254" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW254" t="n">
         <v>253</v>
       </c>
     </row>
@@ -49699,6 +51229,12 @@
         <v>0</v>
       </c>
       <c r="AU255" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW255" t="n">
         <v>254</v>
       </c>
     </row>
@@ -49892,6 +51428,12 @@
         <v>0</v>
       </c>
       <c r="AU256" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW256" t="n">
         <v>255</v>
       </c>
     </row>
@@ -50085,6 +51627,12 @@
         <v>0</v>
       </c>
       <c r="AU257" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW257" t="n">
         <v>256</v>
       </c>
     </row>
@@ -50278,6 +51826,12 @@
         <v>0</v>
       </c>
       <c r="AU258" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW258" t="n">
         <v>257</v>
       </c>
     </row>
@@ -50471,6 +52025,12 @@
         <v>0</v>
       </c>
       <c r="AU259" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW259" t="n">
         <v>258</v>
       </c>
     </row>
@@ -50668,6 +52228,12 @@
         <v>0</v>
       </c>
       <c r="AU260" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW260" t="n">
         <v>259</v>
       </c>
     </row>
@@ -50855,6 +52421,12 @@
         <v>0</v>
       </c>
       <c r="AU261" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW261" t="n">
         <v>260</v>
       </c>
     </row>
@@ -51046,6 +52618,12 @@
         <v>0</v>
       </c>
       <c r="AU262" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW262" t="n">
         <v>261</v>
       </c>
     </row>
@@ -51239,6 +52817,12 @@
         <v>0</v>
       </c>
       <c r="AU263" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW263" t="n">
         <v>262</v>
       </c>
     </row>
@@ -51432,6 +53016,12 @@
         <v>0</v>
       </c>
       <c r="AU264" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW264" t="n">
         <v>263</v>
       </c>
     </row>
@@ -51625,6 +53215,12 @@
         <v>0</v>
       </c>
       <c r="AU265" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW265" t="n">
         <v>264</v>
       </c>
     </row>
@@ -51818,6 +53414,12 @@
         <v>0</v>
       </c>
       <c r="AU266" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW266" t="n">
         <v>265</v>
       </c>
     </row>
@@ -52007,6 +53609,12 @@
         <v>0</v>
       </c>
       <c r="AU267" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW267" t="n">
         <v>266</v>
       </c>
     </row>
@@ -52200,6 +53808,12 @@
         <v>0</v>
       </c>
       <c r="AU268" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW268" t="n">
         <v>267</v>
       </c>
     </row>
@@ -52393,6 +54007,12 @@
         <v>0</v>
       </c>
       <c r="AU269" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV269" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW269" t="n">
         <v>268</v>
       </c>
     </row>
@@ -52586,6 +54206,12 @@
         <v>0</v>
       </c>
       <c r="AU270" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW270" t="n">
         <v>269</v>
       </c>
     </row>
@@ -52789,6 +54415,12 @@
         <v>0</v>
       </c>
       <c r="AU271" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW271" t="n">
         <v>270</v>
       </c>
     </row>
@@ -52982,6 +54614,12 @@
         <v>0</v>
       </c>
       <c r="AU272" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW272" t="n">
         <v>271</v>
       </c>
     </row>
@@ -53173,6 +54811,12 @@
         <v>0</v>
       </c>
       <c r="AU273" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW273" t="n">
         <v>272</v>
       </c>
     </row>
@@ -53366,6 +55010,12 @@
         <v>0</v>
       </c>
       <c r="AU274" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW274" t="n">
         <v>273</v>
       </c>
     </row>
@@ -53559,6 +55209,12 @@
         <v>0</v>
       </c>
       <c r="AU275" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW275" t="n">
         <v>274</v>
       </c>
     </row>
@@ -53752,6 +55408,12 @@
         <v>0</v>
       </c>
       <c r="AU276" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW276" t="n">
         <v>275</v>
       </c>
     </row>
@@ -53949,6 +55611,12 @@
         <v>0</v>
       </c>
       <c r="AU277" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW277" t="n">
         <v>276</v>
       </c>
     </row>
@@ -54142,6 +55810,12 @@
         <v>0</v>
       </c>
       <c r="AU278" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW278" t="n">
         <v>277</v>
       </c>
     </row>
@@ -54337,6 +56011,12 @@
         <v>0</v>
       </c>
       <c r="AU279" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW279" t="n">
         <v>278</v>
       </c>
     </row>
@@ -54530,6 +56210,12 @@
         <v>0</v>
       </c>
       <c r="AU280" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW280" t="n">
         <v>279</v>
       </c>
     </row>
@@ -54719,6 +56405,12 @@
         <v>0</v>
       </c>
       <c r="AU281" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW281" t="n">
         <v>280</v>
       </c>
     </row>
@@ -54916,6 +56608,12 @@
         <v>0</v>
       </c>
       <c r="AU282" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV282" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW282" t="n">
         <v>281</v>
       </c>
     </row>
@@ -55109,6 +56807,12 @@
         <v>0</v>
       </c>
       <c r="AU283" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW283" t="n">
         <v>282</v>
       </c>
     </row>
@@ -55302,6 +57006,12 @@
         <v>0</v>
       </c>
       <c r="AU284" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW284" t="n">
         <v>283</v>
       </c>
     </row>
@@ -55501,6 +57211,12 @@
         <v>0</v>
       </c>
       <c r="AU285" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW285" t="n">
         <v>284</v>
       </c>
     </row>
@@ -55694,6 +57410,12 @@
         <v>0</v>
       </c>
       <c r="AU286" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW286" t="n">
         <v>285</v>
       </c>
     </row>
@@ -55887,6 +57609,12 @@
         <v>0</v>
       </c>
       <c r="AU287" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW287" t="n">
         <v>286</v>
       </c>
     </row>
@@ -56090,6 +57818,12 @@
         <v>0</v>
       </c>
       <c r="AU288" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV288" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW288" t="n">
         <v>287</v>
       </c>
     </row>
@@ -56281,6 +58015,12 @@
         <v>0</v>
       </c>
       <c r="AU289" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV289" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW289" t="n">
         <v>288</v>
       </c>
     </row>
@@ -56474,6 +58214,12 @@
         <v>0</v>
       </c>
       <c r="AU290" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV290" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW290" t="n">
         <v>289</v>
       </c>
     </row>
@@ -56669,6 +58415,12 @@
         <v>0</v>
       </c>
       <c r="AU291" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW291" t="n">
         <v>290</v>
       </c>
     </row>
@@ -56862,6 +58614,12 @@
         <v>0</v>
       </c>
       <c r="AU292" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV292" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW292" t="n">
         <v>291</v>
       </c>
     </row>
@@ -57057,6 +58815,12 @@
         <v>0</v>
       </c>
       <c r="AU293" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV293" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW293" t="n">
         <v>292</v>
       </c>
     </row>
@@ -57250,6 +59014,12 @@
         <v>0</v>
       </c>
       <c r="AU294" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW294" t="n">
         <v>293</v>
       </c>
     </row>
@@ -57441,6 +59211,12 @@
         <v>0</v>
       </c>
       <c r="AU295" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV295" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW295" t="n">
         <v>294</v>
       </c>
     </row>
@@ -57636,6 +59412,12 @@
         <v>0</v>
       </c>
       <c r="AU296" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW296" t="n">
         <v>295</v>
       </c>
     </row>
@@ -57829,6 +59611,12 @@
         <v>0</v>
       </c>
       <c r="AU297" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW297" t="n">
         <v>296</v>
       </c>
     </row>
@@ -58022,6 +59810,12 @@
         <v>0</v>
       </c>
       <c r="AU298" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV298" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW298" t="n">
         <v>297</v>
       </c>
     </row>
@@ -58215,6 +60009,12 @@
         <v>0</v>
       </c>
       <c r="AU299" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV299" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW299" t="n">
         <v>298</v>
       </c>
     </row>
@@ -58408,6 +60208,12 @@
         <v>0</v>
       </c>
       <c r="AU300" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV300" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW300" t="n">
         <v>299</v>
       </c>
     </row>
@@ -58607,6 +60413,12 @@
         <v>0</v>
       </c>
       <c r="AU301" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV301" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW301" t="n">
         <v>300</v>
       </c>
     </row>
@@ -58798,6 +60610,12 @@
         <v>0</v>
       </c>
       <c r="AU302" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV302" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW302" t="n">
         <v>301</v>
       </c>
     </row>
@@ -58993,6 +60811,12 @@
         <v>0</v>
       </c>
       <c r="AU303" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV303" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW303" t="n">
         <v>302</v>
       </c>
     </row>
@@ -59190,6 +61014,12 @@
         <v>0</v>
       </c>
       <c r="AU304" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV304" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW304" t="n">
         <v>303</v>
       </c>
     </row>
@@ -59383,6 +61213,12 @@
         <v>0</v>
       </c>
       <c r="AU305" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV305" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW305" t="n">
         <v>304</v>
       </c>
     </row>
@@ -59578,6 +61414,12 @@
         <v>0</v>
       </c>
       <c r="AU306" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV306" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW306" t="n">
         <v>305</v>
       </c>
     </row>
@@ -59771,6 +61613,12 @@
         <v>0</v>
       </c>
       <c r="AU307" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV307" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW307" t="n">
         <v>306</v>
       </c>
     </row>
@@ -59964,6 +61812,12 @@
         <v>0</v>
       </c>
       <c r="AU308" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV308" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW308" t="n">
         <v>307</v>
       </c>
     </row>
@@ -60153,6 +62007,12 @@
         <v>0</v>
       </c>
       <c r="AU309" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV309" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW309" t="n">
         <v>308</v>
       </c>
     </row>
@@ -60348,6 +62208,12 @@
         <v>0</v>
       </c>
       <c r="AU310" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV310" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW310" t="n">
         <v>309</v>
       </c>
     </row>
@@ -60541,6 +62407,12 @@
         <v>0</v>
       </c>
       <c r="AU311" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV311" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW311" t="n">
         <v>310</v>
       </c>
     </row>
@@ -60736,6 +62608,12 @@
         <v>0</v>
       </c>
       <c r="AU312" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV312" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW312" t="n">
         <v>311</v>
       </c>
     </row>
@@ -60933,6 +62811,12 @@
         <v>0</v>
       </c>
       <c r="AU313" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV313" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW313" t="n">
         <v>312</v>
       </c>
     </row>
@@ -61126,6 +63010,12 @@
         <v>0</v>
       </c>
       <c r="AU314" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV314" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW314" t="n">
         <v>313</v>
       </c>
     </row>
@@ -61319,6 +63209,12 @@
         <v>0</v>
       </c>
       <c r="AU315" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV315" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW315" t="n">
         <v>314</v>
       </c>
     </row>
@@ -61514,6 +63410,12 @@
         <v>0</v>
       </c>
       <c r="AU316" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV316" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW316" t="n">
         <v>315</v>
       </c>
     </row>
@@ -61707,6 +63609,12 @@
         <v>0</v>
       </c>
       <c r="AU317" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV317" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW317" t="n">
         <v>316</v>
       </c>
     </row>
@@ -61900,6 +63808,12 @@
         <v>0</v>
       </c>
       <c r="AU318" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV318" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW318" t="n">
         <v>317</v>
       </c>
     </row>
@@ -62081,6 +63995,12 @@
         <v>0</v>
       </c>
       <c r="AU319" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV319" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW319" t="n">
         <v>318</v>
       </c>
     </row>
@@ -62260,6 +64180,12 @@
         <v>0</v>
       </c>
       <c r="AU320" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV320" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW320" t="n">
         <v>319</v>
       </c>
     </row>
@@ -62439,6 +64365,12 @@
         <v>0</v>
       </c>
       <c r="AU321" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV321" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW321" t="n">
         <v>320</v>
       </c>
     </row>
@@ -62618,6 +64550,12 @@
         <v>0</v>
       </c>
       <c r="AU322" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV322" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW322" t="n">
         <v>321</v>
       </c>
     </row>
@@ -62797,6 +64735,12 @@
         <v>0</v>
       </c>
       <c r="AU323" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV323" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW323" t="n">
         <v>322</v>
       </c>
     </row>
@@ -62976,6 +64920,12 @@
         <v>0</v>
       </c>
       <c r="AU324" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV324" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW324" t="n">
         <v>323</v>
       </c>
     </row>
@@ -63155,6 +65105,12 @@
         <v>0</v>
       </c>
       <c r="AU325" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV325" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW325" t="n">
         <v>324</v>
       </c>
     </row>
@@ -63334,6 +65290,12 @@
         <v>0</v>
       </c>
       <c r="AU326" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV326" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW326" t="n">
         <v>325</v>
       </c>
     </row>
@@ -63513,6 +65475,12 @@
         <v>0</v>
       </c>
       <c r="AU327" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV327" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW327" t="n">
         <v>326</v>
       </c>
     </row>
@@ -63692,6 +65660,12 @@
         <v>0</v>
       </c>
       <c r="AU328" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV328" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW328" t="n">
         <v>327</v>
       </c>
     </row>
@@ -63871,6 +65845,12 @@
         <v>0</v>
       </c>
       <c r="AU329" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV329" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW329" t="n">
         <v>328</v>
       </c>
     </row>
@@ -64050,6 +66030,12 @@
         <v>0</v>
       </c>
       <c r="AU330" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV330" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW330" t="n">
         <v>329</v>
       </c>
     </row>
@@ -64245,6 +66231,12 @@
         <v>0</v>
       </c>
       <c r="AU331" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV331" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW331" t="n">
         <v>330</v>
       </c>
     </row>
@@ -64428,6 +66420,12 @@
         <v>0</v>
       </c>
       <c r="AU332" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV332" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW332" t="n">
         <v>331</v>
       </c>
     </row>
@@ -64597,6 +66595,12 @@
         <v>0</v>
       </c>
       <c r="AU333" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV333" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW333" t="n">
         <v>332</v>
       </c>
     </row>
@@ -64768,6 +66772,12 @@
         <v>0</v>
       </c>
       <c r="AU334" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV334" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW334" t="n">
         <v>333</v>
       </c>
     </row>
@@ -64947,6 +66957,12 @@
         <v>0</v>
       </c>
       <c r="AU335" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV335" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW335" t="n">
         <v>334</v>
       </c>
     </row>
@@ -65124,6 +67140,12 @@
         <v>0</v>
       </c>
       <c r="AU336" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV336" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW336" t="n">
         <v>335</v>
       </c>
     </row>
@@ -65295,6 +67317,12 @@
         <v>0</v>
       </c>
       <c r="AU337" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV337" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW337" t="n">
         <v>336</v>
       </c>
     </row>
@@ -65466,6 +67494,12 @@
         <v>0</v>
       </c>
       <c r="AU338" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV338" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW338" t="n">
         <v>337</v>
       </c>
     </row>
@@ -65637,6 +67671,12 @@
         <v>0</v>
       </c>
       <c r="AU339" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV339" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW339" t="n">
         <v>338</v>
       </c>
     </row>
@@ -65808,6 +67848,12 @@
         <v>0</v>
       </c>
       <c r="AU340" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV340" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW340" t="n">
         <v>339</v>
       </c>
     </row>
@@ -65983,6 +68029,12 @@
         <v>0</v>
       </c>
       <c r="AU341" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV341" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW341" t="n">
         <v>340</v>
       </c>
     </row>
@@ -66154,6 +68206,12 @@
         <v>0</v>
       </c>
       <c r="AU342" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV342" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW342" t="n">
         <v>341</v>
       </c>
     </row>
@@ -66321,6 +68379,12 @@
         <v>0</v>
       </c>
       <c r="AU343" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV343" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW343" t="n">
         <v>342</v>
       </c>
     </row>
@@ -66486,6 +68550,12 @@
         <v>0</v>
       </c>
       <c r="AU344" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV344" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW344" t="n">
         <v>343</v>
       </c>
     </row>
@@ -66653,6 +68723,12 @@
         <v>0</v>
       </c>
       <c r="AU345" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV345" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW345" t="n">
         <v>344</v>
       </c>
     </row>
@@ -66826,6 +68902,12 @@
         <v>0</v>
       </c>
       <c r="AU346" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV346" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW346" t="n">
         <v>345</v>
       </c>
     </row>
@@ -67001,6 +69083,12 @@
         <v>0</v>
       </c>
       <c r="AU347" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV347" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW347" t="n">
         <v>346</v>
       </c>
     </row>
@@ -67170,6 +69258,12 @@
         <v>0</v>
       </c>
       <c r="AU348" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV348" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW348" t="n">
         <v>347</v>
       </c>
     </row>
@@ -67341,6 +69435,12 @@
         <v>0</v>
       </c>
       <c r="AU349" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV349" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW349" t="n">
         <v>348</v>
       </c>
     </row>
@@ -67512,6 +69612,12 @@
         <v>0</v>
       </c>
       <c r="AU350" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV350" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW350" t="n">
         <v>349</v>
       </c>
     </row>
@@ -67683,6 +69789,12 @@
         <v>0</v>
       </c>
       <c r="AU351" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV351" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW351" t="n">
         <v>350</v>
       </c>
     </row>
@@ -67854,6 +69966,12 @@
         <v>0</v>
       </c>
       <c r="AU352" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV352" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW352" t="n">
         <v>351</v>
       </c>
     </row>
@@ -68035,6 +70153,12 @@
         <v>0</v>
       </c>
       <c r="AU353" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV353" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW353" t="n">
         <v>352</v>
       </c>
     </row>
@@ -68206,6 +70330,12 @@
         <v>0</v>
       </c>
       <c r="AU354" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV354" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW354" t="n">
         <v>353</v>
       </c>
     </row>
@@ -68367,6 +70497,12 @@
         <v>0</v>
       </c>
       <c r="AU355" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV355" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW355" t="n">
         <v>354</v>
       </c>
     </row>
@@ -68534,6 +70670,12 @@
         <v>0</v>
       </c>
       <c r="AU356" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV356" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW356" t="n">
         <v>355</v>
       </c>
     </row>
@@ -68703,6 +70845,12 @@
         <v>0</v>
       </c>
       <c r="AU357" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV357" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW357" t="n">
         <v>356</v>
       </c>
     </row>
@@ -68872,6 +71020,12 @@
         <v>0</v>
       </c>
       <c r="AU358" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV358" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW358" t="n">
         <v>357</v>
       </c>
     </row>
@@ -69041,6 +71195,12 @@
         <v>0</v>
       </c>
       <c r="AU359" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV359" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW359" t="n">
         <v>358</v>
       </c>
     </row>
@@ -69206,6 +71366,12 @@
         <v>0</v>
       </c>
       <c r="AU360" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV360" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW360" t="n">
         <v>359</v>
       </c>
     </row>
@@ -69367,6 +71533,12 @@
         <v>0</v>
       </c>
       <c r="AU361" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV361" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW361" t="n">
         <v>360</v>
       </c>
     </row>
@@ -69534,6 +71706,12 @@
         <v>0</v>
       </c>
       <c r="AU362" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV362" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW362" t="n">
         <v>361</v>
       </c>
     </row>
@@ -69701,6 +71879,12 @@
         <v>0</v>
       </c>
       <c r="AU363" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV363" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW363" t="n">
         <v>362</v>
       </c>
     </row>
@@ -69864,6 +72048,12 @@
         <v>0</v>
       </c>
       <c r="AU364" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV364" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW364" t="n">
         <v>363</v>
       </c>
     </row>
@@ -70029,6 +72219,12 @@
         <v>0</v>
       </c>
       <c r="AU365" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV365" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW365" t="n">
         <v>364</v>
       </c>
     </row>
@@ -70194,6 +72390,12 @@
         <v>0</v>
       </c>
       <c r="AU366" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV366" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW366" t="n">
         <v>365</v>
       </c>
     </row>
@@ -70359,6 +72561,12 @@
         <v>0</v>
       </c>
       <c r="AU367" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV367" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW367" t="n">
         <v>366</v>
       </c>
     </row>
@@ -70524,6 +72732,12 @@
         <v>0</v>
       </c>
       <c r="AU368" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV368" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW368" t="n">
         <v>367</v>
       </c>
     </row>
@@ -70689,6 +72903,12 @@
         <v>0</v>
       </c>
       <c r="AU369" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV369" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW369" t="n">
         <v>368</v>
       </c>
     </row>
@@ -70854,6 +73074,12 @@
         <v>0</v>
       </c>
       <c r="AU370" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV370" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW370" t="n">
         <v>369</v>
       </c>
     </row>
@@ -71019,6 +73245,12 @@
         <v>0</v>
       </c>
       <c r="AU371" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV371" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW371" t="n">
         <v>370</v>
       </c>
     </row>
@@ -71180,6 +73412,12 @@
         <v>0</v>
       </c>
       <c r="AU372" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV372" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW372" t="n">
         <v>371</v>
       </c>
     </row>
@@ -71341,6 +73579,12 @@
         <v>0</v>
       </c>
       <c r="AU373" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV373" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW373" t="n">
         <v>372</v>
       </c>
     </row>
@@ -71502,6 +73746,12 @@
         <v>0</v>
       </c>
       <c r="AU374" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV374" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW374" t="n">
         <v>373</v>
       </c>
     </row>
@@ -71663,6 +73913,12 @@
         <v>0</v>
       </c>
       <c r="AU375" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV375" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW375" t="n">
         <v>374</v>
       </c>
     </row>
@@ -71828,6 +74084,12 @@
         <v>0</v>
       </c>
       <c r="AU376" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV376" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW376" t="n">
         <v>375</v>
       </c>
     </row>
@@ -71991,6 +74253,12 @@
         <v>0</v>
       </c>
       <c r="AU377" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV377" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW377" t="n">
         <v>376</v>
       </c>
     </row>
@@ -72154,6 +74422,12 @@
         <v>0</v>
       </c>
       <c r="AU378" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV378" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW378" t="n">
         <v>377</v>
       </c>
     </row>
@@ -72317,6 +74591,12 @@
         <v>0</v>
       </c>
       <c r="AU379" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV379" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW379" t="n">
         <v>378</v>
       </c>
     </row>
@@ -72480,6 +74760,12 @@
         <v>0</v>
       </c>
       <c r="AU380" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV380" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW380" t="n">
         <v>379</v>
       </c>
     </row>
@@ -72653,6 +74939,12 @@
         <v>0</v>
       </c>
       <c r="AU381" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV381" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW381" t="n">
         <v>380</v>
       </c>
     </row>
@@ -72812,6 +75104,12 @@
         <v>0</v>
       </c>
       <c r="AU382" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV382" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW382" t="n">
         <v>381</v>
       </c>
     </row>
@@ -72971,6 +75269,12 @@
         <v>0</v>
       </c>
       <c r="AU383" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV383" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW383" t="n">
         <v>382</v>
       </c>
     </row>
@@ -73130,6 +75434,12 @@
         <v>0</v>
       </c>
       <c r="AU384" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV384" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW384" t="n">
         <v>383</v>
       </c>
     </row>
@@ -73289,6 +75599,12 @@
         <v>0</v>
       </c>
       <c r="AU385" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV385" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW385" t="n">
         <v>384</v>
       </c>
     </row>
@@ -73450,6 +75766,12 @@
         <v>0</v>
       </c>
       <c r="AU386" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV386" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW386" t="n">
         <v>385</v>
       </c>
     </row>
@@ -73615,6 +75937,12 @@
         <v>0</v>
       </c>
       <c r="AU387" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV387" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW387" t="n">
         <v>386</v>
       </c>
     </row>
@@ -73776,6 +76104,12 @@
         <v>0</v>
       </c>
       <c r="AU388" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV388" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW388" t="n">
         <v>387</v>
       </c>
     </row>
@@ -73931,6 +76265,12 @@
         <v>0</v>
       </c>
       <c r="AU389" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV389" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW389" t="n">
         <v>388</v>
       </c>
     </row>
@@ -74088,6 +76428,12 @@
         <v>0</v>
       </c>
       <c r="AU390" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV390" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW390" t="n">
         <v>389</v>
       </c>
     </row>
@@ -74247,6 +76593,12 @@
         <v>0</v>
       </c>
       <c r="AU391" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV391" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW391" t="n">
         <v>390</v>
       </c>
     </row>
@@ -74406,6 +76758,12 @@
         <v>0</v>
       </c>
       <c r="AU392" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV392" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW392" t="n">
         <v>391</v>
       </c>
     </row>
@@ -74565,6 +76923,12 @@
         <v>0</v>
       </c>
       <c r="AU393" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV393" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW393" t="n">
         <v>392</v>
       </c>
     </row>
@@ -74724,6 +77088,12 @@
         <v>0</v>
       </c>
       <c r="AU394" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV394" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW394" t="n">
         <v>393</v>
       </c>
     </row>
@@ -74881,6 +77251,12 @@
         <v>0</v>
       </c>
       <c r="AU395" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV395" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW395" t="n">
         <v>394</v>
       </c>
     </row>
@@ -75038,6 +77414,12 @@
         <v>0</v>
       </c>
       <c r="AU396" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV396" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW396" t="n">
         <v>395</v>
       </c>
     </row>
@@ -75195,6 +77577,12 @@
         <v>0</v>
       </c>
       <c r="AU397" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV397" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW397" t="n">
         <v>396</v>
       </c>
     </row>
@@ -75352,6 +77740,12 @@
         <v>0</v>
       </c>
       <c r="AU398" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV398" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW398" t="n">
         <v>397</v>
       </c>
     </row>
@@ -75505,6 +77899,12 @@
         <v>0</v>
       </c>
       <c r="AU399" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV399" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW399" t="n">
         <v>398</v>
       </c>
     </row>
@@ -75658,6 +78058,12 @@
         <v>0</v>
       </c>
       <c r="AU400" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV400" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW400" t="n">
         <v>399</v>
       </c>
     </row>
@@ -75811,6 +78217,12 @@
         <v>0</v>
       </c>
       <c r="AU401" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV401" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW401" t="n">
         <v>400</v>
       </c>
     </row>
@@ -75964,6 +78376,12 @@
         <v>0</v>
       </c>
       <c r="AU402" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV402" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW402" t="n">
         <v>401</v>
       </c>
     </row>
@@ -76117,6 +78535,12 @@
         <v>0</v>
       </c>
       <c r="AU403" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV403" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW403" t="n">
         <v>402</v>
       </c>
     </row>
@@ -76270,6 +78694,12 @@
         <v>0</v>
       </c>
       <c r="AU404" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV404" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW404" t="n">
         <v>403</v>
       </c>
     </row>
@@ -76423,6 +78853,12 @@
         <v>0</v>
       </c>
       <c r="AU405" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV405" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW405" t="n">
         <v>404</v>
       </c>
     </row>
@@ -76576,6 +79012,12 @@
         <v>0</v>
       </c>
       <c r="AU406" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV406" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW406" t="n">
         <v>405</v>
       </c>
     </row>
@@ -76729,6 +79171,12 @@
         <v>0</v>
       </c>
       <c r="AU407" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV407" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW407" t="n">
         <v>406</v>
       </c>
     </row>
@@ -76892,6 +79340,12 @@
         <v>0</v>
       </c>
       <c r="AU408" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV408" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW408" t="n">
         <v>407</v>
       </c>
     </row>
@@ -77045,6 +79499,12 @@
         <v>0</v>
       </c>
       <c r="AU409" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV409" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW409" t="n">
         <v>408</v>
       </c>
     </row>
@@ -77198,6 +79658,12 @@
         <v>0</v>
       </c>
       <c r="AU410" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV410" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW410" t="n">
         <v>409</v>
       </c>
     </row>
@@ -77349,6 +79815,12 @@
         <v>0</v>
       </c>
       <c r="AU411" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV411" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW411" t="n">
         <v>410</v>
       </c>
     </row>
@@ -77500,6 +79972,12 @@
         <v>0</v>
       </c>
       <c r="AU412" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV412" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW412" t="n">
         <v>411</v>
       </c>
     </row>
@@ -77651,6 +80129,12 @@
         <v>0</v>
       </c>
       <c r="AU413" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV413" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW413" t="n">
         <v>412</v>
       </c>
     </row>
@@ -77802,6 +80286,12 @@
         <v>0</v>
       </c>
       <c r="AU414" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV414" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW414" t="n">
         <v>413</v>
       </c>
     </row>
@@ -77953,6 +80443,12 @@
         <v>0</v>
       </c>
       <c r="AU415" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV415" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW415" t="n">
         <v>414</v>
       </c>
     </row>
@@ -78104,6 +80600,12 @@
         <v>0</v>
       </c>
       <c r="AU416" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV416" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW416" t="n">
         <v>415</v>
       </c>
     </row>

--- a/docs/downloads/rankings_latest.xlsx
+++ b/docs/downloads/rankings_latest.xlsx
@@ -990,7 +990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW419"/>
+  <dimension ref="A1:AV419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
@@ -1045,8 +1045,6 @@
     <col width="6" customWidth="1" min="45" max="45"/>
     <col width="6" bestFit="1" customWidth="1" min="46" max="46"/>
     <col width="7" bestFit="1" customWidth="1" min="47" max="48"/>
-    <col width="6" customWidth="1" min="48" max="48"/>
-    <col width="6" customWidth="1" min="49" max="49"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1282,16 +1280,6 @@
       </c>
       <c r="AU1" s="5" t="inlineStr">
         <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="AV1" s="5" t="inlineStr">
-        <is>
-          <t>RANK2</t>
-        </is>
-      </c>
-      <c r="AW1" s="5" t="inlineStr">
-        <is>
           <t>RANK3</t>
         </is>
       </c>
@@ -1506,12 +1494,6 @@
       <c r="AU2" t="n">
         <v>1</v>
       </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1699,12 +1681,6 @@
       <c r="AU3" t="n">
         <v>2</v>
       </c>
-      <c r="AV3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1924,12 +1900,6 @@
       <c r="AU4" t="n">
         <v>3</v>
       </c>
-      <c r="AV4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -2151,12 +2121,6 @@
       <c r="AU5" t="n">
         <v>4</v>
       </c>
-      <c r="AV5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2374,12 +2338,6 @@
         <v>72.25714285714285</v>
       </c>
       <c r="AU6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2571,12 +2529,6 @@
         <v>67.56345177664976</v>
       </c>
       <c r="AU7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2774,12 +2726,6 @@
         <v>66.42528735632185</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2987,12 +2933,6 @@
         <v>65.33788395904436</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3200,12 +3140,6 @@
         <v>65.33646322378718</v>
       </c>
       <c r="AU10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3399,12 +3333,6 @@
         <v>63.43319838056679</v>
       </c>
       <c r="AU11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AW11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3574,12 +3502,6 @@
         <v>60.42424242424241</v>
       </c>
       <c r="AU12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW12" t="n">
         <v>11</v>
       </c>
     </row>
@@ -3795,12 +3717,6 @@
         <v>59.02584493041751</v>
       </c>
       <c r="AU13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW13" t="n">
         <v>12</v>
       </c>
     </row>
@@ -4018,12 +3934,6 @@
         <v>55.00575373993095</v>
       </c>
       <c r="AU14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AW14" t="n">
         <v>13</v>
       </c>
     </row>
@@ -4231,12 +4141,6 @@
         <v>54.79508196721311</v>
       </c>
       <c r="AU15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AW15" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4438,12 +4342,6 @@
         <v>54.52812202097235</v>
       </c>
       <c r="AU16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AW16" t="n">
         <v>15</v>
       </c>
     </row>
@@ -4653,12 +4551,6 @@
         <v>53.3256351039261</v>
       </c>
       <c r="AU17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AW17" t="n">
         <v>16</v>
       </c>
     </row>
@@ -4852,12 +4744,6 @@
         <v>51.35234590616376</v>
       </c>
       <c r="AU18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AW18" t="n">
         <v>17</v>
       </c>
     </row>
@@ -5033,12 +4919,6 @@
         <v>49.69870875179341</v>
       </c>
       <c r="AU19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AW19" t="n">
         <v>18</v>
       </c>
     </row>
@@ -5228,12 +5108,6 @@
         <v>45.09803921568628</v>
       </c>
       <c r="AU20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AW20" t="n">
         <v>19</v>
       </c>
     </row>
@@ -5425,12 +5299,6 @@
         <v>43.70946822308691</v>
       </c>
       <c r="AU21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AW21" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5650,12 +5518,6 @@
         <v>41.78861788617886</v>
       </c>
       <c r="AU22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AW22" t="n">
         <v>21</v>
       </c>
     </row>
@@ -5847,12 +5709,6 @@
         <v>41.28500823723229</v>
       </c>
       <c r="AU23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AW23" t="n">
         <v>22</v>
       </c>
     </row>
@@ -6018,12 +5874,6 @@
         <v>39.23705722070845</v>
       </c>
       <c r="AU24" t="n">
-        <v>27</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AW24" t="n">
         <v>23</v>
       </c>
     </row>
@@ -6187,12 +6037,6 @@
         <v>38.88888888888889</v>
       </c>
       <c r="AU25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AW25" t="n">
         <v>24</v>
       </c>
     </row>
@@ -6376,12 +6220,6 @@
         <v>35.5108877721943</v>
       </c>
       <c r="AU26" t="n">
-        <v>30</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>25</v>
-      </c>
-      <c r="AW26" t="n">
         <v>25</v>
       </c>
     </row>
@@ -6571,12 +6409,6 @@
         <v>31.16591928251121</v>
       </c>
       <c r="AU27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AW27" t="n">
         <v>26</v>
       </c>
     </row>
@@ -6758,12 +6590,6 @@
         <v>31.04125736738704</v>
       </c>
       <c r="AU28" t="n">
-        <v>35</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>27</v>
-      </c>
-      <c r="AW28" t="n">
         <v>27</v>
       </c>
     </row>
@@ -6959,12 +6785,6 @@
         <v>30.99173553719008</v>
       </c>
       <c r="AU29" t="n">
-        <v>36</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>28</v>
-      </c>
-      <c r="AW29" t="n">
         <v>28</v>
       </c>
     </row>
@@ -7128,12 +6948,6 @@
         <v>27.71535580524345</v>
       </c>
       <c r="AU30" t="n">
-        <v>38</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AW30" t="n">
         <v>29</v>
       </c>
     </row>
@@ -7331,12 +7145,6 @@
         <v>26.97201017811706</v>
       </c>
       <c r="AU31" t="n">
-        <v>39</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>30</v>
-      </c>
-      <c r="AW31" t="n">
         <v>30</v>
       </c>
     </row>
@@ -7528,12 +7336,6 @@
         <v>25.97402597402597</v>
       </c>
       <c r="AU32" t="n">
-        <v>42</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>31</v>
-      </c>
-      <c r="AW32" t="n">
         <v>31</v>
       </c>
     </row>
@@ -7697,12 +7499,6 @@
         <v>25.08474576271186</v>
       </c>
       <c r="AU33" t="n">
-        <v>43</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>32</v>
-      </c>
-      <c r="AW33" t="n">
         <v>32</v>
       </c>
     </row>
@@ -7904,12 +7700,6 @@
         <v>21.64502164502164</v>
       </c>
       <c r="AU34" t="n">
-        <v>48</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>33</v>
-      </c>
-      <c r="AW34" t="n">
         <v>33</v>
       </c>
     </row>
@@ -8105,12 +7895,6 @@
         <v>16.12200435729848</v>
       </c>
       <c r="AU35" t="n">
-        <v>54</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW35" t="n">
         <v>34</v>
       </c>
     </row>
@@ -8274,12 +8058,6 @@
         <v>15.17857142857143</v>
       </c>
       <c r="AU36" t="n">
-        <v>57</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>35</v>
-      </c>
-      <c r="AW36" t="n">
         <v>35</v>
       </c>
     </row>
@@ -8445,12 +8223,6 @@
         <v>15.15151515151515</v>
       </c>
       <c r="AU37" t="n">
-        <v>58</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>36</v>
-      </c>
-      <c r="AW37" t="n">
         <v>36</v>
       </c>
     </row>
@@ -8638,12 +8410,6 @@
         <v>7.719298245614034</v>
       </c>
       <c r="AU38" t="n">
-        <v>83</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>37</v>
-      </c>
-      <c r="AW38" t="n">
         <v>37</v>
       </c>
     </row>
@@ -8839,12 +8605,6 @@
         <v>5.387205387205388</v>
       </c>
       <c r="AU39" t="n">
-        <v>89</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>38</v>
-      </c>
-      <c r="AW39" t="n">
         <v>38</v>
       </c>
     </row>
@@ -9052,12 +8812,6 @@
         <v>2.808988764044944</v>
       </c>
       <c r="AU40" t="n">
-        <v>92</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>39</v>
-      </c>
-      <c r="AW40" t="n">
         <v>39</v>
       </c>
     </row>
@@ -9269,12 +9023,6 @@
         <v>2.666666666666667</v>
       </c>
       <c r="AU41" t="n">
-        <v>93</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW41" t="n">
         <v>40</v>
       </c>
     </row>
@@ -9480,12 +9228,6 @@
         <v>0.0781975138121547</v>
       </c>
       <c r="AU42" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW42" t="n">
         <v>41</v>
       </c>
     </row>
@@ -9683,12 +9425,6 @@
         <v>0.0527633587786259</v>
       </c>
       <c r="AU43" t="n">
-        <v>18</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>42</v>
-      </c>
-      <c r="AW43" t="n">
         <v>42</v>
       </c>
     </row>
@@ -9842,12 +9578,6 @@
         <v>0.0472727272727272</v>
       </c>
       <c r="AU44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>43</v>
-      </c>
-      <c r="AW44" t="n">
         <v>43</v>
       </c>
     </row>
@@ -10055,12 +9785,6 @@
         <v>0.040943396226415</v>
       </c>
       <c r="AU45" t="n">
-        <v>26</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>44</v>
-      </c>
-      <c r="AW45" t="n">
         <v>44</v>
       </c>
     </row>
@@ -10278,12 +10002,6 @@
         <v>0.0362227602905568</v>
       </c>
       <c r="AU46" t="n">
-        <v>29</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW46" t="n">
         <v>45</v>
       </c>
     </row>
@@ -10475,12 +10193,6 @@
         <v>0.0340122199592668</v>
       </c>
       <c r="AU47" t="n">
-        <v>31</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>46</v>
-      </c>
-      <c r="AW47" t="n">
         <v>46</v>
       </c>
     </row>
@@ -10672,12 +10384,6 @@
         <v>0.0332231404958677</v>
       </c>
       <c r="AU48" t="n">
-        <v>32</v>
-      </c>
-      <c r="AV48" t="n">
-        <v>47</v>
-      </c>
-      <c r="AW48" t="n">
         <v>47</v>
       </c>
     </row>
@@ -10867,12 +10573,6 @@
         <v>0.0325641025641025</v>
       </c>
       <c r="AU49" t="n">
-        <v>33</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>48</v>
-      </c>
-      <c r="AW49" t="n">
         <v>48</v>
       </c>
     </row>
@@ -11062,12 +10762,6 @@
         <v>0.0307822410147991</v>
       </c>
       <c r="AU50" t="n">
-        <v>37</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>49</v>
-      </c>
-      <c r="AW50" t="n">
         <v>49</v>
       </c>
     </row>
@@ -11233,12 +10927,6 @@
         <v>0.0267241379310344</v>
       </c>
       <c r="AU51" t="n">
-        <v>40</v>
-      </c>
-      <c r="AV51" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW51" t="n">
         <v>50</v>
       </c>
     </row>
@@ -11440,12 +11128,6 @@
         <v>0.0262376237623762</v>
       </c>
       <c r="AU52" t="n">
-        <v>41</v>
-      </c>
-      <c r="AV52" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW52" t="n">
         <v>51</v>
       </c>
     </row>
@@ -11649,12 +11331,6 @@
         <v>0.0248295454545454</v>
       </c>
       <c r="AU53" t="n">
-        <v>44</v>
-      </c>
-      <c r="AV53" t="n">
-        <v>52</v>
-      </c>
-      <c r="AW53" t="n">
         <v>52</v>
       </c>
     </row>
@@ -11856,12 +11532,6 @@
         <v>0.0248295454545454</v>
       </c>
       <c r="AU54" t="n">
-        <v>44</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>52</v>
-      </c>
-      <c r="AW54" t="n">
         <v>53</v>
       </c>
     </row>
@@ -12049,12 +11719,6 @@
         <v>0.0237142857142857</v>
       </c>
       <c r="AU55" t="n">
-        <v>46</v>
-      </c>
-      <c r="AV55" t="n">
-        <v>54</v>
-      </c>
-      <c r="AW55" t="n">
         <v>54</v>
       </c>
     </row>
@@ -12240,12 +11904,6 @@
         <v>0.0235955056179775</v>
       </c>
       <c r="AU56" t="n">
-        <v>47</v>
-      </c>
-      <c r="AV56" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW56" t="n">
         <v>55</v>
       </c>
     </row>
@@ -12419,12 +12077,6 @@
         <v>0.0211267605633802</v>
       </c>
       <c r="AU57" t="n">
-        <v>49</v>
-      </c>
-      <c r="AV57" t="n">
-        <v>56</v>
-      </c>
-      <c r="AW57" t="n">
         <v>56</v>
       </c>
     </row>
@@ -12600,12 +12252,6 @@
         <v>0.0207407407407407</v>
       </c>
       <c r="AU58" t="n">
-        <v>50</v>
-      </c>
-      <c r="AV58" t="n">
-        <v>57</v>
-      </c>
-      <c r="AW58" t="n">
         <v>57</v>
       </c>
     </row>
@@ -12791,12 +12437,6 @@
         <v>0.0197435897435897</v>
       </c>
       <c r="AU59" t="n">
-        <v>51</v>
-      </c>
-      <c r="AV59" t="n">
-        <v>58</v>
-      </c>
-      <c r="AW59" t="n">
         <v>58</v>
       </c>
     </row>
@@ -13002,12 +12642,6 @@
         <v>0.0188679245283018</v>
       </c>
       <c r="AU60" t="n">
-        <v>52</v>
-      </c>
-      <c r="AV60" t="n">
-        <v>59</v>
-      </c>
-      <c r="AW60" t="n">
         <v>59</v>
       </c>
     </row>
@@ -13187,12 +12821,6 @@
         <v>0.0173643410852713</v>
       </c>
       <c r="AU61" t="n">
-        <v>53</v>
-      </c>
-      <c r="AV61" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW61" t="n">
         <v>60</v>
       </c>
     </row>
@@ -13376,12 +13004,6 @@
         <v>0.0159999999999999</v>
       </c>
       <c r="AU62" t="n">
-        <v>55</v>
-      </c>
-      <c r="AV62" t="n">
-        <v>61</v>
-      </c>
-      <c r="AW62" t="n">
         <v>61</v>
       </c>
     </row>
@@ -13581,12 +13203,6 @@
         <v>0.0154098360655737</v>
       </c>
       <c r="AU63" t="n">
-        <v>56</v>
-      </c>
-      <c r="AV63" t="n">
-        <v>62</v>
-      </c>
-      <c r="AW63" t="n">
         <v>62</v>
       </c>
     </row>
@@ -13778,12 +13394,6 @@
         <v>0.0147924528301886</v>
       </c>
       <c r="AU64" t="n">
-        <v>59</v>
-      </c>
-      <c r="AV64" t="n">
-        <v>63</v>
-      </c>
-      <c r="AW64" t="n">
         <v>63</v>
       </c>
     </row>
@@ -13951,12 +13561,6 @@
         <v>0.0141666666666666</v>
       </c>
       <c r="AU65" t="n">
-        <v>60</v>
-      </c>
-      <c r="AV65" t="n">
-        <v>64</v>
-      </c>
-      <c r="AW65" t="n">
         <v>64</v>
       </c>
     </row>
@@ -14146,12 +13750,6 @@
         <v>0.0138181818181818</v>
       </c>
       <c r="AU66" t="n">
-        <v>61</v>
-      </c>
-      <c r="AV66" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW66" t="n">
         <v>65</v>
       </c>
     </row>
@@ -14347,12 +13945,6 @@
         <v>0.0138181818181818</v>
       </c>
       <c r="AU67" t="n">
-        <v>61</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW67" t="n">
         <v>66</v>
       </c>
     </row>
@@ -14558,12 +14150,6 @@
         <v>0.0132867132867132</v>
       </c>
       <c r="AU68" t="n">
-        <v>63</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW68" t="n">
         <v>67</v>
       </c>
     </row>
@@ -14751,12 +14337,6 @@
         <v>0.0119702602230483</v>
       </c>
       <c r="AU69" t="n">
-        <v>64</v>
-      </c>
-      <c r="AV69" t="n">
-        <v>68</v>
-      </c>
-      <c r="AW69" t="n">
         <v>68</v>
       </c>
     </row>
@@ -14934,12 +14514,6 @@
         <v>0.0115702479338842</v>
       </c>
       <c r="AU70" t="n">
-        <v>65</v>
-      </c>
-      <c r="AV70" t="n">
-        <v>69</v>
-      </c>
-      <c r="AW70" t="n">
         <v>69</v>
       </c>
     </row>
@@ -15119,12 +14693,6 @@
         <v>0.0115702479338842</v>
       </c>
       <c r="AU71" t="n">
-        <v>65</v>
-      </c>
-      <c r="AV71" t="n">
-        <v>69</v>
-      </c>
-      <c r="AW71" t="n">
         <v>70</v>
       </c>
     </row>
@@ -15316,12 +14884,6 @@
         <v>0.0113793103448275</v>
       </c>
       <c r="AU72" t="n">
-        <v>67</v>
-      </c>
-      <c r="AV72" t="n">
-        <v>71</v>
-      </c>
-      <c r="AW72" t="n">
         <v>71</v>
       </c>
     </row>
@@ -15513,12 +15075,6 @@
         <v>0.0113013698630136</v>
       </c>
       <c r="AU73" t="n">
-        <v>68</v>
-      </c>
-      <c r="AV73" t="n">
-        <v>72</v>
-      </c>
-      <c r="AW73" t="n">
         <v>72</v>
       </c>
     </row>
@@ -15696,12 +15252,6 @@
         <v>0.011038961038961</v>
       </c>
       <c r="AU74" t="n">
-        <v>69</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>73</v>
-      </c>
-      <c r="AW74" t="n">
         <v>73</v>
       </c>
     </row>
@@ -15889,12 +15439,6 @@
         <v>0.0107843137254901</v>
       </c>
       <c r="AU75" t="n">
-        <v>70</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>74</v>
-      </c>
-      <c r="AW75" t="n">
         <v>74</v>
       </c>
     </row>
@@ -16092,12 +15636,6 @@
         <v>0.0107692307692307</v>
       </c>
       <c r="AU76" t="n">
-        <v>71</v>
-      </c>
-      <c r="AV76" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW76" t="n">
         <v>75</v>
       </c>
     </row>
@@ -16275,12 +15813,6 @@
         <v>0.0102564102564102</v>
       </c>
       <c r="AU77" t="n">
-        <v>72</v>
-      </c>
-      <c r="AV77" t="n">
-        <v>76</v>
-      </c>
-      <c r="AW77" t="n">
         <v>76</v>
       </c>
     </row>
@@ -16450,12 +15982,6 @@
         <v>0.0100456621004566</v>
       </c>
       <c r="AU78" t="n">
-        <v>73</v>
-      </c>
-      <c r="AV78" t="n">
-        <v>77</v>
-      </c>
-      <c r="AW78" t="n">
         <v>77</v>
       </c>
     </row>
@@ -16653,12 +16179,6 @@
         <v>0.01003861003861</v>
       </c>
       <c r="AU79" t="n">
-        <v>74</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>78</v>
-      </c>
-      <c r="AW79" t="n">
         <v>78</v>
       </c>
     </row>
@@ -16828,12 +16348,6 @@
         <v>0.009909909909909901</v>
       </c>
       <c r="AU80" t="n">
-        <v>75</v>
-      </c>
-      <c r="AV80" t="n">
-        <v>79</v>
-      </c>
-      <c r="AW80" t="n">
         <v>79</v>
       </c>
     </row>
@@ -17029,12 +16543,6 @@
         <v>0.0090579710144927</v>
       </c>
       <c r="AU81" t="n">
-        <v>76</v>
-      </c>
-      <c r="AV81" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW81" t="n">
         <v>80</v>
       </c>
     </row>
@@ -17230,12 +16738,6 @@
         <v>0.008945686900958399</v>
       </c>
       <c r="AU82" t="n">
-        <v>77</v>
-      </c>
-      <c r="AV82" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW82" t="n">
         <v>81</v>
       </c>
     </row>
@@ -17417,12 +16919,6 @@
         <v>0.0088353413654618</v>
       </c>
       <c r="AU83" t="n">
-        <v>78</v>
-      </c>
-      <c r="AV83" t="n">
-        <v>82</v>
-      </c>
-      <c r="AW83" t="n">
         <v>82</v>
       </c>
     </row>
@@ -17604,12 +17100,6 @@
         <v>0.0088353413654618</v>
       </c>
       <c r="AU84" t="n">
-        <v>78</v>
-      </c>
-      <c r="AV84" t="n">
-        <v>82</v>
-      </c>
-      <c r="AW84" t="n">
         <v>83</v>
       </c>
     </row>
@@ -17793,12 +17283,6 @@
         <v>0.008593750000000001</v>
       </c>
       <c r="AU85" t="n">
-        <v>80</v>
-      </c>
-      <c r="AV85" t="n">
-        <v>84</v>
-      </c>
-      <c r="AW85" t="n">
         <v>84</v>
       </c>
     </row>
@@ -18000,12 +17484,6 @@
         <v>0.008</v>
       </c>
       <c r="AU86" t="n">
-        <v>81</v>
-      </c>
-      <c r="AV86" t="n">
-        <v>85</v>
-      </c>
-      <c r="AW86" t="n">
         <v>85</v>
       </c>
     </row>
@@ -18209,12 +17687,6 @@
         <v>0.008</v>
       </c>
       <c r="AU87" t="n">
-        <v>81</v>
-      </c>
-      <c r="AV87" t="n">
-        <v>85</v>
-      </c>
-      <c r="AW87" t="n">
         <v>86</v>
       </c>
     </row>
@@ -18406,12 +17878,6 @@
         <v>0.0071942446043165</v>
       </c>
       <c r="AU88" t="n">
-        <v>84</v>
-      </c>
-      <c r="AV88" t="n">
-        <v>87</v>
-      </c>
-      <c r="AW88" t="n">
         <v>87</v>
       </c>
     </row>
@@ -18591,12 +18057,6 @@
         <v>0.0066390041493775</v>
       </c>
       <c r="AU89" t="n">
-        <v>85</v>
-      </c>
-      <c r="AV89" t="n">
-        <v>88</v>
-      </c>
-      <c r="AW89" t="n">
         <v>88</v>
       </c>
     </row>
@@ -18804,12 +18264,6 @@
         <v>0.0065843621399176</v>
       </c>
       <c r="AU90" t="n">
-        <v>86</v>
-      </c>
-      <c r="AV90" t="n">
-        <v>89</v>
-      </c>
-      <c r="AW90" t="n">
         <v>89</v>
       </c>
     </row>
@@ -18989,12 +18443,6 @@
         <v>0.0062015503875969</v>
       </c>
       <c r="AU91" t="n">
-        <v>87</v>
-      </c>
-      <c r="AV91" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW91" t="n">
         <v>90</v>
       </c>
     </row>
@@ -19186,12 +18634,6 @@
         <v>0.005857740585774</v>
       </c>
       <c r="AU92" t="n">
-        <v>88</v>
-      </c>
-      <c r="AV92" t="n">
-        <v>91</v>
-      </c>
-      <c r="AW92" t="n">
         <v>91</v>
       </c>
     </row>
@@ -19383,12 +18825,6 @@
         <v>0.0048275862068965</v>
       </c>
       <c r="AU93" t="n">
-        <v>90</v>
-      </c>
-      <c r="AV93" t="n">
-        <v>92</v>
-      </c>
-      <c r="AW93" t="n">
         <v>92</v>
       </c>
     </row>
@@ -19592,12 +19028,6 @@
         <v>0.0042918454935622</v>
       </c>
       <c r="AU94" t="n">
-        <v>91</v>
-      </c>
-      <c r="AV94" t="n">
-        <v>93</v>
-      </c>
-      <c r="AW94" t="n">
         <v>93</v>
       </c>
     </row>
@@ -19795,12 +19225,6 @@
       <c r="AU95" t="n">
         <v>94</v>
       </c>
-      <c r="AV95" t="n">
-        <v>94</v>
-      </c>
-      <c r="AW95" t="n">
-        <v>94</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -19984,12 +19408,6 @@
       <c r="AU96" t="n">
         <v>95</v>
       </c>
-      <c r="AV96" t="n">
-        <v>95</v>
-      </c>
-      <c r="AW96" t="n">
-        <v>95</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -20181,12 +19599,6 @@
       <c r="AU97" t="n">
         <v>96</v>
       </c>
-      <c r="AV97" t="n">
-        <v>96</v>
-      </c>
-      <c r="AW97" t="n">
-        <v>96</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -20364,12 +19776,6 @@
       <c r="AU98" t="n">
         <v>97</v>
       </c>
-      <c r="AV98" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW98" t="n">
-        <v>97</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -20565,12 +19971,6 @@
         <v>0</v>
       </c>
       <c r="AU99" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV99" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW99" t="n">
         <v>98</v>
       </c>
     </row>
@@ -20774,12 +20174,6 @@
         <v>0</v>
       </c>
       <c r="AU100" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV100" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW100" t="n">
         <v>99</v>
       </c>
     </row>
@@ -20969,12 +20363,6 @@
         <v>0</v>
       </c>
       <c r="AU101" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV101" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW101" t="n">
         <v>100</v>
       </c>
     </row>
@@ -21158,12 +20546,6 @@
         <v>0</v>
       </c>
       <c r="AU102" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV102" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW102" t="n">
         <v>101</v>
       </c>
     </row>
@@ -21347,12 +20729,6 @@
         <v>0</v>
       </c>
       <c r="AU103" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV103" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW103" t="n">
         <v>102</v>
       </c>
     </row>
@@ -21546,12 +20922,6 @@
         <v>0</v>
       </c>
       <c r="AU104" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV104" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW104" t="n">
         <v>103</v>
       </c>
     </row>
@@ -21733,12 +21103,6 @@
         <v>0</v>
       </c>
       <c r="AU105" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV105" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW105" t="n">
         <v>104</v>
       </c>
     </row>
@@ -21926,12 +21290,6 @@
         <v>0</v>
       </c>
       <c r="AU106" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV106" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW106" t="n">
         <v>105</v>
       </c>
     </row>
@@ -22119,12 +21477,6 @@
         <v>0</v>
       </c>
       <c r="AU107" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV107" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW107" t="n">
         <v>106</v>
       </c>
     </row>
@@ -22308,12 +21660,6 @@
         <v>0</v>
       </c>
       <c r="AU108" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV108" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW108" t="n">
         <v>107</v>
       </c>
     </row>
@@ -22505,12 +21851,6 @@
         <v>0</v>
       </c>
       <c r="AU109" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV109" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW109" t="n">
         <v>108</v>
       </c>
     </row>
@@ -22686,12 +22026,6 @@
         <v>0</v>
       </c>
       <c r="AU110" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV110" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW110" t="n">
         <v>109</v>
       </c>
     </row>
@@ -22879,12 +22213,6 @@
         <v>0</v>
       </c>
       <c r="AU111" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV111" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW111" t="n">
         <v>110</v>
       </c>
     </row>
@@ -23080,12 +22408,6 @@
         <v>0</v>
       </c>
       <c r="AU112" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV112" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW112" t="n">
         <v>111</v>
       </c>
     </row>
@@ -23271,12 +22593,6 @@
         <v>0</v>
       </c>
       <c r="AU113" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV113" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW113" t="n">
         <v>112</v>
       </c>
     </row>
@@ -23482,12 +22798,6 @@
         <v>0</v>
       </c>
       <c r="AU114" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV114" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW114" t="n">
         <v>113</v>
       </c>
     </row>
@@ -23667,12 +22977,6 @@
         <v>0</v>
       </c>
       <c r="AU115" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV115" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW115" t="n">
         <v>114</v>
       </c>
     </row>
@@ -23852,12 +23156,6 @@
         <v>0</v>
       </c>
       <c r="AU116" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV116" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW116" t="n">
         <v>115</v>
       </c>
     </row>
@@ -24027,12 +23325,6 @@
         <v>0</v>
       </c>
       <c r="AU117" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV117" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW117" t="n">
         <v>116</v>
       </c>
     </row>
@@ -24210,12 +23502,6 @@
         <v>0</v>
       </c>
       <c r="AU118" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV118" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW118" t="n">
         <v>117</v>
       </c>
     </row>
@@ -24409,12 +23695,6 @@
         <v>0</v>
       </c>
       <c r="AU119" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV119" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW119" t="n">
         <v>118</v>
       </c>
     </row>
@@ -24602,12 +23882,6 @@
         <v>0</v>
       </c>
       <c r="AU120" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV120" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW120" t="n">
         <v>119</v>
       </c>
     </row>
@@ -24793,12 +24067,6 @@
         <v>0</v>
       </c>
       <c r="AU121" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV121" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW121" t="n">
         <v>120</v>
       </c>
     </row>
@@ -24984,12 +24252,6 @@
         <v>0</v>
       </c>
       <c r="AU122" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV122" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW122" t="n">
         <v>121</v>
       </c>
     </row>
@@ -25181,12 +24443,6 @@
         <v>0</v>
       </c>
       <c r="AU123" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV123" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW123" t="n">
         <v>122</v>
       </c>
     </row>
@@ -25372,12 +24628,6 @@
         <v>0</v>
       </c>
       <c r="AU124" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV124" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW124" t="n">
         <v>123</v>
       </c>
     </row>
@@ -25549,12 +24799,6 @@
         <v>0</v>
       </c>
       <c r="AU125" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV125" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW125" t="n">
         <v>124</v>
       </c>
     </row>
@@ -25736,12 +24980,6 @@
         <v>0</v>
       </c>
       <c r="AU126" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV126" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW126" t="n">
         <v>125</v>
       </c>
     </row>
@@ -25921,12 +25159,6 @@
         <v>0</v>
       </c>
       <c r="AU127" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV127" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW127" t="n">
         <v>126</v>
       </c>
     </row>
@@ -26108,12 +25340,6 @@
         <v>0</v>
       </c>
       <c r="AU128" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV128" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW128" t="n">
         <v>127</v>
       </c>
     </row>
@@ -26295,12 +25521,6 @@
         <v>0</v>
       </c>
       <c r="AU129" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV129" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW129" t="n">
         <v>128</v>
       </c>
     </row>
@@ -26486,12 +25706,6 @@
         <v>0</v>
       </c>
       <c r="AU130" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV130" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW130" t="n">
         <v>129</v>
       </c>
     </row>
@@ -26673,12 +25887,6 @@
         <v>0</v>
       </c>
       <c r="AU131" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV131" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW131" t="n">
         <v>130</v>
       </c>
     </row>
@@ -26860,12 +26068,6 @@
         <v>0</v>
       </c>
       <c r="AU132" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV132" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW132" t="n">
         <v>131</v>
       </c>
     </row>
@@ -27035,12 +26237,6 @@
         <v>0</v>
       </c>
       <c r="AU133" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV133" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW133" t="n">
         <v>132</v>
       </c>
     </row>
@@ -27232,12 +26428,6 @@
         <v>0</v>
       </c>
       <c r="AU134" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV134" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW134" t="n">
         <v>133</v>
       </c>
     </row>
@@ -27409,12 +26599,6 @@
         <v>0</v>
       </c>
       <c r="AU135" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV135" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW135" t="n">
         <v>134</v>
       </c>
     </row>
@@ -27596,12 +26780,6 @@
         <v>0</v>
       </c>
       <c r="AU136" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV136" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW136" t="n">
         <v>135</v>
       </c>
     </row>
@@ -27793,12 +26971,6 @@
         <v>0</v>
       </c>
       <c r="AU137" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV137" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW137" t="n">
         <v>136</v>
       </c>
     </row>
@@ -27982,12 +27154,6 @@
         <v>0</v>
       </c>
       <c r="AU138" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV138" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW138" t="n">
         <v>137</v>
       </c>
     </row>
@@ -28153,12 +27319,6 @@
         <v>0</v>
       </c>
       <c r="AU139" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV139" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW139" t="n">
         <v>138</v>
       </c>
     </row>
@@ -28350,12 +27510,6 @@
         <v>0</v>
       </c>
       <c r="AU140" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV140" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW140" t="n">
         <v>139</v>
       </c>
     </row>
@@ -28541,12 +27695,6 @@
         <v>0</v>
       </c>
       <c r="AU141" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV141" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW141" t="n">
         <v>140</v>
       </c>
     </row>
@@ -28732,12 +27880,6 @@
         <v>0</v>
       </c>
       <c r="AU142" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV142" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW142" t="n">
         <v>141</v>
       </c>
     </row>
@@ -28923,12 +28065,6 @@
         <v>0</v>
       </c>
       <c r="AU143" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV143" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW143" t="n">
         <v>142</v>
       </c>
     </row>
@@ -29120,12 +28256,6 @@
         <v>0</v>
       </c>
       <c r="AU144" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV144" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW144" t="n">
         <v>143</v>
       </c>
     </row>
@@ -29311,12 +28441,6 @@
         <v>0</v>
       </c>
       <c r="AU145" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV145" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW145" t="n">
         <v>144</v>
       </c>
     </row>
@@ -29508,12 +28632,6 @@
         <v>0</v>
       </c>
       <c r="AU146" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV146" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW146" t="n">
         <v>145</v>
       </c>
     </row>
@@ -29685,12 +28803,6 @@
         <v>0</v>
       </c>
       <c r="AU147" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV147" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW147" t="n">
         <v>146</v>
       </c>
     </row>
@@ -29880,12 +28992,6 @@
         <v>0</v>
       </c>
       <c r="AU148" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV148" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW148" t="n">
         <v>147</v>
       </c>
     </row>
@@ -30077,12 +29183,6 @@
         <v>0</v>
       </c>
       <c r="AU149" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV149" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW149" t="n">
         <v>148</v>
       </c>
     </row>
@@ -30274,12 +29374,6 @@
         <v>0</v>
       </c>
       <c r="AU150" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV150" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW150" t="n">
         <v>149</v>
       </c>
     </row>
@@ -30471,12 +29565,6 @@
         <v>0</v>
       </c>
       <c r="AU151" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV151" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW151" t="n">
         <v>150</v>
       </c>
     </row>
@@ -30668,12 +29756,6 @@
         <v>0</v>
       </c>
       <c r="AU152" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV152" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW152" t="n">
         <v>151</v>
       </c>
     </row>
@@ -30863,12 +29945,6 @@
         <v>0</v>
       </c>
       <c r="AU153" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV153" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW153" t="n">
         <v>152</v>
       </c>
     </row>
@@ -31058,12 +30134,6 @@
         <v>0</v>
       </c>
       <c r="AU154" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV154" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW154" t="n">
         <v>153</v>
       </c>
     </row>
@@ -31255,12 +30325,6 @@
         <v>0</v>
       </c>
       <c r="AU155" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV155" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW155" t="n">
         <v>154</v>
       </c>
     </row>
@@ -31450,12 +30514,6 @@
         <v>0</v>
       </c>
       <c r="AU156" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV156" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW156" t="n">
         <v>155</v>
       </c>
     </row>
@@ -31647,12 +30705,6 @@
         <v>0</v>
       </c>
       <c r="AU157" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV157" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW157" t="n">
         <v>156</v>
       </c>
     </row>
@@ -31844,12 +30896,6 @@
         <v>0</v>
       </c>
       <c r="AU158" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV158" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW158" t="n">
         <v>157</v>
       </c>
     </row>
@@ -32041,12 +31087,6 @@
         <v>0</v>
       </c>
       <c r="AU159" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV159" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW159" t="n">
         <v>158</v>
       </c>
     </row>
@@ -32236,12 +31276,6 @@
         <v>0</v>
       </c>
       <c r="AU160" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV160" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW160" t="n">
         <v>159</v>
       </c>
     </row>
@@ -32433,12 +31467,6 @@
         <v>0</v>
       </c>
       <c r="AU161" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV161" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW161" t="n">
         <v>160</v>
       </c>
     </row>
@@ -32630,12 +31658,6 @@
         <v>0</v>
       </c>
       <c r="AU162" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV162" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW162" t="n">
         <v>161</v>
       </c>
     </row>
@@ -32827,12 +31849,6 @@
         <v>0</v>
       </c>
       <c r="AU163" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV163" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW163" t="n">
         <v>162</v>
       </c>
     </row>
@@ -33024,12 +32040,6 @@
         <v>0</v>
       </c>
       <c r="AU164" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV164" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW164" t="n">
         <v>163</v>
       </c>
     </row>
@@ -33219,12 +32229,6 @@
         <v>0</v>
       </c>
       <c r="AU165" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV165" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW165" t="n">
         <v>164</v>
       </c>
     </row>
@@ -33416,12 +32420,6 @@
         <v>0</v>
       </c>
       <c r="AU166" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV166" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW166" t="n">
         <v>165</v>
       </c>
     </row>
@@ -33613,12 +32611,6 @@
         <v>0</v>
       </c>
       <c r="AU167" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV167" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW167" t="n">
         <v>166</v>
       </c>
     </row>
@@ -33810,12 +32802,6 @@
         <v>0</v>
       </c>
       <c r="AU168" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV168" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW168" t="n">
         <v>167</v>
       </c>
     </row>
@@ -34007,12 +32993,6 @@
         <v>0</v>
       </c>
       <c r="AU169" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV169" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW169" t="n">
         <v>168</v>
       </c>
     </row>
@@ -34208,12 +33188,6 @@
         <v>0</v>
       </c>
       <c r="AU170" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV170" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW170" t="n">
         <v>169</v>
       </c>
     </row>
@@ -34403,12 +33377,6 @@
         <v>0</v>
       </c>
       <c r="AU171" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV171" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW171" t="n">
         <v>170</v>
       </c>
     </row>
@@ -34602,12 +33570,6 @@
         <v>0</v>
       </c>
       <c r="AU172" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV172" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW172" t="n">
         <v>171</v>
       </c>
     </row>
@@ -34801,12 +33763,6 @@
         <v>0</v>
       </c>
       <c r="AU173" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV173" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW173" t="n">
         <v>172</v>
       </c>
     </row>
@@ -35002,12 +33958,6 @@
         <v>0</v>
       </c>
       <c r="AU174" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV174" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW174" t="n">
         <v>173</v>
       </c>
     </row>
@@ -35201,12 +34151,6 @@
         <v>0</v>
       </c>
       <c r="AU175" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV175" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW175" t="n">
         <v>174</v>
       </c>
     </row>
@@ -35400,12 +34344,6 @@
         <v>0</v>
       </c>
       <c r="AU176" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV176" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW176" t="n">
         <v>175</v>
       </c>
     </row>
@@ -35599,12 +34537,6 @@
         <v>0</v>
       </c>
       <c r="AU177" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV177" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW177" t="n">
         <v>176</v>
       </c>
     </row>
@@ -35798,12 +34730,6 @@
         <v>0</v>
       </c>
       <c r="AU178" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV178" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW178" t="n">
         <v>177</v>
       </c>
     </row>
@@ -35997,12 +34923,6 @@
         <v>0</v>
       </c>
       <c r="AU179" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV179" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW179" t="n">
         <v>178</v>
       </c>
     </row>
@@ -36200,12 +35120,6 @@
         <v>0</v>
       </c>
       <c r="AU180" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV180" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW180" t="n">
         <v>179</v>
       </c>
     </row>
@@ -36401,12 +35315,6 @@
         <v>0</v>
       </c>
       <c r="AU181" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV181" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW181" t="n">
         <v>180</v>
       </c>
     </row>
@@ -36600,12 +35508,6 @@
         <v>0</v>
       </c>
       <c r="AU182" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV182" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW182" t="n">
         <v>181</v>
       </c>
     </row>
@@ -36799,12 +35701,6 @@
         <v>0</v>
       </c>
       <c r="AU183" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV183" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW183" t="n">
         <v>182</v>
       </c>
     </row>
@@ -36994,12 +35890,6 @@
         <v>0</v>
       </c>
       <c r="AU184" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV184" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW184" t="n">
         <v>183</v>
       </c>
     </row>
@@ -37193,12 +36083,6 @@
         <v>0</v>
       </c>
       <c r="AU185" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV185" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW185" t="n">
         <v>184</v>
       </c>
     </row>
@@ -37394,12 +36278,6 @@
         <v>0</v>
       </c>
       <c r="AU186" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV186" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW186" t="n">
         <v>185</v>
       </c>
     </row>
@@ -37593,12 +36471,6 @@
         <v>0</v>
       </c>
       <c r="AU187" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV187" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW187" t="n">
         <v>186</v>
       </c>
     </row>
@@ -37796,12 +36668,6 @@
         <v>0</v>
       </c>
       <c r="AU188" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV188" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW188" t="n">
         <v>187</v>
       </c>
     </row>
@@ -37995,12 +36861,6 @@
         <v>0</v>
       </c>
       <c r="AU189" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV189" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW189" t="n">
         <v>188</v>
       </c>
     </row>
@@ -38194,12 +37054,6 @@
         <v>0</v>
       </c>
       <c r="AU190" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV190" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW190" t="n">
         <v>189</v>
       </c>
     </row>
@@ -38393,12 +37247,6 @@
         <v>0</v>
       </c>
       <c r="AU191" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV191" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW191" t="n">
         <v>190</v>
       </c>
     </row>
@@ -38592,12 +37440,6 @@
         <v>0</v>
       </c>
       <c r="AU192" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV192" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW192" t="n">
         <v>191</v>
       </c>
     </row>
@@ -38791,12 +37633,6 @@
         <v>0</v>
       </c>
       <c r="AU193" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV193" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW193" t="n">
         <v>192</v>
       </c>
     </row>
@@ -38990,12 +37826,6 @@
         <v>0</v>
       </c>
       <c r="AU194" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV194" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW194" t="n">
         <v>193</v>
       </c>
     </row>
@@ -39197,12 +38027,6 @@
         <v>0</v>
       </c>
       <c r="AU195" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV195" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW195" t="n">
         <v>194</v>
       </c>
     </row>
@@ -39398,12 +38222,6 @@
         <v>0</v>
       </c>
       <c r="AU196" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV196" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW196" t="n">
         <v>195</v>
       </c>
     </row>
@@ -39597,12 +38415,6 @@
         <v>0</v>
       </c>
       <c r="AU197" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV197" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW197" t="n">
         <v>196</v>
       </c>
     </row>
@@ -39796,12 +38608,6 @@
         <v>0</v>
       </c>
       <c r="AU198" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV198" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW198" t="n">
         <v>197</v>
       </c>
     </row>
@@ -39997,12 +38803,6 @@
         <v>0</v>
       </c>
       <c r="AU199" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV199" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW199" t="n">
         <v>198</v>
       </c>
     </row>
@@ -40196,12 +38996,6 @@
         <v>0</v>
       </c>
       <c r="AU200" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV200" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW200" t="n">
         <v>199</v>
       </c>
     </row>
@@ -40391,12 +39185,6 @@
         <v>0</v>
       </c>
       <c r="AU201" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV201" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW201" t="n">
         <v>200</v>
       </c>
     </row>
@@ -40604,12 +39392,6 @@
         <v>0</v>
       </c>
       <c r="AU202" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV202" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW202" t="n">
         <v>201</v>
       </c>
     </row>
@@ -40805,12 +39587,6 @@
         <v>0</v>
       </c>
       <c r="AU203" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV203" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW203" t="n">
         <v>202</v>
       </c>
     </row>
@@ -41004,12 +39780,6 @@
         <v>0</v>
       </c>
       <c r="AU204" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV204" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW204" t="n">
         <v>203</v>
       </c>
     </row>
@@ -41203,12 +39973,6 @@
         <v>0</v>
       </c>
       <c r="AU205" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV205" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW205" t="n">
         <v>204</v>
       </c>
     </row>
@@ -41402,12 +40166,6 @@
         <v>0</v>
       </c>
       <c r="AU206" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV206" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW206" t="n">
         <v>205</v>
       </c>
     </row>
@@ -41601,12 +40359,6 @@
         <v>0</v>
       </c>
       <c r="AU207" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV207" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW207" t="n">
         <v>206</v>
       </c>
     </row>
@@ -41816,12 +40568,6 @@
         <v>0</v>
       </c>
       <c r="AU208" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV208" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW208" t="n">
         <v>207</v>
       </c>
     </row>
@@ -42017,12 +40763,6 @@
         <v>0</v>
       </c>
       <c r="AU209" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV209" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW209" t="n">
         <v>208</v>
       </c>
     </row>
@@ -42216,12 +40956,6 @@
         <v>0</v>
       </c>
       <c r="AU210" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV210" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW210" t="n">
         <v>209</v>
       </c>
     </row>
@@ -42415,12 +41149,6 @@
         <v>0</v>
       </c>
       <c r="AU211" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV211" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW211" t="n">
         <v>210</v>
       </c>
     </row>
@@ -42614,12 +41342,6 @@
         <v>0</v>
       </c>
       <c r="AU212" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV212" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW212" t="n">
         <v>211</v>
       </c>
     </row>
@@ -42813,12 +41535,6 @@
         <v>0</v>
       </c>
       <c r="AU213" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV213" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW213" t="n">
         <v>212</v>
       </c>
     </row>
@@ -43012,12 +41728,6 @@
         <v>0</v>
       </c>
       <c r="AU214" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV214" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW214" t="n">
         <v>213</v>
       </c>
     </row>
@@ -43211,12 +41921,6 @@
         <v>0</v>
       </c>
       <c r="AU215" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV215" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW215" t="n">
         <v>214</v>
       </c>
     </row>
@@ -43418,12 +42122,6 @@
         <v>0</v>
       </c>
       <c r="AU216" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV216" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW216" t="n">
         <v>215</v>
       </c>
     </row>
@@ -43621,12 +42319,6 @@
         <v>0</v>
       </c>
       <c r="AU217" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV217" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW217" t="n">
         <v>216</v>
       </c>
     </row>
@@ -43820,12 +42512,6 @@
         <v>0</v>
       </c>
       <c r="AU218" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV218" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW218" t="n">
         <v>217</v>
       </c>
     </row>
@@ -44021,12 +42707,6 @@
         <v>0</v>
       </c>
       <c r="AU219" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV219" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW219" t="n">
         <v>218</v>
       </c>
     </row>
@@ -44220,12 +42900,6 @@
         <v>0</v>
       </c>
       <c r="AU220" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV220" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW220" t="n">
         <v>219</v>
       </c>
     </row>
@@ -44419,12 +43093,6 @@
         <v>0</v>
       </c>
       <c r="AU221" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV221" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW221" t="n">
         <v>220</v>
       </c>
     </row>
@@ -44622,12 +43290,6 @@
         <v>0</v>
       </c>
       <c r="AU222" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV222" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW222" t="n">
         <v>221</v>
       </c>
     </row>
@@ -44821,12 +43483,6 @@
         <v>0</v>
       </c>
       <c r="AU223" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV223" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW223" t="n">
         <v>222</v>
       </c>
     </row>
@@ -45024,12 +43680,6 @@
         <v>0</v>
       </c>
       <c r="AU224" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV224" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW224" t="n">
         <v>223</v>
       </c>
     </row>
@@ -45223,12 +43873,6 @@
         <v>0</v>
       </c>
       <c r="AU225" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV225" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW225" t="n">
         <v>224</v>
       </c>
     </row>
@@ -45422,12 +44066,6 @@
         <v>0</v>
       </c>
       <c r="AU226" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV226" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW226" t="n">
         <v>225</v>
       </c>
     </row>
@@ -45623,12 +44261,6 @@
         <v>0</v>
       </c>
       <c r="AU227" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV227" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW227" t="n">
         <v>226</v>
       </c>
     </row>
@@ -45820,12 +44452,6 @@
         <v>0</v>
       </c>
       <c r="AU228" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV228" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW228" t="n">
         <v>227</v>
       </c>
     </row>
@@ -46017,12 +44643,6 @@
         <v>0</v>
       </c>
       <c r="AU229" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV229" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW229" t="n">
         <v>228</v>
       </c>
     </row>
@@ -46216,12 +44836,6 @@
         <v>0</v>
       </c>
       <c r="AU230" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV230" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW230" t="n">
         <v>229</v>
       </c>
     </row>
@@ -46419,12 +45033,6 @@
         <v>0</v>
       </c>
       <c r="AU231" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV231" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW231" t="n">
         <v>230</v>
       </c>
     </row>
@@ -46624,12 +45232,6 @@
         <v>0</v>
       </c>
       <c r="AU232" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV232" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW232" t="n">
         <v>231</v>
       </c>
     </row>
@@ -46823,12 +45425,6 @@
         <v>0</v>
       </c>
       <c r="AU233" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV233" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW233" t="n">
         <v>232</v>
       </c>
     </row>
@@ -47024,12 +45620,6 @@
         <v>0</v>
       </c>
       <c r="AU234" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV234" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW234" t="n">
         <v>233</v>
       </c>
     </row>
@@ -47223,12 +45813,6 @@
         <v>0</v>
       </c>
       <c r="AU235" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV235" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW235" t="n">
         <v>234</v>
       </c>
     </row>
@@ -47424,12 +46008,6 @@
         <v>0</v>
       </c>
       <c r="AU236" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV236" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW236" t="n">
         <v>235</v>
       </c>
     </row>
@@ -47623,12 +46201,6 @@
         <v>0</v>
       </c>
       <c r="AU237" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV237" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW237" t="n">
         <v>236</v>
       </c>
     </row>
@@ -47822,12 +46394,6 @@
         <v>0</v>
       </c>
       <c r="AU238" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV238" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW238" t="n">
         <v>237</v>
       </c>
     </row>
@@ -48021,12 +46587,6 @@
         <v>0</v>
       </c>
       <c r="AU239" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV239" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW239" t="n">
         <v>238</v>
       </c>
     </row>
@@ -48220,12 +46780,6 @@
         <v>0</v>
       </c>
       <c r="AU240" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV240" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW240" t="n">
         <v>239</v>
       </c>
     </row>
@@ -48421,12 +46975,6 @@
         <v>0</v>
       </c>
       <c r="AU241" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV241" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW241" t="n">
         <v>240</v>
       </c>
     </row>
@@ -48624,12 +47172,6 @@
         <v>0</v>
       </c>
       <c r="AU242" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV242" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW242" t="n">
         <v>241</v>
       </c>
     </row>
@@ -48823,12 +47365,6 @@
         <v>0</v>
       </c>
       <c r="AU243" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV243" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW243" t="n">
         <v>242</v>
       </c>
     </row>
@@ -49024,12 +47560,6 @@
         <v>0</v>
       </c>
       <c r="AU244" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV244" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW244" t="n">
         <v>243</v>
       </c>
     </row>
@@ -49223,12 +47753,6 @@
         <v>0</v>
       </c>
       <c r="AU245" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV245" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW245" t="n">
         <v>244</v>
       </c>
     </row>
@@ -49426,12 +47950,6 @@
         <v>0</v>
       </c>
       <c r="AU246" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV246" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW246" t="n">
         <v>245</v>
       </c>
     </row>
@@ -49625,12 +48143,6 @@
         <v>0</v>
       </c>
       <c r="AU247" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV247" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW247" t="n">
         <v>246</v>
       </c>
     </row>
@@ -49826,12 +48338,6 @@
         <v>0</v>
       </c>
       <c r="AU248" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV248" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW248" t="n">
         <v>247</v>
       </c>
     </row>
@@ -50025,12 +48531,6 @@
         <v>0</v>
       </c>
       <c r="AU249" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV249" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW249" t="n">
         <v>248</v>
       </c>
     </row>
@@ -50224,12 +48724,6 @@
         <v>0</v>
       </c>
       <c r="AU250" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV250" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW250" t="n">
         <v>249</v>
       </c>
     </row>
@@ -50439,12 +48933,6 @@
         <v>0</v>
       </c>
       <c r="AU251" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV251" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW251" t="n">
         <v>250</v>
       </c>
     </row>
@@ -50644,12 +49132,6 @@
         <v>0</v>
       </c>
       <c r="AU252" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV252" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW252" t="n">
         <v>251</v>
       </c>
     </row>
@@ -50841,12 +49323,6 @@
         <v>0</v>
       </c>
       <c r="AU253" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV253" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW253" t="n">
         <v>252</v>
       </c>
     </row>
@@ -51036,12 +49512,6 @@
         <v>0</v>
       </c>
       <c r="AU254" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV254" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW254" t="n">
         <v>253</v>
       </c>
     </row>
@@ -51229,12 +49699,6 @@
         <v>0</v>
       </c>
       <c r="AU255" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV255" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW255" t="n">
         <v>254</v>
       </c>
     </row>
@@ -51428,12 +49892,6 @@
         <v>0</v>
       </c>
       <c r="AU256" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV256" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW256" t="n">
         <v>255</v>
       </c>
     </row>
@@ -51627,12 +50085,6 @@
         <v>0</v>
       </c>
       <c r="AU257" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV257" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW257" t="n">
         <v>256</v>
       </c>
     </row>
@@ -51826,12 +50278,6 @@
         <v>0</v>
       </c>
       <c r="AU258" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV258" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW258" t="n">
         <v>257</v>
       </c>
     </row>
@@ -52025,12 +50471,6 @@
         <v>0</v>
       </c>
       <c r="AU259" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV259" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW259" t="n">
         <v>258</v>
       </c>
     </row>
@@ -52228,12 +50668,6 @@
         <v>0</v>
       </c>
       <c r="AU260" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV260" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW260" t="n">
         <v>259</v>
       </c>
     </row>
@@ -52421,12 +50855,6 @@
         <v>0</v>
       </c>
       <c r="AU261" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV261" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW261" t="n">
         <v>260</v>
       </c>
     </row>
@@ -52618,12 +51046,6 @@
         <v>0</v>
       </c>
       <c r="AU262" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV262" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW262" t="n">
         <v>261</v>
       </c>
     </row>
@@ -52817,12 +51239,6 @@
         <v>0</v>
       </c>
       <c r="AU263" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV263" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW263" t="n">
         <v>262</v>
       </c>
     </row>
@@ -53016,12 +51432,6 @@
         <v>0</v>
       </c>
       <c r="AU264" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV264" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW264" t="n">
         <v>263</v>
       </c>
     </row>
@@ -53215,12 +51625,6 @@
         <v>0</v>
       </c>
       <c r="AU265" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV265" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW265" t="n">
         <v>264</v>
       </c>
     </row>
@@ -53414,12 +51818,6 @@
         <v>0</v>
       </c>
       <c r="AU266" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV266" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW266" t="n">
         <v>265</v>
       </c>
     </row>
@@ -53609,12 +52007,6 @@
         <v>0</v>
       </c>
       <c r="AU267" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV267" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW267" t="n">
         <v>266</v>
       </c>
     </row>
@@ -53808,12 +52200,6 @@
         <v>0</v>
       </c>
       <c r="AU268" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV268" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW268" t="n">
         <v>267</v>
       </c>
     </row>
@@ -54007,12 +52393,6 @@
         <v>0</v>
       </c>
       <c r="AU269" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV269" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW269" t="n">
         <v>268</v>
       </c>
     </row>
@@ -54206,12 +52586,6 @@
         <v>0</v>
       </c>
       <c r="AU270" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV270" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW270" t="n">
         <v>269</v>
       </c>
     </row>
@@ -54415,12 +52789,6 @@
         <v>0</v>
       </c>
       <c r="AU271" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV271" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW271" t="n">
         <v>270</v>
       </c>
     </row>
@@ -54614,12 +52982,6 @@
         <v>0</v>
       </c>
       <c r="AU272" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV272" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW272" t="n">
         <v>271</v>
       </c>
     </row>
@@ -54811,12 +53173,6 @@
         <v>0</v>
       </c>
       <c r="AU273" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV273" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW273" t="n">
         <v>272</v>
       </c>
     </row>
@@ -55010,12 +53366,6 @@
         <v>0</v>
       </c>
       <c r="AU274" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV274" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW274" t="n">
         <v>273</v>
       </c>
     </row>
@@ -55209,12 +53559,6 @@
         <v>0</v>
       </c>
       <c r="AU275" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV275" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW275" t="n">
         <v>274</v>
       </c>
     </row>
@@ -55408,12 +53752,6 @@
         <v>0</v>
       </c>
       <c r="AU276" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV276" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW276" t="n">
         <v>275</v>
       </c>
     </row>
@@ -55611,12 +53949,6 @@
         <v>0</v>
       </c>
       <c r="AU277" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV277" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW277" t="n">
         <v>276</v>
       </c>
     </row>
@@ -55810,12 +54142,6 @@
         <v>0</v>
       </c>
       <c r="AU278" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV278" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW278" t="n">
         <v>277</v>
       </c>
     </row>
@@ -56011,12 +54337,6 @@
         <v>0</v>
       </c>
       <c r="AU279" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV279" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW279" t="n">
         <v>278</v>
       </c>
     </row>
@@ -56210,12 +54530,6 @@
         <v>0</v>
       </c>
       <c r="AU280" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV280" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW280" t="n">
         <v>279</v>
       </c>
     </row>
@@ -56405,12 +54719,6 @@
         <v>0</v>
       </c>
       <c r="AU281" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV281" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW281" t="n">
         <v>280</v>
       </c>
     </row>
@@ -56608,12 +54916,6 @@
         <v>0</v>
       </c>
       <c r="AU282" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV282" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW282" t="n">
         <v>281</v>
       </c>
     </row>
@@ -56807,12 +55109,6 @@
         <v>0</v>
       </c>
       <c r="AU283" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV283" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW283" t="n">
         <v>282</v>
       </c>
     </row>
@@ -57006,12 +55302,6 @@
         <v>0</v>
       </c>
       <c r="AU284" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV284" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW284" t="n">
         <v>283</v>
       </c>
     </row>
@@ -57211,12 +55501,6 @@
         <v>0</v>
       </c>
       <c r="AU285" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV285" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW285" t="n">
         <v>284</v>
       </c>
     </row>
@@ -57410,12 +55694,6 @@
         <v>0</v>
       </c>
       <c r="AU286" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV286" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW286" t="n">
         <v>285</v>
       </c>
     </row>
@@ -57609,12 +55887,6 @@
         <v>0</v>
       </c>
       <c r="AU287" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV287" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW287" t="n">
         <v>286</v>
       </c>
     </row>
@@ -57818,12 +56090,6 @@
         <v>0</v>
       </c>
       <c r="AU288" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV288" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW288" t="n">
         <v>287</v>
       </c>
     </row>
@@ -58015,12 +56281,6 @@
         <v>0</v>
       </c>
       <c r="AU289" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV289" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW289" t="n">
         <v>288</v>
       </c>
     </row>
@@ -58214,12 +56474,6 @@
         <v>0</v>
       </c>
       <c r="AU290" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV290" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW290" t="n">
         <v>289</v>
       </c>
     </row>
@@ -58415,12 +56669,6 @@
         <v>0</v>
       </c>
       <c r="AU291" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV291" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW291" t="n">
         <v>290</v>
       </c>
     </row>
@@ -58614,12 +56862,6 @@
         <v>0</v>
       </c>
       <c r="AU292" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV292" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW292" t="n">
         <v>291</v>
       </c>
     </row>
@@ -58815,12 +57057,6 @@
         <v>0</v>
       </c>
       <c r="AU293" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV293" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW293" t="n">
         <v>292</v>
       </c>
     </row>
@@ -59014,12 +57250,6 @@
         <v>0</v>
       </c>
       <c r="AU294" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV294" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW294" t="n">
         <v>293</v>
       </c>
     </row>
@@ -59211,12 +57441,6 @@
         <v>0</v>
       </c>
       <c r="AU295" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV295" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW295" t="n">
         <v>294</v>
       </c>
     </row>
@@ -59412,12 +57636,6 @@
         <v>0</v>
       </c>
       <c r="AU296" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV296" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW296" t="n">
         <v>295</v>
       </c>
     </row>
@@ -59611,12 +57829,6 @@
         <v>0</v>
       </c>
       <c r="AU297" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV297" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW297" t="n">
         <v>296</v>
       </c>
     </row>
@@ -59810,12 +58022,6 @@
         <v>0</v>
       </c>
       <c r="AU298" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV298" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW298" t="n">
         <v>297</v>
       </c>
     </row>
@@ -60009,12 +58215,6 @@
         <v>0</v>
       </c>
       <c r="AU299" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV299" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW299" t="n">
         <v>298</v>
       </c>
     </row>
@@ -60208,12 +58408,6 @@
         <v>0</v>
       </c>
       <c r="AU300" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV300" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW300" t="n">
         <v>299</v>
       </c>
     </row>
@@ -60413,12 +58607,6 @@
         <v>0</v>
       </c>
       <c r="AU301" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV301" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW301" t="n">
         <v>300</v>
       </c>
     </row>
@@ -60610,12 +58798,6 @@
         <v>0</v>
       </c>
       <c r="AU302" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV302" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW302" t="n">
         <v>301</v>
       </c>
     </row>
@@ -60811,12 +58993,6 @@
         <v>0</v>
       </c>
       <c r="AU303" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV303" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW303" t="n">
         <v>302</v>
       </c>
     </row>
@@ -61014,12 +59190,6 @@
         <v>0</v>
       </c>
       <c r="AU304" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV304" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW304" t="n">
         <v>303</v>
       </c>
     </row>
@@ -61213,12 +59383,6 @@
         <v>0</v>
       </c>
       <c r="AU305" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV305" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW305" t="n">
         <v>304</v>
       </c>
     </row>
@@ -61414,12 +59578,6 @@
         <v>0</v>
       </c>
       <c r="AU306" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV306" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW306" t="n">
         <v>305</v>
       </c>
     </row>
@@ -61613,12 +59771,6 @@
         <v>0</v>
       </c>
       <c r="AU307" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV307" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW307" t="n">
         <v>306</v>
       </c>
     </row>
@@ -61812,12 +59964,6 @@
         <v>0</v>
       </c>
       <c r="AU308" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV308" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW308" t="n">
         <v>307</v>
       </c>
     </row>
@@ -62007,12 +60153,6 @@
         <v>0</v>
       </c>
       <c r="AU309" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV309" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW309" t="n">
         <v>308</v>
       </c>
     </row>
@@ -62208,12 +60348,6 @@
         <v>0</v>
       </c>
       <c r="AU310" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV310" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW310" t="n">
         <v>309</v>
       </c>
     </row>
@@ -62407,12 +60541,6 @@
         <v>0</v>
       </c>
       <c r="AU311" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV311" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW311" t="n">
         <v>310</v>
       </c>
     </row>
@@ -62608,12 +60736,6 @@
         <v>0</v>
       </c>
       <c r="AU312" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV312" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW312" t="n">
         <v>311</v>
       </c>
     </row>
@@ -62811,12 +60933,6 @@
         <v>0</v>
       </c>
       <c r="AU313" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV313" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW313" t="n">
         <v>312</v>
       </c>
     </row>
@@ -63010,12 +61126,6 @@
         <v>0</v>
       </c>
       <c r="AU314" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV314" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW314" t="n">
         <v>313</v>
       </c>
     </row>
@@ -63209,12 +61319,6 @@
         <v>0</v>
       </c>
       <c r="AU315" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV315" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW315" t="n">
         <v>314</v>
       </c>
     </row>
@@ -63410,12 +61514,6 @@
         <v>0</v>
       </c>
       <c r="AU316" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV316" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW316" t="n">
         <v>315</v>
       </c>
     </row>
@@ -63609,12 +61707,6 @@
         <v>0</v>
       </c>
       <c r="AU317" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV317" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW317" t="n">
         <v>316</v>
       </c>
     </row>
@@ -63808,12 +61900,6 @@
         <v>0</v>
       </c>
       <c r="AU318" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV318" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW318" t="n">
         <v>317</v>
       </c>
     </row>
@@ -63995,12 +62081,6 @@
         <v>0</v>
       </c>
       <c r="AU319" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV319" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW319" t="n">
         <v>318</v>
       </c>
     </row>
@@ -64180,12 +62260,6 @@
         <v>0</v>
       </c>
       <c r="AU320" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV320" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW320" t="n">
         <v>319</v>
       </c>
     </row>
@@ -64365,12 +62439,6 @@
         <v>0</v>
       </c>
       <c r="AU321" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV321" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW321" t="n">
         <v>320</v>
       </c>
     </row>
@@ -64550,12 +62618,6 @@
         <v>0</v>
       </c>
       <c r="AU322" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV322" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW322" t="n">
         <v>321</v>
       </c>
     </row>
@@ -64735,12 +62797,6 @@
         <v>0</v>
       </c>
       <c r="AU323" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV323" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW323" t="n">
         <v>322</v>
       </c>
     </row>
@@ -64920,12 +62976,6 @@
         <v>0</v>
       </c>
       <c r="AU324" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV324" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW324" t="n">
         <v>323</v>
       </c>
     </row>
@@ -65105,12 +63155,6 @@
         <v>0</v>
       </c>
       <c r="AU325" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV325" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW325" t="n">
         <v>324</v>
       </c>
     </row>
@@ -65290,12 +63334,6 @@
         <v>0</v>
       </c>
       <c r="AU326" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV326" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW326" t="n">
         <v>325</v>
       </c>
     </row>
@@ -65475,12 +63513,6 @@
         <v>0</v>
       </c>
       <c r="AU327" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV327" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW327" t="n">
         <v>326</v>
       </c>
     </row>
@@ -65660,12 +63692,6 @@
         <v>0</v>
       </c>
       <c r="AU328" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV328" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW328" t="n">
         <v>327</v>
       </c>
     </row>
@@ -65845,12 +63871,6 @@
         <v>0</v>
       </c>
       <c r="AU329" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV329" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW329" t="n">
         <v>328</v>
       </c>
     </row>
@@ -66030,12 +64050,6 @@
         <v>0</v>
       </c>
       <c r="AU330" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV330" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW330" t="n">
         <v>329</v>
       </c>
     </row>
@@ -66231,12 +64245,6 @@
         <v>0</v>
       </c>
       <c r="AU331" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV331" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW331" t="n">
         <v>330</v>
       </c>
     </row>
@@ -66420,12 +64428,6 @@
         <v>0</v>
       </c>
       <c r="AU332" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV332" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW332" t="n">
         <v>331</v>
       </c>
     </row>
@@ -66595,12 +64597,6 @@
         <v>0</v>
       </c>
       <c r="AU333" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV333" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW333" t="n">
         <v>332</v>
       </c>
     </row>
@@ -66772,12 +64768,6 @@
         <v>0</v>
       </c>
       <c r="AU334" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV334" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW334" t="n">
         <v>333</v>
       </c>
     </row>
@@ -66957,12 +64947,6 @@
         <v>0</v>
       </c>
       <c r="AU335" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV335" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW335" t="n">
         <v>334</v>
       </c>
     </row>
@@ -67140,12 +65124,6 @@
         <v>0</v>
       </c>
       <c r="AU336" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV336" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW336" t="n">
         <v>335</v>
       </c>
     </row>
@@ -67317,12 +65295,6 @@
         <v>0</v>
       </c>
       <c r="AU337" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV337" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW337" t="n">
         <v>336</v>
       </c>
     </row>
@@ -67494,12 +65466,6 @@
         <v>0</v>
       </c>
       <c r="AU338" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV338" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW338" t="n">
         <v>337</v>
       </c>
     </row>
@@ -67671,12 +65637,6 @@
         <v>0</v>
       </c>
       <c r="AU339" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV339" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW339" t="n">
         <v>338</v>
       </c>
     </row>
@@ -67848,12 +65808,6 @@
         <v>0</v>
       </c>
       <c r="AU340" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV340" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW340" t="n">
         <v>339</v>
       </c>
     </row>
@@ -68029,12 +65983,6 @@
         <v>0</v>
       </c>
       <c r="AU341" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV341" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW341" t="n">
         <v>340</v>
       </c>
     </row>
@@ -68206,12 +66154,6 @@
         <v>0</v>
       </c>
       <c r="AU342" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV342" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW342" t="n">
         <v>341</v>
       </c>
     </row>
@@ -68379,12 +66321,6 @@
         <v>0</v>
       </c>
       <c r="AU343" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV343" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW343" t="n">
         <v>342</v>
       </c>
     </row>
@@ -68550,12 +66486,6 @@
         <v>0</v>
       </c>
       <c r="AU344" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV344" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW344" t="n">
         <v>343</v>
       </c>
     </row>
@@ -68723,12 +66653,6 @@
         <v>0</v>
       </c>
       <c r="AU345" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV345" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW345" t="n">
         <v>344</v>
       </c>
     </row>
@@ -68902,12 +66826,6 @@
         <v>0</v>
       </c>
       <c r="AU346" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV346" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW346" t="n">
         <v>345</v>
       </c>
     </row>
@@ -69083,12 +67001,6 @@
         <v>0</v>
       </c>
       <c r="AU347" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV347" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW347" t="n">
         <v>346</v>
       </c>
     </row>
@@ -69258,12 +67170,6 @@
         <v>0</v>
       </c>
       <c r="AU348" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV348" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW348" t="n">
         <v>347</v>
       </c>
     </row>
@@ -69435,12 +67341,6 @@
         <v>0</v>
       </c>
       <c r="AU349" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV349" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW349" t="n">
         <v>348</v>
       </c>
     </row>
@@ -69612,12 +67512,6 @@
         <v>0</v>
       </c>
       <c r="AU350" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV350" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW350" t="n">
         <v>349</v>
       </c>
     </row>
@@ -69789,12 +67683,6 @@
         <v>0</v>
       </c>
       <c r="AU351" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV351" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW351" t="n">
         <v>350</v>
       </c>
     </row>
@@ -69966,12 +67854,6 @@
         <v>0</v>
       </c>
       <c r="AU352" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV352" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW352" t="n">
         <v>351</v>
       </c>
     </row>
@@ -70153,12 +68035,6 @@
         <v>0</v>
       </c>
       <c r="AU353" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV353" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW353" t="n">
         <v>352</v>
       </c>
     </row>
@@ -70330,12 +68206,6 @@
         <v>0</v>
       </c>
       <c r="AU354" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV354" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW354" t="n">
         <v>353</v>
       </c>
     </row>
@@ -70497,12 +68367,6 @@
         <v>0</v>
       </c>
       <c r="AU355" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV355" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW355" t="n">
         <v>354</v>
       </c>
     </row>
@@ -70670,12 +68534,6 @@
         <v>0</v>
       </c>
       <c r="AU356" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV356" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW356" t="n">
         <v>355</v>
       </c>
     </row>
@@ -70845,12 +68703,6 @@
         <v>0</v>
       </c>
       <c r="AU357" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV357" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW357" t="n">
         <v>356</v>
       </c>
     </row>
@@ -71020,12 +68872,6 @@
         <v>0</v>
       </c>
       <c r="AU358" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV358" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW358" t="n">
         <v>357</v>
       </c>
     </row>
@@ -71195,12 +69041,6 @@
         <v>0</v>
       </c>
       <c r="AU359" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV359" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW359" t="n">
         <v>358</v>
       </c>
     </row>
@@ -71366,12 +69206,6 @@
         <v>0</v>
       </c>
       <c r="AU360" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV360" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW360" t="n">
         <v>359</v>
       </c>
     </row>
@@ -71533,12 +69367,6 @@
         <v>0</v>
       </c>
       <c r="AU361" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV361" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW361" t="n">
         <v>360</v>
       </c>
     </row>
@@ -71706,12 +69534,6 @@
         <v>0</v>
       </c>
       <c r="AU362" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV362" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW362" t="n">
         <v>361</v>
       </c>
     </row>
@@ -71879,12 +69701,6 @@
         <v>0</v>
       </c>
       <c r="AU363" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV363" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW363" t="n">
         <v>362</v>
       </c>
     </row>
@@ -72048,12 +69864,6 @@
         <v>0</v>
       </c>
       <c r="AU364" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV364" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW364" t="n">
         <v>363</v>
       </c>
     </row>
@@ -72219,12 +70029,6 @@
         <v>0</v>
       </c>
       <c r="AU365" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV365" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW365" t="n">
         <v>364</v>
       </c>
     </row>
@@ -72390,12 +70194,6 @@
         <v>0</v>
       </c>
       <c r="AU366" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV366" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW366" t="n">
         <v>365</v>
       </c>
     </row>
@@ -72561,12 +70359,6 @@
         <v>0</v>
       </c>
       <c r="AU367" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV367" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW367" t="n">
         <v>366</v>
       </c>
     </row>
@@ -72732,12 +70524,6 @@
         <v>0</v>
       </c>
       <c r="AU368" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV368" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW368" t="n">
         <v>367</v>
       </c>
     </row>
@@ -72903,12 +70689,6 @@
         <v>0</v>
       </c>
       <c r="AU369" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV369" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW369" t="n">
         <v>368</v>
       </c>
     </row>
@@ -73074,12 +70854,6 @@
         <v>0</v>
       </c>
       <c r="AU370" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV370" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW370" t="n">
         <v>369</v>
       </c>
     </row>
@@ -73245,12 +71019,6 @@
         <v>0</v>
       </c>
       <c r="AU371" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV371" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW371" t="n">
         <v>370</v>
       </c>
     </row>
@@ -73412,12 +71180,6 @@
         <v>0</v>
       </c>
       <c r="AU372" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV372" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW372" t="n">
         <v>371</v>
       </c>
     </row>
@@ -73579,12 +71341,6 @@
         <v>0</v>
       </c>
       <c r="AU373" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV373" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW373" t="n">
         <v>372</v>
       </c>
     </row>
@@ -73746,12 +71502,6 @@
         <v>0</v>
       </c>
       <c r="AU374" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV374" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW374" t="n">
         <v>373</v>
       </c>
     </row>
@@ -73913,12 +71663,6 @@
         <v>0</v>
       </c>
       <c r="AU375" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV375" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW375" t="n">
         <v>374</v>
       </c>
     </row>
@@ -74084,12 +71828,6 @@
         <v>0</v>
       </c>
       <c r="AU376" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV376" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW376" t="n">
         <v>375</v>
       </c>
     </row>
@@ -74253,12 +71991,6 @@
         <v>0</v>
       </c>
       <c r="AU377" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV377" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW377" t="n">
         <v>376</v>
       </c>
     </row>
@@ -74422,12 +72154,6 @@
         <v>0</v>
       </c>
       <c r="AU378" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV378" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW378" t="n">
         <v>377</v>
       </c>
     </row>
@@ -74591,12 +72317,6 @@
         <v>0</v>
       </c>
       <c r="AU379" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV379" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW379" t="n">
         <v>378</v>
       </c>
     </row>
@@ -74760,12 +72480,6 @@
         <v>0</v>
       </c>
       <c r="AU380" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV380" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW380" t="n">
         <v>379</v>
       </c>
     </row>
@@ -74939,12 +72653,6 @@
         <v>0</v>
       </c>
       <c r="AU381" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV381" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW381" t="n">
         <v>380</v>
       </c>
     </row>
@@ -75104,12 +72812,6 @@
         <v>0</v>
       </c>
       <c r="AU382" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV382" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW382" t="n">
         <v>381</v>
       </c>
     </row>
@@ -75269,12 +72971,6 @@
         <v>0</v>
       </c>
       <c r="AU383" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV383" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW383" t="n">
         <v>382</v>
       </c>
     </row>
@@ -75434,12 +73130,6 @@
         <v>0</v>
       </c>
       <c r="AU384" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV384" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW384" t="n">
         <v>383</v>
       </c>
     </row>
@@ -75599,12 +73289,6 @@
         <v>0</v>
       </c>
       <c r="AU385" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV385" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW385" t="n">
         <v>384</v>
       </c>
     </row>
@@ -75766,12 +73450,6 @@
         <v>0</v>
       </c>
       <c r="AU386" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV386" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW386" t="n">
         <v>385</v>
       </c>
     </row>
@@ -75937,12 +73615,6 @@
         <v>0</v>
       </c>
       <c r="AU387" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV387" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW387" t="n">
         <v>386</v>
       </c>
     </row>
@@ -76104,12 +73776,6 @@
         <v>0</v>
       </c>
       <c r="AU388" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV388" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW388" t="n">
         <v>387</v>
       </c>
     </row>
@@ -76265,12 +73931,6 @@
         <v>0</v>
       </c>
       <c r="AU389" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV389" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW389" t="n">
         <v>388</v>
       </c>
     </row>
@@ -76428,12 +74088,6 @@
         <v>0</v>
       </c>
       <c r="AU390" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV390" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW390" t="n">
         <v>389</v>
       </c>
     </row>
@@ -76593,12 +74247,6 @@
         <v>0</v>
       </c>
       <c r="AU391" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV391" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW391" t="n">
         <v>390</v>
       </c>
     </row>
@@ -76758,12 +74406,6 @@
         <v>0</v>
       </c>
       <c r="AU392" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV392" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW392" t="n">
         <v>391</v>
       </c>
     </row>
@@ -76923,12 +74565,6 @@
         <v>0</v>
       </c>
       <c r="AU393" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV393" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW393" t="n">
         <v>392</v>
       </c>
     </row>
@@ -77088,12 +74724,6 @@
         <v>0</v>
       </c>
       <c r="AU394" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV394" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW394" t="n">
         <v>393</v>
       </c>
     </row>
@@ -77251,12 +74881,6 @@
         <v>0</v>
       </c>
       <c r="AU395" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV395" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW395" t="n">
         <v>394</v>
       </c>
     </row>
@@ -77414,12 +75038,6 @@
         <v>0</v>
       </c>
       <c r="AU396" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV396" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW396" t="n">
         <v>395</v>
       </c>
     </row>
@@ -77577,12 +75195,6 @@
         <v>0</v>
       </c>
       <c r="AU397" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV397" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW397" t="n">
         <v>396</v>
       </c>
     </row>
@@ -77740,12 +75352,6 @@
         <v>0</v>
       </c>
       <c r="AU398" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV398" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW398" t="n">
         <v>397</v>
       </c>
     </row>
@@ -77899,12 +75505,6 @@
         <v>0</v>
       </c>
       <c r="AU399" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV399" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW399" t="n">
         <v>398</v>
       </c>
     </row>
@@ -78058,12 +75658,6 @@
         <v>0</v>
       </c>
       <c r="AU400" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV400" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW400" t="n">
         <v>399</v>
       </c>
     </row>
@@ -78217,12 +75811,6 @@
         <v>0</v>
       </c>
       <c r="AU401" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV401" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW401" t="n">
         <v>400</v>
       </c>
     </row>
@@ -78376,12 +75964,6 @@
         <v>0</v>
       </c>
       <c r="AU402" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV402" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW402" t="n">
         <v>401</v>
       </c>
     </row>
@@ -78535,12 +76117,6 @@
         <v>0</v>
       </c>
       <c r="AU403" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV403" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW403" t="n">
         <v>402</v>
       </c>
     </row>
@@ -78694,12 +76270,6 @@
         <v>0</v>
       </c>
       <c r="AU404" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV404" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW404" t="n">
         <v>403</v>
       </c>
     </row>
@@ -78853,12 +76423,6 @@
         <v>0</v>
       </c>
       <c r="AU405" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV405" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW405" t="n">
         <v>404</v>
       </c>
     </row>
@@ -79012,12 +76576,6 @@
         <v>0</v>
       </c>
       <c r="AU406" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV406" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW406" t="n">
         <v>405</v>
       </c>
     </row>
@@ -79171,12 +76729,6 @@
         <v>0</v>
       </c>
       <c r="AU407" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV407" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW407" t="n">
         <v>406</v>
       </c>
     </row>
@@ -79340,12 +76892,6 @@
         <v>0</v>
       </c>
       <c r="AU408" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV408" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW408" t="n">
         <v>407</v>
       </c>
     </row>
@@ -79499,12 +77045,6 @@
         <v>0</v>
       </c>
       <c r="AU409" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV409" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW409" t="n">
         <v>408</v>
       </c>
     </row>
@@ -79658,12 +77198,6 @@
         <v>0</v>
       </c>
       <c r="AU410" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV410" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW410" t="n">
         <v>409</v>
       </c>
     </row>
@@ -79815,12 +77349,6 @@
         <v>0</v>
       </c>
       <c r="AU411" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV411" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW411" t="n">
         <v>410</v>
       </c>
     </row>
@@ -79972,12 +77500,6 @@
         <v>0</v>
       </c>
       <c r="AU412" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV412" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW412" t="n">
         <v>411</v>
       </c>
     </row>
@@ -80129,12 +77651,6 @@
         <v>0</v>
       </c>
       <c r="AU413" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV413" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW413" t="n">
         <v>412</v>
       </c>
     </row>
@@ -80286,12 +77802,6 @@
         <v>0</v>
       </c>
       <c r="AU414" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV414" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW414" t="n">
         <v>413</v>
       </c>
     </row>
@@ -80443,12 +77953,6 @@
         <v>0</v>
       </c>
       <c r="AU415" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV415" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW415" t="n">
         <v>414</v>
       </c>
     </row>
@@ -80600,12 +78104,6 @@
         <v>0</v>
       </c>
       <c r="AU416" t="n">
-        <v>97</v>
-      </c>
-      <c r="AV416" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW416" t="n">
         <v>415</v>
       </c>
     </row>

--- a/docs/downloads/rankings_latest.xlsx
+++ b/docs/downloads/rankings_latest.xlsx
@@ -3342,125 +3342,171 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HOPKINS</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v/>
+          <t>WISEMAN</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="F12" s="4" t="n">
         <v/>
       </c>
-      <c r="G12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v/>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
       </c>
       <c r="K12" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v/>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="L12" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="N12" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
       </c>
       <c r="O12" s="4" t="n">
         <v/>
       </c>
-      <c r="P12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v/>
+      <c r="P12" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="Q12" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
       </c>
       <c r="R12" s="4" t="n">
         <v/>
       </c>
-      <c r="S12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v/>
+      <c r="S12" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="T12" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="U12" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="V12" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="W12" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="X12" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Y12" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="Z12" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AA12" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AB12" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AC12" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="AD12" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
       </c>
       <c r="AE12" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF12" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AG12" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AH12" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI12" s="4" t="inlineStr">
+        <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="AF12" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG12" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AH12" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AI12" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AJ12" s="4" t="inlineStr">
         <is>
-          <t>QF</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AK12" s="4" t="inlineStr">
@@ -3470,12 +3516,12 @@
       </c>
       <c r="AL12" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AN12" s="3" t="inlineStr">
@@ -3484,22 +3530,22 @@
         </is>
       </c>
       <c r="AO12" s="3" t="n">
-        <v>19.94</v>
+        <v>29.69</v>
       </c>
       <c r="AP12" t="n">
-        <v>33</v>
+        <v>50.3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AR12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS12" s="3" t="n">
-        <v>60.42424242424241</v>
+        <v>59.02584493041751</v>
       </c>
       <c r="AT12" t="n">
-        <v>60.42424242424241</v>
+        <v>59.02584493041751</v>
       </c>
       <c r="AU12" t="n">
         <v>11</v>
@@ -3511,210 +3557,212 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>WISEMAN</t>
+          <t>PERRIE</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="F13" s="4" t="n">
-        <v/>
-      </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="I13" s="4" t="inlineStr">
+      <c r="K13" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="L13" s="4" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="N13" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="O13" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="P13" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q13" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="R13" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="S13" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T13" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U13" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="V13" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W13" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="K13" s="4" t="inlineStr">
+      <c r="X13" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="Y13" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Z13" s="4" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="L13" s="4" t="inlineStr">
+      <c r="AA13" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AB13" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="AC13" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD13" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE13" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF13" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG13" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="N13" s="4" t="inlineStr">
+      <c r="AH13" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI13" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ13" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="O13" s="4" t="n">
-        <v/>
-      </c>
-      <c r="P13" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="Q13" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="R13" s="4" t="n">
-        <v/>
-      </c>
-      <c r="S13" s="4" t="inlineStr">
+      <c r="AK13" s="4" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="T13" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="U13" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="V13" s="4" t="inlineStr">
+      <c r="AL13" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="W13" s="4" t="inlineStr">
+      <c r="AN13" s="3" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="X13" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Y13" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="Z13" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AA13" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AB13" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AC13" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AD13" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AE13" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF13" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AG13" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AH13" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI13" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AJ13" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AK13" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL13" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AN13" s="3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AO13" s="3" t="n">
-        <v>29.69</v>
+        <v>23.9</v>
       </c>
       <c r="AP13" t="n">
-        <v>50.3</v>
+        <v>43.45</v>
       </c>
       <c r="AQ13" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AR13" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="3" t="n">
-        <v>59.02584493041751</v>
+        <v>55.00575373993095</v>
       </c>
       <c r="AT13" t="n">
-        <v>59.02584493041751</v>
+        <v>55.00575373993095</v>
       </c>
       <c r="AU13" t="n">
         <v>12</v>
@@ -3726,200 +3774,190 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PERRIE</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="inlineStr">
+          <t>BHIMJIYANI</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v/>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v/>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="I14" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="J14" s="4" t="n">
+        <v/>
+      </c>
+      <c r="K14" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="L14" s="4" t="n">
+        <v/>
+      </c>
+      <c r="M14" s="4" t="n">
+        <v/>
+      </c>
+      <c r="N14" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="O14" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="P14" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Q14" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="R14" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="S14" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T14" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="U14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="V14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="X14" s="4" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="Y14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Z14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AB14" s="4" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="H14" s="4" t="inlineStr">
+      <c r="AC14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD14" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="I14" s="4" t="inlineStr">
+      <c r="AE14" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="J14" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="K14" s="4" t="inlineStr">
+      <c r="AF14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG14" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AH14" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="L14" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="M14" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="N14" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="O14" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="P14" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Q14" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="R14" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="S14" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T14" s="4" t="n">
-        <v/>
-      </c>
-      <c r="U14" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="V14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W14" s="4" t="inlineStr">
+      <c r="AI14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ14" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="X14" s="4" t="inlineStr">
+      <c r="AK14" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="Y14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Z14" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AA14" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AB14" s="4" t="inlineStr">
+      <c r="AL14" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AC14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AD14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG14" s="4" t="inlineStr">
+      <c r="AN14" s="3" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AH14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ14" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AK14" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AL14" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AN14" s="3" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
       <c r="AO14" s="3" t="n">
-        <v>23.9</v>
+        <v>26.74</v>
       </c>
       <c r="AP14" t="n">
-        <v>43.45</v>
+        <v>48.8</v>
       </c>
       <c r="AQ14" t="n">
         <v>10</v>
@@ -3928,10 +3966,10 @@
         <v>0</v>
       </c>
       <c r="AS14" s="3" t="n">
-        <v>55.00575373993095</v>
+        <v>54.79508196721311</v>
       </c>
       <c r="AT14" t="n">
-        <v>55.00575373993095</v>
+        <v>54.79508196721311</v>
       </c>
       <c r="AU14" t="n">
         <v>13</v>
@@ -3943,202 +3981,196 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>S</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BHIMJIYANI</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v/>
+          <t>WELTI</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="G15" s="4" t="n">
-        <v/>
+      <c r="F15" s="4" t="n">
+        <v/>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="H15" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="I15" s="4" t="inlineStr">
+      <c r="I15" s="4" t="n">
+        <v/>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v/>
+      </c>
+      <c r="K15" s="4" t="n">
+        <v/>
+      </c>
+      <c r="L15" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="M15" s="4" t="n">
+        <v/>
+      </c>
+      <c r="N15" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="O15" s="4" t="n">
+        <v/>
+      </c>
+      <c r="P15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="J15" s="4" t="n">
-        <v/>
-      </c>
-      <c r="K15" s="4" t="inlineStr">
+      <c r="Q15" s="4" t="n">
+        <v/>
+      </c>
+      <c r="R15" s="4" t="n">
+        <v/>
+      </c>
+      <c r="S15" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T15" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U15" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="V15" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="W15" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="X15" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Y15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="L15" s="4" t="n">
-        <v/>
-      </c>
-      <c r="M15" s="4" t="n">
-        <v/>
-      </c>
-      <c r="N15" s="4" t="inlineStr">
+      <c r="Z15" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA15" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AB15" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="O15" s="4" t="inlineStr">
+      <c r="AD15" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="P15" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Q15" s="4" t="inlineStr">
+      <c r="AF15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="R15" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="S15" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T15" s="4" t="inlineStr">
+      <c r="AG15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="U15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="V15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="X15" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="Y15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Z15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AB15" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AC15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AD15" s="4" t="inlineStr">
+      <c r="AH15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AE15" s="4" t="inlineStr">
+      <c r="AI15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AF15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG15" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AH15" s="4" t="inlineStr">
+      <c r="AJ15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AI15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ15" s="4" t="inlineStr">
+      <c r="AK15" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL15" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AK15" s="4" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AL15" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
       <c r="AN15" s="3" t="inlineStr">
         <is>
-          <t>QF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AO15" s="3" t="n">
-        <v>26.74</v>
+        <v>28.6</v>
       </c>
       <c r="AP15" t="n">
-        <v>48.8</v>
+        <v>52.45</v>
       </c>
       <c r="AQ15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR15" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15" s="3" t="n">
-        <v>54.79508196721311</v>
+        <v>54.52812202097235</v>
       </c>
       <c r="AT15" t="n">
-        <v>54.79508196721311</v>
+        <v>54.52812202097235</v>
       </c>
       <c r="AU15" t="n">
         <v>14</v>
@@ -4150,61 +4182,65 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>WELTI</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
+          <t>HUGHES</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v/>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v/>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="H16" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v/>
+      </c>
+      <c r="J16" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="K16" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="F16" s="4" t="n">
-        <v/>
-      </c>
-      <c r="G16" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="H16" s="4" t="inlineStr">
+      <c r="L16" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="M16" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="N16" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="I16" s="4" t="n">
-        <v/>
-      </c>
-      <c r="J16" s="4" t="n">
-        <v/>
-      </c>
-      <c r="K16" s="4" t="n">
-        <v/>
-      </c>
-      <c r="L16" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="M16" s="4" t="n">
-        <v/>
-      </c>
-      <c r="N16" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="O16" s="4" t="n">
-        <v/>
+      <c r="O16" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="P16" s="4" t="inlineStr">
         <is>
@@ -4214,14 +4250,18 @@
       <c r="Q16" s="4" t="n">
         <v/>
       </c>
-      <c r="R16" s="4" t="n">
-        <v/>
+      <c r="R16" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
       </c>
       <c r="S16" s="4" t="n">
         <v/>
       </c>
-      <c r="T16" s="4" t="n">
-        <v/>
+      <c r="T16" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
       </c>
       <c r="U16" s="4" t="inlineStr">
         <is>
@@ -4230,116 +4270,116 @@
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="X16" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="Y16" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Z16" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA16" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AB16" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC16" s="4" t="inlineStr">
+        <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="Z16" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA16" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AB16" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC16" s="4" t="inlineStr">
+      <c r="AD16" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE16" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AD16" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE16" s="4" t="inlineStr">
+      <c r="AF16" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AF16" s="4" t="inlineStr">
+      <c r="AG16" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AG16" s="4" t="inlineStr">
+      <c r="AH16" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI16" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AH16" s="4" t="inlineStr">
+      <c r="AJ16" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AI16" s="4" t="inlineStr">
+      <c r="AK16" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL16" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AJ16" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AK16" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL16" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
       <c r="AN16" s="3" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
       <c r="AO16" s="3" t="n">
-        <v>28.6</v>
+        <v>23.09</v>
       </c>
       <c r="AP16" t="n">
-        <v>52.45</v>
+        <v>43.3</v>
       </c>
       <c r="AQ16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR16" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS16" s="3" t="n">
-        <v>54.52812202097235</v>
+        <v>53.3256351039261</v>
       </c>
       <c r="AT16" t="n">
-        <v>54.52812202097235</v>
+        <v>53.3256351039261</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -4351,12 +4391,12 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HUGHES</t>
+          <t>ABRAHAMS</t>
         </is>
       </c>
       <c r="D17" s="4" t="n">
@@ -4368,187 +4408,171 @@
       <c r="F17" s="4" t="n">
         <v/>
       </c>
-      <c r="G17" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="H17" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="G17" s="4" t="n">
+        <v/>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v/>
       </c>
       <c r="I17" s="4" t="n">
         <v/>
       </c>
-      <c r="J17" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="K17" s="4" t="inlineStr">
+      <c r="J17" s="4" t="n">
+        <v/>
+      </c>
+      <c r="K17" s="4" t="n">
+        <v/>
+      </c>
+      <c r="L17" s="4" t="n">
+        <v/>
+      </c>
+      <c r="M17" s="4" t="n">
+        <v/>
+      </c>
+      <c r="N17" s="4" t="n">
+        <v/>
+      </c>
+      <c r="O17" s="4" t="n">
+        <v/>
+      </c>
+      <c r="P17" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Q17" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="R17" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="S17" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T17" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="U17" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="V17" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="W17" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="X17" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Y17" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Z17" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="L17" s="4" t="inlineStr">
+      <c r="AA17" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AB17" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC17" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AD17" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE17" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="M17" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="N17" s="4" t="inlineStr">
+      <c r="AF17" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AG17" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="O17" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="P17" s="4" t="inlineStr">
+      <c r="AH17" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AI17" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="Q17" s="4" t="n">
-        <v/>
-      </c>
-      <c r="R17" s="4" t="inlineStr">
+      <c r="AJ17" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="S17" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T17" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="U17" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="V17" s="4" t="inlineStr">
+      <c r="AK17" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="W17" s="4" t="inlineStr">
+      <c r="AL17" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="X17" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Y17" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Z17" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA17" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AB17" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC17" s="4" t="inlineStr">
+      <c r="AM17" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AD17" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE17" s="4" t="inlineStr">
+      <c r="AN17" s="3" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AF17" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AG17" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AH17" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI17" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AJ17" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AK17" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL17" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AN17" s="3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AO17" s="3" t="n">
-        <v>23.09</v>
+        <v>27.91</v>
       </c>
       <c r="AP17" t="n">
-        <v>43.3</v>
+        <v>54.35</v>
       </c>
       <c r="AQ17" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AR17" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS17" s="3" t="n">
-        <v>53.3256351039261</v>
+        <v>51.35234590616376</v>
       </c>
       <c r="AT17" t="n">
-        <v>53.3256351039261</v>
+        <v>51.35234590616376</v>
       </c>
       <c r="AU17" t="n">
         <v>16</v>
@@ -4560,12 +4584,12 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>J</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ABRAHAMS</t>
+          <t>PEMBERTON</t>
         </is>
       </c>
       <c r="D18" s="4" t="n">
@@ -4607,141 +4631,123 @@
       <c r="P18" s="4" t="n">
         <v/>
       </c>
-      <c r="Q18" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="R18" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="Q18" s="4" t="n">
+        <v/>
+      </c>
+      <c r="R18" s="4" t="n">
+        <v/>
       </c>
       <c r="S18" s="4" t="n">
         <v/>
       </c>
-      <c r="T18" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="U18" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="V18" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="W18" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="X18" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Y18" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Z18" s="4" t="inlineStr">
+      <c r="T18" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U18" s="4" t="n">
+        <v/>
+      </c>
+      <c r="V18" s="4" t="n">
+        <v/>
+      </c>
+      <c r="W18" s="4" t="n">
+        <v/>
+      </c>
+      <c r="X18" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Y18" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Z18" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AA18" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AA18" s="4" t="inlineStr">
+      <c r="AB18" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC18" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD18" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE18" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF18" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG18" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AB18" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC18" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AD18" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE18" s="4" t="inlineStr">
+      <c r="AH18" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AF18" s="4" t="inlineStr">
+      <c r="AI18" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ18" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AK18" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="AL18" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AG18" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AH18" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AI18" s="4" t="inlineStr">
+      <c r="AN18" s="3" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AJ18" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AK18" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AL18" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AN18" s="3" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
       <c r="AO18" s="3" t="n">
-        <v>27.91</v>
+        <v>17.32</v>
       </c>
       <c r="AP18" t="n">
-        <v>54.35</v>
+        <v>34.84999999999999</v>
       </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AR18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AS18" s="3" t="n">
-        <v>51.35234590616376</v>
+        <v>49.69870875179341</v>
       </c>
       <c r="AT18" t="n">
-        <v>51.35234590616376</v>
+        <v>49.69870875179341</v>
       </c>
       <c r="AU18" t="n">
         <v>17</v>
@@ -4753,12 +4759,12 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PEMBERTON</t>
+          <t>MCCAHON</t>
         </is>
       </c>
       <c r="D19" s="4" t="n">
@@ -4809,47 +4815,61 @@
       <c r="S19" s="4" t="n">
         <v/>
       </c>
-      <c r="T19" s="4" t="n">
-        <v/>
-      </c>
-      <c r="U19" s="4" t="n">
-        <v/>
-      </c>
-      <c r="V19" s="4" t="n">
-        <v/>
-      </c>
-      <c r="W19" s="4" t="n">
-        <v/>
-      </c>
-      <c r="X19" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Y19" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Z19" s="4" t="n">
-        <v/>
+      <c r="T19" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="U19" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="V19" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="W19" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="X19" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Y19" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Z19" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
       </c>
       <c r="AA19" s="4" t="inlineStr">
         <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AB19" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AC19" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="AD19" s="4" t="inlineStr">
+        <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AB19" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC19" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AD19" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AE19" s="4" t="inlineStr">
         <is>
           <t>P</t>
@@ -4862,61 +4882,61 @@
       </c>
       <c r="AG19" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AH19" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI19" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ19" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AK19" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL19" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AH19" s="4" t="inlineStr">
+      <c r="AN19" s="3" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AI19" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ19" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AK19" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AL19" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AN19" s="3" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
       <c r="AO19" s="3" t="n">
-        <v>17.32</v>
+        <v>16.1</v>
       </c>
       <c r="AP19" t="n">
-        <v>34.84999999999999</v>
+        <v>35.7</v>
       </c>
       <c r="AQ19" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AR19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AS19" s="3" t="n">
-        <v>49.69870875179341</v>
+        <v>45.09803921568628</v>
       </c>
       <c r="AT19" t="n">
-        <v>49.69870875179341</v>
+        <v>45.09803921568628</v>
       </c>
       <c r="AU19" t="n">
         <v>18</v>
@@ -4928,12 +4948,12 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MCCAHON</t>
+          <t>WISEMAN</t>
         </is>
       </c>
       <c r="D20" s="4" t="n">
@@ -4981,131 +5001,133 @@
       <c r="R20" s="4" t="n">
         <v/>
       </c>
-      <c r="S20" s="4" t="n">
-        <v/>
+      <c r="S20" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
       </c>
       <c r="T20" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U20" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
         <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="X20" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Y20" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Z20" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AA20" s="4" t="inlineStr">
+        <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="X20" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Y20" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Z20" s="4" t="inlineStr">
+      <c r="AB20" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC20" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AD20" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AA20" s="4" t="inlineStr">
+      <c r="AE20" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AF20" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AG20" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AH20" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AB20" s="4" t="inlineStr">
+      <c r="AI20" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AC20" s="4" t="inlineStr">
+      <c r="AJ20" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AK20" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL20" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AN20" s="3" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="AD20" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AE20" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF20" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG20" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AH20" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI20" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ20" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AK20" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL20" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AN20" s="3" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
       <c r="AO20" s="3" t="n">
-        <v>16.1</v>
+        <v>16.85</v>
       </c>
       <c r="AP20" t="n">
-        <v>35.7</v>
+        <v>38.55</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR20" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AS20" s="3" t="n">
-        <v>45.09803921568628</v>
+        <v>43.70946822308691</v>
       </c>
       <c r="AT20" t="n">
-        <v>45.09803921568628</v>
+        <v>43.70946822308691</v>
       </c>
       <c r="AU20" t="n">
         <v>19</v>
@@ -5117,82 +5139,110 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>WISEMAN</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="E21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="F21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="G21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="H21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="I21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="J21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="K21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="L21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="M21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="N21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="O21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="P21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Q21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="R21" s="4" t="n">
-        <v/>
-      </c>
-      <c r="S21" s="4" t="inlineStr">
+          <t>BROCK</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="M21" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="N21" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="O21" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="P21" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q21" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R21" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="S21" s="4" t="n">
+        <v/>
+      </c>
       <c r="T21" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="U21" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="X21" s="4" t="inlineStr">
@@ -5202,101 +5252,101 @@
       </c>
       <c r="Y21" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="Z21" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AA21" s="4" t="inlineStr">
         <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AB21" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AC21" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="AD21" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE21" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF21" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG21" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AH21" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AI21" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ21" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AK21" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL21" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AB21" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC21" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AD21" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AE21" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AF21" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AG21" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AH21" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AI21" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AJ21" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AK21" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL21" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM21" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
       <c r="AN21" s="3" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AO21" s="3" t="n">
-        <v>16.85</v>
+        <v>12.85</v>
       </c>
       <c r="AP21" t="n">
-        <v>38.55</v>
+        <v>30.75</v>
       </c>
       <c r="AQ21" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AR21" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS21" s="3" t="n">
-        <v>43.70946822308691</v>
+        <v>41.78861788617886</v>
       </c>
       <c r="AT21" t="n">
-        <v>43.70946822308691</v>
+        <v>41.78861788617886</v>
       </c>
       <c r="AU21" t="n">
         <v>20</v>
@@ -5308,214 +5358,186 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>P</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BROCK</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
+          <t>SATHIYAMOORTHY</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="H22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="J22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="K22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="L22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="M22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="N22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="O22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="P22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Q22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="R22" s="4" t="n">
+        <v/>
+      </c>
+      <c r="S22" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="T22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="U22" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="V22" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="W22" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="X22" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Y22" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Z22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AB22" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AC22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD22" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="AE22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AH22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI22" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="inlineStr">
+      <c r="AJ22" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AK22" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AL22" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AN22" s="3" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="L22" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="M22" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="N22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="O22" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="P22" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="Q22" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="R22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="S22" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="U22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="V22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="W22" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="X22" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Y22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="Z22" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AA22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AB22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AC22" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AD22" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE22" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF22" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG22" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AH22" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AI22" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ22" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AK22" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL22" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AN22" s="3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AO22" s="3" t="n">
-        <v>12.85</v>
+        <v>12.53</v>
       </c>
       <c r="AP22" t="n">
-        <v>30.75</v>
+        <v>30.35</v>
       </c>
       <c r="AQ22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR22" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS22" s="3" t="n">
-        <v>41.78861788617886</v>
+        <v>41.28500823723229</v>
       </c>
       <c r="AT22" t="n">
-        <v>41.78861788617886</v>
+        <v>41.28500823723229</v>
       </c>
       <c r="AU22" t="n">
         <v>21</v>
@@ -5527,12 +5549,12 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SATHIYAMOORTHY</t>
+          <t>AGARWAL</t>
         </is>
       </c>
       <c r="D23" s="4" t="n">
@@ -5580,74 +5602,48 @@
       <c r="R23" s="4" t="n">
         <v/>
       </c>
-      <c r="S23" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="T23" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="U23" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="V23" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="W23" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="X23" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Y23" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Z23" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA23" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AB23" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AC23" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AD23" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AE23" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
+      <c r="S23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="V23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="W23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="X23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Y23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Z23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AA23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AB23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AC23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AD23" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AE23" s="4" t="n">
+        <v/>
       </c>
       <c r="AF23" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AG23" s="4" t="inlineStr">
@@ -5662,51 +5658,51 @@
       </c>
       <c r="AI23" s="4" t="inlineStr">
         <is>
-          <t>QF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AJ23" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AK23" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL23" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AK23" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AL23" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AN23" s="3" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AO23" s="3" t="n">
-        <v>12.53</v>
+        <v>7.2</v>
       </c>
       <c r="AP23" t="n">
-        <v>30.35</v>
+        <v>18.35</v>
       </c>
       <c r="AQ23" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AR23" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS23" s="3" t="n">
-        <v>41.28500823723229</v>
+        <v>39.23705722070845</v>
       </c>
       <c r="AT23" t="n">
-        <v>41.28500823723229</v>
+        <v>39.23705722070845</v>
       </c>
       <c r="AU23" t="n">
         <v>22</v>
@@ -5718,12 +5714,12 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AGARWAL</t>
+          <t>LLOYD-JONES</t>
         </is>
       </c>
       <c r="D24" s="4" t="n">
@@ -5744,8 +5740,10 @@
       <c r="I24" s="4" t="n">
         <v/>
       </c>
-      <c r="J24" s="4" t="n">
-        <v/>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="K24" s="4" t="n">
         <v/>
@@ -5753,8 +5751,10 @@
       <c r="L24" s="4" t="n">
         <v/>
       </c>
-      <c r="M24" s="4" t="n">
-        <v/>
+      <c r="M24" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="N24" s="4" t="n">
         <v/>
@@ -5810,24 +5810,18 @@
       <c r="AE24" s="4" t="n">
         <v/>
       </c>
-      <c r="AF24" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AG24" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AH24" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
+      <c r="AF24" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AG24" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AH24" s="4" t="n">
+        <v/>
       </c>
       <c r="AI24" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AJ24" s="4" t="inlineStr">
@@ -5842,12 +5836,12 @@
       </c>
       <c r="AL24" s="4" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>L16</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="AN24" s="3" t="inlineStr">
@@ -5856,10 +5850,10 @@
         </is>
       </c>
       <c r="AO24" s="3" t="n">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="AP24" t="n">
-        <v>18.35</v>
+        <v>14.4</v>
       </c>
       <c r="AQ24" t="n">
         <v>3</v>
@@ -5868,10 +5862,10 @@
         <v>1</v>
       </c>
       <c r="AS24" s="3" t="n">
-        <v>39.23705722070845</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="AT24" t="n">
-        <v>39.23705722070845</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="AU24" t="n">
         <v>23</v>
@@ -5883,12 +5877,12 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LLOYD-JONES</t>
+          <t>MERRETT</t>
         </is>
       </c>
       <c r="D25" s="4" t="n">
@@ -5909,10 +5903,8 @@
       <c r="I25" s="4" t="n">
         <v/>
       </c>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="J25" s="4" t="n">
+        <v/>
       </c>
       <c r="K25" s="4" t="n">
         <v/>
@@ -5920,13 +5912,13 @@
       <c r="L25" s="4" t="n">
         <v/>
       </c>
-      <c r="M25" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="N25" s="4" t="n">
-        <v/>
+      <c r="M25" s="4" t="n">
+        <v/>
+      </c>
+      <c r="N25" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="O25" s="4" t="n">
         <v/>
@@ -5955,42 +5947,64 @@
       <c r="W25" s="4" t="n">
         <v/>
       </c>
-      <c r="X25" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Y25" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Z25" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AA25" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AB25" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AC25" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AD25" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AE25" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AF25" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AG25" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AH25" s="4" t="n">
-        <v/>
+      <c r="X25" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Y25" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Z25" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AA25" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AB25" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC25" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD25" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE25" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF25" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AG25" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AH25" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="AI25" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="AJ25" s="4" t="inlineStr">
@@ -6000,17 +6014,17 @@
       </c>
       <c r="AK25" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="AL25" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>QF</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AN25" s="3" t="inlineStr">
@@ -6019,22 +6033,22 @@
         </is>
       </c>
       <c r="AO25" s="3" t="n">
-        <v>5.6</v>
+        <v>10.6</v>
       </c>
       <c r="AP25" t="n">
-        <v>14.4</v>
+        <v>29.85</v>
       </c>
       <c r="AQ25" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AR25" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS25" s="3" t="n">
-        <v>38.88888888888889</v>
+        <v>35.5108877721943</v>
       </c>
       <c r="AT25" t="n">
-        <v>38.88888888888889</v>
+        <v>35.5108877721943</v>
       </c>
       <c r="AU25" t="n">
         <v>24</v>
@@ -6046,12 +6060,12 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>H</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MERRETT</t>
+          <t>GIBSON-LEITAO</t>
         </is>
       </c>
       <c r="D26" s="4" t="n">
@@ -6084,10 +6098,8 @@
       <c r="M26" s="4" t="n">
         <v/>
       </c>
-      <c r="N26" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="N26" s="4" t="n">
+        <v/>
       </c>
       <c r="O26" s="4" t="n">
         <v/>
@@ -6098,8 +6110,10 @@
       <c r="Q26" s="4" t="n">
         <v/>
       </c>
-      <c r="R26" s="4" t="n">
-        <v/>
+      <c r="R26" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="S26" s="4" t="n">
         <v/>
@@ -6107,18 +6121,24 @@
       <c r="T26" s="4" t="n">
         <v/>
       </c>
-      <c r="U26" s="4" t="n">
-        <v/>
-      </c>
-      <c r="V26" s="4" t="n">
-        <v/>
-      </c>
-      <c r="W26" s="4" t="n">
-        <v/>
+      <c r="U26" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="V26" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W26" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
       </c>
       <c r="X26" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Y26" s="4" t="inlineStr">
@@ -6128,29 +6148,29 @@
       </c>
       <c r="Z26" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA26" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AB26" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AC26" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="AD26" s="4" t="inlineStr">
+        <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AA26" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AB26" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC26" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AD26" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AE26" s="4" t="inlineStr">
         <is>
           <t>P</t>
@@ -6158,7 +6178,7 @@
       </c>
       <c r="AF26" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AG26" s="4" t="inlineStr">
@@ -6168,56 +6188,56 @@
       </c>
       <c r="AH26" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AI26" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ26" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AK26" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL26" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AN26" s="3" t="inlineStr">
+        <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AJ26" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AK26" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AL26" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="AM26" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AN26" s="3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AO26" s="3" t="n">
-        <v>10.6</v>
+        <v>6.95</v>
       </c>
       <c r="AP26" t="n">
-        <v>29.85</v>
+        <v>22.3</v>
       </c>
       <c r="AQ26" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AR26" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS26" s="3" t="n">
-        <v>35.5108877721943</v>
+        <v>31.16591928251121</v>
       </c>
       <c r="AT26" t="n">
-        <v>35.5108877721943</v>
+        <v>31.16591928251121</v>
       </c>
       <c r="AU26" t="n">
         <v>25</v>
@@ -6229,12 +6249,12 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GIBSON-LEITAO</t>
+          <t>PRICKETT</t>
         </is>
       </c>
       <c r="D27" s="4" t="n">
@@ -6279,10 +6299,8 @@
       <c r="Q27" s="4" t="n">
         <v/>
       </c>
-      <c r="R27" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="R27" s="4" t="n">
+        <v/>
       </c>
       <c r="S27" s="4" t="n">
         <v/>
@@ -6290,24 +6308,18 @@
       <c r="T27" s="4" t="n">
         <v/>
       </c>
-      <c r="U27" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="V27" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W27" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
+      <c r="U27" s="4" t="n">
+        <v/>
+      </c>
+      <c r="V27" s="4" t="n">
+        <v/>
+      </c>
+      <c r="W27" s="4" t="n">
+        <v/>
       </c>
       <c r="X27" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="Y27" s="4" t="inlineStr">
@@ -6332,81 +6344,81 @@
       </c>
       <c r="AC27" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD27" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE27" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AF27" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG27" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AH27" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AI27" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ27" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AK27" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AL27" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AN27" s="3" t="inlineStr">
+        <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="AD27" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AE27" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF27" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG27" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AH27" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI27" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ27" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AK27" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL27" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM27" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AN27" s="3" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
       <c r="AO27" s="3" t="n">
-        <v>6.95</v>
+        <v>7.9</v>
       </c>
       <c r="AP27" t="n">
-        <v>22.3</v>
+        <v>25.45</v>
       </c>
       <c r="AQ27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AR27" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AS27" s="3" t="n">
-        <v>31.16591928251121</v>
+        <v>31.04125736738704</v>
       </c>
       <c r="AT27" t="n">
-        <v>31.16591928251121</v>
+        <v>31.04125736738704</v>
       </c>
       <c r="AU27" t="n">
         <v>26</v>
@@ -6418,12 +6430,12 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PRICKETT</t>
+          <t>BHATTACHARYA</t>
         </is>
       </c>
       <c r="D28" s="4" t="n">
@@ -6432,14 +6444,18 @@
       <c r="E28" s="4" t="n">
         <v/>
       </c>
-      <c r="F28" s="4" t="n">
-        <v/>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="G28" s="4" t="n">
         <v/>
       </c>
-      <c r="H28" s="4" t="n">
-        <v/>
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="I28" s="4" t="n">
         <v/>
@@ -6471,24 +6487,34 @@
       <c r="R28" s="4" t="n">
         <v/>
       </c>
-      <c r="S28" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T28" s="4" t="n">
-        <v/>
-      </c>
-      <c r="U28" s="4" t="n">
-        <v/>
-      </c>
-      <c r="V28" s="4" t="n">
-        <v/>
-      </c>
-      <c r="W28" s="4" t="n">
-        <v/>
+      <c r="S28" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="T28" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="U28" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="V28" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W28" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
       </c>
       <c r="X28" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">
@@ -6503,12 +6529,12 @@
       </c>
       <c r="AA28" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AB28" s="4" t="inlineStr">
         <is>
-          <t>QF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AC28" s="4" t="inlineStr">
@@ -6518,12 +6544,12 @@
       </c>
       <c r="AD28" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AE28" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AF28" s="4" t="inlineStr">
@@ -6533,12 +6559,12 @@
       </c>
       <c r="AG28" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AH28" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AI28" s="4" t="inlineStr">
@@ -6553,12 +6579,12 @@
       </c>
       <c r="AK28" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AL28" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
@@ -6568,26 +6594,26 @@
       </c>
       <c r="AN28" s="3" t="inlineStr">
         <is>
-          <t>QF</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AO28" s="3" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>25.45</v>
+        <v>24.2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR28" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AS28" s="3" t="n">
-        <v>31.04125736738704</v>
+        <v>30.99173553719008</v>
       </c>
       <c r="AT28" t="n">
-        <v>31.04125736738704</v>
+        <v>30.99173553719008</v>
       </c>
       <c r="AU28" t="n">
         <v>27</v>
@@ -6599,32 +6625,30 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>J</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BHATTACHARYA</t>
+          <t>ALSTER</t>
         </is>
       </c>
       <c r="D29" s="4" t="n">
         <v/>
       </c>
-      <c r="E29" s="4" t="n">
-        <v/>
-      </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="n">
+        <v/>
       </c>
       <c r="G29" s="4" t="n">
         <v/>
       </c>
-      <c r="H29" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="H29" s="4" t="n">
+        <v/>
       </c>
       <c r="I29" s="4" t="n">
         <v/>
@@ -6656,133 +6680,103 @@
       <c r="R29" s="4" t="n">
         <v/>
       </c>
-      <c r="S29" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="T29" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="U29" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="V29" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W29" s="4" t="inlineStr">
+      <c r="S29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="V29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="W29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="X29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Y29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Z29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AA29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AB29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AC29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AD29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AE29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AF29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AG29" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AH29" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AI29" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ29" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="X29" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="Y29" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Z29" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA29" s="4" t="inlineStr">
+      <c r="AK29" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AL29" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AB29" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC29" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AD29" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AE29" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF29" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG29" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AH29" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI29" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ29" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AK29" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL29" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AM29" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
       <c r="AN29" s="3" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AO29" s="3" t="n">
-        <v>7.5</v>
+        <v>3.7</v>
       </c>
       <c r="AP29" t="n">
-        <v>24.2</v>
+        <v>13.35</v>
       </c>
       <c r="AQ29" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AR29" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS29" s="3" t="n">
-        <v>30.99173553719008</v>
+        <v>27.71535580524345</v>
       </c>
       <c r="AT29" t="n">
-        <v>30.99173553719008</v>
+        <v>27.71535580524345</v>
       </c>
       <c r="AU29" t="n">
         <v>28</v>
@@ -6799,16 +6793,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ALSTER</t>
+          <t>PRIOR</t>
         </is>
       </c>
       <c r="D30" s="4" t="n">
         <v/>
       </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="E30" s="4" t="n">
+        <v/>
       </c>
       <c r="F30" s="4" t="n">
         <v/>
@@ -6819,8 +6811,10 @@
       <c r="H30" s="4" t="n">
         <v/>
       </c>
-      <c r="I30" s="4" t="n">
-        <v/>
+      <c r="I30" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="J30" s="4" t="n">
         <v/>
@@ -6834,8 +6828,10 @@
       <c r="M30" s="4" t="n">
         <v/>
       </c>
-      <c r="N30" s="4" t="n">
-        <v/>
+      <c r="N30" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="O30" s="4" t="n">
         <v/>
@@ -6843,60 +6839,92 @@
       <c r="P30" s="4" t="n">
         <v/>
       </c>
-      <c r="Q30" s="4" t="n">
-        <v/>
+      <c r="Q30" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="R30" s="4" t="n">
         <v/>
       </c>
-      <c r="S30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="U30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="V30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="W30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="X30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Y30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Z30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AA30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AB30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AC30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AD30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AE30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AF30" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AG30" s="4" t="n">
-        <v/>
+      <c r="S30" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="T30" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="U30" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="V30" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W30" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="X30" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Y30" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Z30" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA30" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AB30" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC30" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD30" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AE30" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AF30" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG30" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
       </c>
       <c r="AH30" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AI30" s="4" t="inlineStr">
@@ -6906,46 +6934,46 @@
       </c>
       <c r="AJ30" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AK30" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL30" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AK30" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AL30" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
       <c r="AN30" s="3" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
       <c r="AO30" s="3" t="n">
-        <v>3.7</v>
+        <v>5.300000000000001</v>
       </c>
       <c r="AP30" t="n">
-        <v>13.35</v>
+        <v>19.65</v>
       </c>
       <c r="AQ30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR30" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS30" s="3" t="n">
-        <v>27.71535580524345</v>
+        <v>26.97201017811706</v>
       </c>
       <c r="AT30" t="n">
-        <v>27.71535580524345</v>
+        <v>26.97201017811706</v>
       </c>
       <c r="AU30" t="n">
         <v>29</v>
@@ -6957,12 +6985,12 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PRIOR</t>
+          <t>WEAVER</t>
         </is>
       </c>
       <c r="D31" s="4" t="n">
@@ -6980,10 +7008,8 @@
       <c r="H31" s="4" t="n">
         <v/>
       </c>
-      <c r="I31" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="I31" s="4" t="n">
+        <v/>
       </c>
       <c r="J31" s="4" t="n">
         <v/>
@@ -6997,10 +7023,8 @@
       <c r="M31" s="4" t="n">
         <v/>
       </c>
-      <c r="N31" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="N31" s="4" t="n">
+        <v/>
       </c>
       <c r="O31" s="4" t="n">
         <v/>
@@ -7008,141 +7032,139 @@
       <c r="P31" s="4" t="n">
         <v/>
       </c>
-      <c r="Q31" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="Q31" s="4" t="n">
+        <v/>
       </c>
       <c r="R31" s="4" t="n">
         <v/>
       </c>
       <c r="S31" s="4" t="inlineStr">
         <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="T31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="U31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="V31" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="W31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="X31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Y31" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Z31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AB31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AH31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AK31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL31" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AN31" s="3" t="inlineStr">
+        <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="T31" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="U31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="V31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="X31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Y31" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Z31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA31" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AB31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AD31" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AE31" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AF31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG31" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AH31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AK31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL31" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM31" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AN31" s="3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
       <c r="AO31" s="3" t="n">
-        <v>5.300000000000001</v>
+        <v>5</v>
       </c>
       <c r="AP31" t="n">
-        <v>19.65</v>
+        <v>19.25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR31" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="3" t="n">
-        <v>26.97201017811706</v>
+        <v>25.97402597402597</v>
       </c>
       <c r="AT31" t="n">
-        <v>26.97201017811706</v>
+        <v>25.97402597402597</v>
       </c>
       <c r="AU31" t="n">
         <v>30</v>
@@ -7154,12 +7176,12 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>WEAVER</t>
+          <t>VINEN</t>
         </is>
       </c>
       <c r="D32" s="4" t="n">
@@ -7207,84 +7229,56 @@
       <c r="R32" s="4" t="n">
         <v/>
       </c>
-      <c r="S32" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="T32" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="U32" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="V32" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="W32" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="X32" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Y32" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Z32" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA32" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AB32" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC32" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AD32" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE32" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF32" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
+      <c r="S32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="V32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="W32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="X32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Y32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Z32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AA32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AB32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AC32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AD32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AE32" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AF32" s="4" t="n">
+        <v/>
       </c>
       <c r="AG32" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AH32" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AI32" s="4" t="inlineStr">
@@ -7294,12 +7288,12 @@
       </c>
       <c r="AJ32" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AK32" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AL32" s="4" t="inlineStr">
@@ -7314,26 +7308,26 @@
       </c>
       <c r="AN32" s="3" t="inlineStr">
         <is>
-          <t>QF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AO32" s="3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AQ32" t="n">
         <v>5</v>
       </c>
-      <c r="AP32" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>4</v>
-      </c>
       <c r="AR32" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS32" s="3" t="n">
-        <v>25.97402597402597</v>
+        <v>25.08474576271186</v>
       </c>
       <c r="AT32" t="n">
-        <v>25.97402597402597</v>
+        <v>25.08474576271186</v>
       </c>
       <c r="AU32" t="n">
         <v>31</v>
@@ -7345,28 +7339,36 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>VINEN</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="n">
-        <v/>
+          <t>BHATTACHARYA</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="E33" s="4" t="n">
         <v/>
       </c>
-      <c r="F33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="G33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="H33" s="4" t="n">
-        <v/>
+      <c r="F33" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="H33" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="I33" s="4" t="n">
         <v/>
@@ -7374,8 +7376,10 @@
       <c r="J33" s="4" t="n">
         <v/>
       </c>
-      <c r="K33" s="4" t="n">
-        <v/>
+      <c r="K33" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
       </c>
       <c r="L33" s="4" t="n">
         <v/>
@@ -7398,51 +7402,79 @@
       <c r="R33" s="4" t="n">
         <v/>
       </c>
-      <c r="S33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="U33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="V33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="W33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="X33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Y33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Z33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AA33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AB33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AC33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AD33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AE33" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AF33" s="4" t="n">
-        <v/>
+      <c r="S33" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="T33" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="U33" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="V33" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W33" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="X33" s="4" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="Y33" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Z33" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA33" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AB33" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC33" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AD33" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE33" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AF33" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
       </c>
       <c r="AG33" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AH33" s="4" t="inlineStr">
@@ -7467,7 +7499,7 @@
       </c>
       <c r="AL33" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
@@ -7477,26 +7509,26 @@
       </c>
       <c r="AN33" s="3" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AO33" s="3" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="AP33" t="n">
-        <v>14.75</v>
+        <v>23.1</v>
       </c>
       <c r="AQ33" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AR33" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS33" s="3" t="n">
-        <v>25.08474576271186</v>
+        <v>21.64502164502164</v>
       </c>
       <c r="AT33" t="n">
-        <v>25.08474576271186</v>
+        <v>21.64502164502164</v>
       </c>
       <c r="AU33" t="n">
         <v>32</v>
@@ -7508,36 +7540,28 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BHATTACHARYA</t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+          <t>SCOONES</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v/>
       </c>
       <c r="E34" s="4" t="n">
         <v/>
       </c>
-      <c r="F34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="G34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="H34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="F34" s="4" t="n">
+        <v/>
+      </c>
+      <c r="G34" s="4" t="n">
+        <v/>
+      </c>
+      <c r="H34" s="4" t="n">
+        <v/>
       </c>
       <c r="I34" s="4" t="n">
         <v/>
@@ -7545,159 +7569,161 @@
       <c r="J34" s="4" t="n">
         <v/>
       </c>
-      <c r="K34" s="4" t="inlineStr">
+      <c r="K34" s="4" t="n">
+        <v/>
+      </c>
+      <c r="L34" s="4" t="n">
+        <v/>
+      </c>
+      <c r="M34" s="4" t="n">
+        <v/>
+      </c>
+      <c r="N34" s="4" t="n">
+        <v/>
+      </c>
+      <c r="O34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="P34" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Q34" s="4" t="n">
+        <v/>
+      </c>
+      <c r="R34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="S34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="T34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="U34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="V34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="W34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="X34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Y34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="Z34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AA34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AB34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AC34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AD34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AE34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AF34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AG34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AH34" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI34" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ34" s="4" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="L34" s="4" t="n">
-        <v/>
-      </c>
-      <c r="M34" s="4" t="n">
-        <v/>
-      </c>
-      <c r="N34" s="4" t="n">
-        <v/>
-      </c>
-      <c r="O34" s="4" t="n">
-        <v/>
-      </c>
-      <c r="P34" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Q34" s="4" t="n">
-        <v/>
-      </c>
-      <c r="R34" s="4" t="n">
-        <v/>
-      </c>
-      <c r="S34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="T34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="U34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="V34" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W34" s="4" t="inlineStr">
+      <c r="AK34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AL34" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr">
         <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="X34" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="Y34" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Z34" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA34" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AB34" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AC34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AD34" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AF34" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG34" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AH34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AI34" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ34" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="AK34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AL34" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AM34" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
       <c r="AN34" s="3" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AO34" s="3" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="AP34" t="n">
-        <v>23.1</v>
+        <v>22.95</v>
       </c>
       <c r="AQ34" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AR34" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS34" s="3" t="n">
-        <v>21.64502164502164</v>
+        <v>16.12200435729848</v>
       </c>
       <c r="AT34" t="n">
-        <v>21.64502164502164</v>
+        <v>16.12200435729848</v>
       </c>
       <c r="AU34" t="n">
         <v>33</v>
@@ -7709,12 +7735,12 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SCOONES</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="D35" s="4" t="n">
@@ -7750,10 +7776,8 @@
       <c r="N35" s="4" t="n">
         <v/>
       </c>
-      <c r="O35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="O35" s="4" t="n">
+        <v/>
       </c>
       <c r="P35" s="4" t="n">
         <v/>
@@ -7761,80 +7785,50 @@
       <c r="Q35" s="4" t="n">
         <v/>
       </c>
-      <c r="R35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="S35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="T35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="U35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="V35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="W35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="X35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Y35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="Z35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AA35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AB35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AC35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AD35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AE35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="AF35" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="R35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="S35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="V35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="W35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="X35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Y35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Z35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AA35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AB35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AC35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AD35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AE35" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AF35" s="4" t="n">
+        <v/>
       </c>
       <c r="AG35" s="4" t="inlineStr">
         <is>
@@ -7858,17 +7852,17 @@
       </c>
       <c r="AK35" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AL35" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>L16</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AN35" s="3" t="inlineStr">
@@ -7877,22 +7871,22 @@
         </is>
       </c>
       <c r="AO35" s="3" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="AP35" t="n">
-        <v>22.95</v>
+        <v>11.2</v>
       </c>
       <c r="AQ35" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AR35" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS35" s="3" t="n">
-        <v>16.12200435729848</v>
+        <v>15.17857142857143</v>
       </c>
       <c r="AT35" t="n">
-        <v>16.12200435729848</v>
+        <v>15.17857142857143</v>
       </c>
       <c r="AU35" t="n">
         <v>34</v>
@@ -7904,12 +7898,12 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>ARJARIA</t>
         </is>
       </c>
       <c r="D36" s="4" t="n">
@@ -7996,12 +7990,14 @@
       <c r="AE36" s="4" t="n">
         <v/>
       </c>
-      <c r="AF36" s="4" t="n">
-        <v/>
+      <c r="AF36" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="AG36" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AH36" s="4" t="inlineStr">
@@ -8011,51 +8007,51 @@
       </c>
       <c r="AI36" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AJ36" s="4" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AK36" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AL36" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
           <t>L16</t>
         </is>
       </c>
-      <c r="AK36" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AL36" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
       <c r="AN36" s="3" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
       <c r="AO36" s="3" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AP36" t="n">
-        <v>11.2</v>
+        <v>13.2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR36" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS36" s="3" t="n">
-        <v>15.17857142857143</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="AT36" t="n">
-        <v>15.17857142857143</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="AU36" t="n">
         <v>35</v>
@@ -8067,12 +8063,12 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ARJARIA</t>
+          <t>HABERSHON</t>
         </is>
       </c>
       <c r="D37" s="4" t="n">
@@ -8126,38 +8122,60 @@
       <c r="T37" s="4" t="n">
         <v/>
       </c>
-      <c r="U37" s="4" t="n">
-        <v/>
-      </c>
-      <c r="V37" s="4" t="n">
-        <v/>
-      </c>
-      <c r="W37" s="4" t="n">
-        <v/>
-      </c>
-      <c r="X37" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Y37" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Z37" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AA37" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AB37" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AC37" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AD37" s="4" t="n">
-        <v/>
-      </c>
-      <c r="AE37" s="4" t="n">
-        <v/>
+      <c r="U37" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="V37" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W37" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="X37" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Y37" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Z37" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA37" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AB37" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AC37" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AD37" s="4" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="AE37" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
       </c>
       <c r="AF37" s="4" t="inlineStr">
         <is>
@@ -8176,7 +8194,7 @@
       </c>
       <c r="AI37" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AJ37" s="4" t="inlineStr">
@@ -8191,12 +8209,12 @@
       </c>
       <c r="AL37" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>L16</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AN37" s="3" t="inlineStr">
@@ -8205,22 +8223,22 @@
         </is>
       </c>
       <c r="AO37" s="3" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="AP37" t="n">
-        <v>13.2</v>
+        <v>14.25</v>
       </c>
       <c r="AQ37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR37" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS37" s="3" t="n">
-        <v>15.15151515151515</v>
+        <v>7.719298245614034</v>
       </c>
       <c r="AT37" t="n">
-        <v>15.15151515151515</v>
+        <v>7.719298245614034</v>
       </c>
       <c r="AU37" t="n">
         <v>36</v>
@@ -8232,28 +8250,36 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HABERSHON</t>
-        </is>
-      </c>
-      <c r="D38" s="4" t="n">
-        <v/>
-      </c>
-      <c r="E38" s="4" t="n">
-        <v/>
+          <t>MORRIS</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="F38" s="4" t="n">
         <v/>
       </c>
-      <c r="G38" s="4" t="n">
-        <v/>
-      </c>
-      <c r="H38" s="4" t="n">
-        <v/>
+      <c r="G38" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="H38" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="I38" s="4" t="n">
         <v/>
@@ -8261,8 +8287,10 @@
       <c r="J38" s="4" t="n">
         <v/>
       </c>
-      <c r="K38" s="4" t="n">
-        <v/>
+      <c r="K38" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="L38" s="4" t="n">
         <v/>
@@ -8291,14 +8319,12 @@
       <c r="T38" s="4" t="n">
         <v/>
       </c>
-      <c r="U38" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="U38" s="4" t="n">
+        <v/>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -8313,7 +8339,7 @@
       </c>
       <c r="Y38" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="Z38" s="4" t="inlineStr">
@@ -8323,7 +8349,7 @@
       </c>
       <c r="AA38" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AB38" s="4" t="inlineStr">
@@ -8333,12 +8359,12 @@
       </c>
       <c r="AC38" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AD38" s="4" t="inlineStr">
         <is>
-          <t>L16</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AE38" s="4" t="inlineStr">
@@ -8348,7 +8374,7 @@
       </c>
       <c r="AF38" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AG38" s="4" t="inlineStr">
@@ -8363,7 +8389,7 @@
       </c>
       <c r="AI38" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AJ38" s="4" t="inlineStr">
@@ -8378,12 +8404,12 @@
       </c>
       <c r="AL38" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AN38" s="3" t="inlineStr">
@@ -8392,22 +8418,22 @@
         </is>
       </c>
       <c r="AO38" s="3" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AP38" t="n">
-        <v>14.25</v>
+        <v>14.85</v>
       </c>
       <c r="AQ38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AR38" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS38" s="3" t="n">
-        <v>7.719298245614034</v>
+        <v>5.387205387205388</v>
       </c>
       <c r="AT38" t="n">
-        <v>7.719298245614034</v>
+        <v>5.387205387205388</v>
       </c>
       <c r="AU38" t="n">
         <v>37</v>
@@ -8419,39 +8445,37 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MORRIS</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="E39" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="F39" s="4" t="n">
-        <v/>
-      </c>
-      <c r="G39" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+          <t>COOLEY</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="n">
+        <v/>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F39" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="G39" s="4" t="n">
+        <v/>
       </c>
       <c r="H39" s="4" t="inlineStr">
         <is>
           <t>NQ</t>
         </is>
       </c>
-      <c r="I39" s="4" t="n">
-        <v/>
+      <c r="I39" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="J39" s="4" t="n">
         <v/>
@@ -8461,35 +8485,49 @@
           <t>NQ</t>
         </is>
       </c>
-      <c r="L39" s="4" t="n">
-        <v/>
+      <c r="L39" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="M39" s="4" t="n">
         <v/>
       </c>
-      <c r="N39" s="4" t="n">
-        <v/>
-      </c>
-      <c r="O39" s="4" t="n">
-        <v/>
+      <c r="N39" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="O39" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="P39" s="4" t="n">
         <v/>
       </c>
-      <c r="Q39" s="4" t="n">
-        <v/>
+      <c r="Q39" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="R39" s="4" t="n">
         <v/>
       </c>
-      <c r="S39" s="4" t="n">
-        <v/>
-      </c>
-      <c r="T39" s="4" t="n">
-        <v/>
-      </c>
-      <c r="U39" s="4" t="n">
-        <v/>
+      <c r="S39" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="T39" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="U39" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
@@ -8498,7 +8536,7 @@
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="X39" s="4" t="inlineStr">
@@ -8513,17 +8551,17 @@
       </c>
       <c r="Z39" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="AA39" s="4" t="inlineStr">
         <is>
-          <t>L16</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AB39" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AC39" s="4" t="inlineStr">
@@ -8533,12 +8571,12 @@
       </c>
       <c r="AD39" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AE39" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AF39" s="4" t="inlineStr">
@@ -8548,22 +8586,22 @@
       </c>
       <c r="AG39" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AH39" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AI39" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AJ39" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AK39" s="4" t="inlineStr">
@@ -8573,12 +8611,12 @@
       </c>
       <c r="AL39" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AN39" s="3" t="inlineStr">
@@ -8587,22 +8625,22 @@
         </is>
       </c>
       <c r="AO39" s="3" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>14.85</v>
+        <v>17.8</v>
       </c>
       <c r="AQ39" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AR39" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS39" s="3" t="n">
-        <v>5.387205387205388</v>
+        <v>2.808988764044944</v>
       </c>
       <c r="AT39" t="n">
-        <v>5.387205387205388</v>
+        <v>2.808988764044944</v>
       </c>
       <c r="AU39" t="n">
         <v>38</v>
@@ -8614,12 +8652,12 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>K</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>COOLEY</t>
+          <t>HIRD</t>
         </is>
       </c>
       <c r="D40" s="4" t="n">
@@ -8646,8 +8684,10 @@
           <t>NQ</t>
         </is>
       </c>
-      <c r="J40" s="4" t="n">
-        <v/>
+      <c r="J40" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="K40" s="4" t="inlineStr">
         <is>
@@ -8680,8 +8720,10 @@
           <t>NQ</t>
         </is>
       </c>
-      <c r="R40" s="4" t="n">
-        <v/>
+      <c r="R40" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
       </c>
       <c r="S40" s="4" t="inlineStr">
         <is>
@@ -8710,7 +8752,7 @@
       </c>
       <c r="X40" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="Y40" s="4" t="inlineStr">
@@ -8775,7 +8817,7 @@
       </c>
       <c r="AK40" s="4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>NQ</t>
         </is>
       </c>
       <c r="AL40" s="4" t="inlineStr">
@@ -8797,19 +8839,19 @@
         <v>0.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>17.8</v>
+        <v>18.75</v>
       </c>
       <c r="AQ40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR40" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AS40" s="3" t="n">
-        <v>2.808988764044944</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.808988764044944</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AU40" t="n">
         <v>39</v>
@@ -8821,12 +8863,12 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HIRD</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="D41" s="4" t="n">
@@ -8835,50 +8877,44 @@
       <c r="E41" s="4" t="n">
         <v/>
       </c>
-      <c r="F41" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+      <c r="F41" s="4" t="n">
+        <v/>
       </c>
       <c r="G41" s="4" t="n">
         <v/>
       </c>
       <c r="H41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>L16</t>
         </is>
       </c>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="J41" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="J41" s="4" t="n">
+        <v/>
       </c>
       <c r="K41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
-        </is>
-      </c>
-      <c r="L41" s="4" t="inlineStr">
-        <is>
-          <t>NQ</t>
-        </is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="L41" s="4" t="n">
+        <v/>
       </c>
       <c r="M41" s="4" t="n">
         <v/>
       </c>
       <c r="N41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="O41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="P41" s="4" t="n">
@@ -8886,77 +8922,77 @@
       </c>
       <c r="Q41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="R41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="S41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>F</t>
         </is>
       </c>
       <c r="T41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>F</t>
         </is>
       </c>
       <c r="U41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>F</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>F</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>F</t>
         </is>
       </c>
       <c r="X41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>W</t>
         </is>
       </c>
       <c r="Y41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>F</t>
         </is>
       </c>
       <c r="Z41" s="4" t="inlineStr">
         <is>
-          <t>L16</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="AA41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>F</t>
         </is>
       </c>
       <c r="AB41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AD41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>F</t>
         </is>
       </c>
       <c r="AE41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="AF41" s="4" t="inlineStr">
@@ -8966,12 +9002,12 @@
       </c>
       <c r="AG41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="AH41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>F</t>
         </is>
       </c>
       <c r="AI41" s="4" t="inlineStr">
@@ -8981,12 +9017,12 @@
       </c>
       <c r="AJ41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>QF</t>
         </is>
       </c>
       <c r="AK41" s="4" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>F</t>
         </is>
       </c>
       <c r="AL41" s="4" t="inlineStr">
@@ -8996,7 +9032,7 @@
       </c>
       <c r="AM41" t="inlineStr">
         <is>
-          <t>NQ</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AN41" s="3" t="inlineStr">
@@ -9005,22 +9041,22 @@
         </is>
       </c>
       <c r="AO41" s="3" t="n">
-        <v>0.5</v>
+        <v>56.615</v>
       </c>
       <c r="AP41" t="n">
-        <v>18.75</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="AQ41" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR41" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS41" s="3" t="n">
-        <v>2.666666666666667</v>
+        <v>78.1975138121547</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.666666666666667</v>
+        <v>0.0781975138121547</v>
       </c>
       <c r="AU41" t="n">
         <v>40</v>
@@ -9037,7 +9073,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>HOPKINS</t>
         </is>
       </c>
       <c r="D42" s="4" t="n">
@@ -9052,146 +9088,110 @@
       <c r="G42" s="4" t="n">
         <v/>
       </c>
-      <c r="H42" s="4" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="I42" s="4" t="inlineStr">
+      <c r="H42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="I42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="J42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="K42" s="4" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="L42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="M42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="N42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="O42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="P42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Q42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="R42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="S42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="T42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="U42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="V42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="W42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="X42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Y42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="Z42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AA42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AB42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AC42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AD42" s="4" t="n">
+        <v/>
+      </c>
+      <c r="AE42" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="AF42" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AG42" s="4" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="AH42" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AI42" s="4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ42" s="4" t="inlineStr">
         <is>
           <t>QF</t>
         </is>
       </c>
-      <c r="J42" s="4" t="n">
-        <v/>
-      </c>
-      <c r="K42" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="L42" s="4" t="n">
-        <v/>
-      </c>
-      <c r="M42" s="4" t="n">
-        <v/>
-      </c>
-      <c r="N42" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="O42" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
-      <c r="P42" s="4" t="n">
-        <v/>
-      </c>
-      <c r="Q42" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="R42" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="S42" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="T42" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="U42" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="V42" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="W42" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="X42" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="Y42" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Z42" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AA42" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AB42" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC42" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AD42" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AE42" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AF42" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AG42" s="4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="AH42" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AI42" s="4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ42" s="4" t="inlineStr">
-        <is>
-          <t>QF</t>
-        </is>
-      </c>
       <c r="AK42" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AL42" s="4" t="inlineStr">
@@ -9210,22 +9210,22 @@
         </is>
       </c>
       <c r="AO42" s="3" t="n">
-        <v>56.615</v>
+        <v>19.94</v>
       </c>
       <c r="AP42" t="n">
-        <v>72.40000000000001</v>
+        <v>32</v>
       </c>
       <c r="AQ42" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AR42" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS42" s="3" t="n">
-        <v>78.1975138121547</v>
+        <v>62.31249999999999</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.0781975138121547</v>
+        <v>0.0623124999999999</v>
       </c>
       <c r="AU42" t="n">
         <v>41</v>
@@ -77962,12 +77962,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>JACK</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>SEELY</t>
+          <t>HOPKINS</t>
         </is>
       </c>
       <c r="D416" t="n">
@@ -78108,10 +78108,155 @@
       </c>
     </row>
     <row r="417">
-      <c r="AN417" s="3" t="n"/>
-      <c r="AO417" s="3" t="n"/>
-      <c r="AR417" s="3" t="n"/>
-      <c r="AS417" s="3" t="n"/>
+      <c r="A417" t="n">
+        <v>416</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>SEELY</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v/>
+      </c>
+      <c r="E417" t="n">
+        <v/>
+      </c>
+      <c r="F417" t="n">
+        <v/>
+      </c>
+      <c r="G417" t="n">
+        <v/>
+      </c>
+      <c r="H417" t="n">
+        <v/>
+      </c>
+      <c r="I417" t="n">
+        <v/>
+      </c>
+      <c r="J417" t="n">
+        <v/>
+      </c>
+      <c r="K417" t="n">
+        <v/>
+      </c>
+      <c r="L417" t="n">
+        <v/>
+      </c>
+      <c r="M417" t="n">
+        <v/>
+      </c>
+      <c r="N417" t="n">
+        <v/>
+      </c>
+      <c r="O417" t="n">
+        <v/>
+      </c>
+      <c r="P417" t="n">
+        <v/>
+      </c>
+      <c r="Q417" t="n">
+        <v/>
+      </c>
+      <c r="R417" t="n">
+        <v/>
+      </c>
+      <c r="S417" t="n">
+        <v/>
+      </c>
+      <c r="T417" t="n">
+        <v/>
+      </c>
+      <c r="U417" t="n">
+        <v/>
+      </c>
+      <c r="V417" t="n">
+        <v/>
+      </c>
+      <c r="W417" t="n">
+        <v/>
+      </c>
+      <c r="X417" t="n">
+        <v/>
+      </c>
+      <c r="Y417" t="n">
+        <v/>
+      </c>
+      <c r="Z417" t="n">
+        <v/>
+      </c>
+      <c r="AA417" t="n">
+        <v/>
+      </c>
+      <c r="AB417" t="n">
+        <v/>
+      </c>
+      <c r="AC417" t="n">
+        <v/>
+      </c>
+      <c r="AD417" t="n">
+        <v/>
+      </c>
+      <c r="AE417" t="n">
+        <v/>
+      </c>
+      <c r="AF417" t="n">
+        <v/>
+      </c>
+      <c r="AG417" t="n">
+        <v/>
+      </c>
+      <c r="AH417" t="n">
+        <v/>
+      </c>
+      <c r="AI417" t="n">
+        <v/>
+      </c>
+      <c r="AJ417" t="n">
+        <v/>
+      </c>
+      <c r="AK417" t="n">
+        <v/>
+      </c>
+      <c r="AL417" t="n">
+        <v/>
+      </c>
+      <c r="AM417" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="AN417" s="3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO417" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP417" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ417" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR417" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS417" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT417" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU417" t="n">
+        <v>416</v>
+      </c>
     </row>
     <row r="418">
       <c r="AN418" s="3" t="n"/>
@@ -78126,7 +78271,7 @@
       <c r="AS419" s="3" t="n"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:AN416">
+  <conditionalFormatting sqref="D2:AN417">
     <cfRule type="cellIs" priority="2" operator="equal" dxfId="6">
       <formula>"NQ"</formula>
     </cfRule>
